--- a/RAB RETAS.xlsx
+++ b/RAB RETAS.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DMIADX\Documents\RezaK10\old_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Income" sheetId="1" r:id="rId1"/>
-    <sheet name="RAB" sheetId="2" r:id="rId2"/>
-    <sheet name="List Seragam Keluarga" sheetId="4" r:id="rId3"/>
-    <sheet name="List Seserahan" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="RAB" sheetId="2" r:id="rId4"/>
+    <sheet name="List Seragam Keluarga" sheetId="4" r:id="rId5"/>
+    <sheet name="List Seserahan" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="214">
   <si>
     <t>Cincin</t>
   </si>
@@ -450,14 +452,234 @@
   </si>
   <si>
     <t>Nana</t>
+  </si>
+  <si>
+    <t>Kuliah</t>
+  </si>
+  <si>
+    <t>Tunangan / Nikah</t>
+  </si>
+  <si>
+    <t>After (Jpn/Rmh)</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>2028 =</t>
+  </si>
+  <si>
+    <t>Tiap THR/BONUS/INTENSIF =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028 = </t>
+  </si>
+  <si>
+    <t>2 orang</t>
+  </si>
+  <si>
+    <t>dan 35 pegangan after</t>
+  </si>
+  <si>
+    <t>THR AND BONUS =</t>
+  </si>
+  <si>
+    <t>DALAM 1 TAHUN</t>
+  </si>
+  <si>
+    <t>INTENSIF 2X AND THR =</t>
+  </si>
+  <si>
+    <t>TOTAL / TAHUN =</t>
+  </si>
+  <si>
+    <t>(POST-MERRIAGE)</t>
+  </si>
+  <si>
+    <t>X 3 TAHUN =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 BULAN </t>
+  </si>
+  <si>
+    <t>TARGET 75 JT lamaran + nikah</t>
+  </si>
+  <si>
+    <t>ahsan</t>
+  </si>
+  <si>
+    <t>mcd ngasih kulit ayam</t>
+  </si>
+  <si>
+    <t>kondangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lacoco </t>
+  </si>
+  <si>
+    <t>nonton</t>
+  </si>
+  <si>
+    <t>prj</t>
+  </si>
+  <si>
+    <t>pasar modern bsd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kopken </t>
+  </si>
+  <si>
+    <t>alisan &amp; kfc</t>
+  </si>
+  <si>
+    <t>aeon nonton &amp; solaria</t>
+  </si>
+  <si>
+    <t>lurve</t>
+  </si>
+  <si>
+    <t>kantin bsd</t>
+  </si>
+  <si>
+    <t>ruang rimba puncak</t>
+  </si>
+  <si>
+    <t>resto storwberry puncak</t>
+  </si>
+  <si>
+    <t>cofee shop samping umaku</t>
+  </si>
+  <si>
+    <t>umaku cibubur</t>
+  </si>
+  <si>
+    <t>mamagaio &amp; renan</t>
+  </si>
+  <si>
+    <t>bcbd</t>
+  </si>
+  <si>
+    <t>ayce galaxy</t>
+  </si>
+  <si>
+    <t>taichan block m</t>
+  </si>
+  <si>
+    <t>bkt</t>
+  </si>
+  <si>
+    <t>bagi kopi</t>
+  </si>
+  <si>
+    <t>pecel lele kali malang</t>
+  </si>
+  <si>
+    <t>tim</t>
+  </si>
+  <si>
+    <t>vapestore</t>
+  </si>
+  <si>
+    <t>total sks</t>
+  </si>
+  <si>
+    <t>sks smt 1</t>
+  </si>
+  <si>
+    <t>sks smt 2</t>
+  </si>
+  <si>
+    <t>sks smt 3</t>
+  </si>
+  <si>
+    <t>sks smt 4</t>
+  </si>
+  <si>
+    <t>sks smt 5</t>
+  </si>
+  <si>
+    <t>sks smt 6</t>
+  </si>
+  <si>
+    <t>sks smt 7</t>
+  </si>
+  <si>
+    <t>sks smt 8</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Accum</t>
+  </si>
+  <si>
+    <t>Plan 1</t>
+  </si>
+  <si>
+    <t>Plan 2</t>
+  </si>
+  <si>
+    <t>Bule Giyani</t>
+  </si>
+  <si>
+    <t>RAB RETAS</t>
+  </si>
+  <si>
+    <t>Darurat</t>
+  </si>
+  <si>
+    <t>Yangti (awal bulan)</t>
+  </si>
+  <si>
+    <t>Pegangan (jajan)</t>
+  </si>
+  <si>
+    <t>Main w/ thal</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Susu yangkung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHALLENGE </t>
+  </si>
+  <si>
+    <t>BELI EMAS PAS THR</t>
+  </si>
+  <si>
+    <t>Paketan</t>
+  </si>
+  <si>
+    <t>Bantu Mbak Tika (sampe April) AFTER NYA BUAT NABUNG</t>
+  </si>
+  <si>
+    <t>Start Nabung di yangti</t>
+  </si>
+  <si>
+    <t>Nabung Gnti hp</t>
+  </si>
+  <si>
+    <t>Sabun muka dan parfume</t>
+  </si>
+  <si>
+    <t>Makan atau (kasih yangti per minggu)</t>
+  </si>
+  <si>
+    <t>beli barang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -859,60 +1081,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -921,13 +1115,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -936,7 +1130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -945,37 +1139,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -994,16 +1167,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1291,26 +1553,898 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4"/>
+  <dimension ref="C15:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
+    <row r="15" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="10:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" s="36">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" s="36">
+        <v>150000</v>
+      </c>
+      <c r="L17" s="36">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="K19" s="36">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" s="36">
+        <f>K19*36</f>
+        <v>21600000</v>
+      </c>
+      <c r="L20" s="36">
+        <f>L17*36</f>
+        <v>10800000</v>
+      </c>
+    </row>
+    <row r="21" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="K21" s="36"/>
+    </row>
+    <row r="25" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>147</v>
+      </c>
+      <c r="L26" s="36">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="27" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="L27" s="36"/>
+    </row>
+    <row r="28" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>145</v>
+      </c>
+      <c r="K28" t="s">
+        <v>151</v>
+      </c>
+      <c r="L28" s="36">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="29" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>144</v>
+      </c>
+      <c r="K29" t="s">
+        <v>153</v>
+      </c>
+      <c r="L29" s="36">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="30" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="L30" s="36"/>
+    </row>
+    <row r="31" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>154</v>
+      </c>
+      <c r="L31" s="36">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="32" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>156</v>
+      </c>
+      <c r="L32" s="36">
+        <f>L31*3</f>
+        <v>7500000</v>
+      </c>
+      <c r="M32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="36"/>
+    </row>
+    <row r="37" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>148</v>
+      </c>
+      <c r="L37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>158</v>
+      </c>
+      <c r="L38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G42" s="36">
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="45" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="H45" s="36">
+        <f>G42/48</f>
+        <v>3125000</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:N71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="37" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="36">
+        <v>1000000</v>
+      </c>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="36">
+        <v>700000</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="G4" s="36"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="36"/>
+    </row>
+    <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="36">
+        <v>1200000</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="M5" s="36"/>
+    </row>
+    <row r="6" spans="2:14" s="41" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="40">
+        <v>850000</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="L6"/>
+      <c r="M6" s="36"/>
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="36">
+        <v>500000</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="44"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="36">
+        <v>400000</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="44"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="36">
+        <v>200000</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="M9" s="36"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1000000</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="48"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="36">
+        <v>100000</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="46"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
+    </row>
+    <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="36">
+        <v>200000</v>
+      </c>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="48"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="36">
+        <v>300000</v>
+      </c>
+      <c r="L13" s="47"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="44"/>
+    </row>
+    <row r="14" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="36">
+        <v>100000</v>
+      </c>
+      <c r="L14" s="47"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="44"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="36">
+        <v>200000</v>
+      </c>
+      <c r="L15" s="47"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="44"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="36">
+        <v>200000</v>
+      </c>
+      <c r="L16" s="47"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="44"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="36">
+        <v>150000</v>
+      </c>
+      <c r="M17" s="36"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="36">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="M19" s="36"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="36"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="36">
+        <f>SUM(C3:C18)</f>
+        <v>7220000</v>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="M21" s="36"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="36">
+        <v>7200000</v>
+      </c>
+      <c r="M22" s="36"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="36"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="36"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G30" s="36"/>
+      <c r="M30" s="36"/>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G42" s="36"/>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F43" s="39"/>
+      <c r="G43" s="36"/>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G44" s="36"/>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G45" s="36"/>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F46" s="39"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G47" s="40"/>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G48" s="36"/>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="36"/>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G50" s="36"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="43"/>
+    </row>
+    <row r="51" spans="7:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="42"/>
+      <c r="J51" s="43"/>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G58" s="36"/>
+    </row>
+    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G67" s="36"/>
+    </row>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E69" s="37"/>
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E70" s="37"/>
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E71" s="37"/>
+      <c r="F71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Z33"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="P4">
+        <v>20</v>
+      </c>
+      <c r="T4">
+        <v>50</v>
+      </c>
+      <c r="X4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="M6" s="44">
+        <v>21</v>
+      </c>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44">
+        <v>22</v>
+      </c>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44">
+        <v>23</v>
+      </c>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7" s="44">
+        <v>23</v>
+      </c>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44">
+        <v>24</v>
+      </c>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44">
+        <v>25</v>
+      </c>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44">
+        <v>26</v>
+      </c>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" t="s">
+        <v>185</v>
+      </c>
+      <c r="L8" t="s">
+        <v>194</v>
+      </c>
+      <c r="M8" t="s">
+        <v>186</v>
+      </c>
+      <c r="N8" t="s">
+        <v>194</v>
+      </c>
+      <c r="O8" t="s">
+        <v>187</v>
+      </c>
+      <c r="P8" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>188</v>
+      </c>
+      <c r="R8" t="s">
+        <v>194</v>
+      </c>
+      <c r="S8" t="s">
+        <v>189</v>
+      </c>
+      <c r="T8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U8" t="s">
+        <v>190</v>
+      </c>
+      <c r="V8" t="s">
+        <v>194</v>
+      </c>
+      <c r="W8" t="s">
+        <v>191</v>
+      </c>
+      <c r="X8" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I9" s="49">
+        <v>144</v>
+      </c>
+      <c r="J9" t="s">
+        <v>195</v>
+      </c>
+      <c r="K9">
+        <v>24</v>
+      </c>
+      <c r="L9">
+        <f>K9</f>
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>24</v>
+      </c>
+      <c r="N9">
+        <f>L9+M9</f>
+        <v>48</v>
+      </c>
+      <c r="O9">
+        <v>24</v>
+      </c>
+      <c r="P9">
+        <f>O9+N9</f>
+        <v>72</v>
+      </c>
+      <c r="Q9">
+        <v>24</v>
+      </c>
+      <c r="R9">
+        <f>Q9+P9</f>
+        <v>96</v>
+      </c>
+      <c r="S9">
+        <v>24</v>
+      </c>
+      <c r="T9">
+        <f>S9+R9</f>
+        <v>120</v>
+      </c>
+      <c r="U9">
+        <v>24</v>
+      </c>
+      <c r="V9">
+        <f>U9+T9</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="I10" s="49"/>
+      <c r="J10" t="s">
+        <v>196</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <f>K10</f>
+        <v>20</v>
+      </c>
+      <c r="M10">
+        <v>23</v>
+      </c>
+      <c r="N10">
+        <f>M10+L10</f>
+        <v>43</v>
+      </c>
+      <c r="O10">
+        <v>21</v>
+      </c>
+      <c r="P10">
+        <f>O10+N10</f>
+        <v>64</v>
+      </c>
+      <c r="Q10">
+        <v>24</v>
+      </c>
+      <c r="R10">
+        <f>Q10+P10</f>
+        <v>88</v>
+      </c>
+      <c r="S10">
+        <v>24</v>
+      </c>
+      <c r="T10">
+        <f>S10+R10</f>
+        <v>112</v>
+      </c>
+      <c r="U10">
+        <v>24</v>
+      </c>
+      <c r="V10">
+        <f>U10+T10</f>
+        <v>136</v>
+      </c>
+      <c r="W10">
+        <v>8</v>
+      </c>
+      <c r="X10">
+        <f>W10+V10</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="I11" s="49"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>166</v>
+      </c>
+      <c r="I12" s="49"/>
+      <c r="J12" t="s">
+        <v>193</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <f>K12</f>
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>23</v>
+      </c>
+      <c r="N12">
+        <f>M12+L12</f>
+        <v>43</v>
+      </c>
+      <c r="O12">
+        <v>21</v>
+      </c>
+      <c r="P12">
+        <f>O12+N12</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:X7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J19"/>
   <sheetViews>
@@ -1318,233 +2452,233 @@
       <selection activeCell="H7" sqref="H7:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="34" t="s">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>2</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="12">
         <v>4000000</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="28" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="20">
         <v>6000000</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="34" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="43">
+      <c r="C6" s="51"/>
+      <c r="D6" s="26">
         <f>SUM(D4:D5)</f>
         <v>10000000</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="18"/>
-      <c r="I7" s="7">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8"/>
+      <c r="I7" s="6">
         <v>2</v>
       </c>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="38" t="s">
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="I8" s="7">
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+      <c r="I8" s="6">
         <v>2</v>
       </c>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="31" t="s">
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="16">
         <v>400</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="10">
         <v>2000</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="12">
         <f>C10*D10</f>
         <v>800000</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="21" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>2</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="22"/>
-      <c r="I11" s="7">
+      <c r="D11" s="10"/>
+      <c r="E11" s="12"/>
+      <c r="I11" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>400</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="10">
         <v>2000</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="12">
         <f>C12*D12</f>
         <v>800000</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="22">
+      <c r="C13" s="5"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="12">
         <v>6000000</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="22">
+      <c r="C15" s="5"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="12">
         <v>11760000</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="23" t="s">
+    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="14">
         <v>400</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="25"/>
-      <c r="I16" s="7">
+      <c r="D16" s="17"/>
+      <c r="E16" s="15"/>
+      <c r="I16" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="38" t="s">
+    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43">
+      <c r="C17" s="54"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="26">
         <f>SUM(E9:E16)</f>
         <v>19360000</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="19" t="s">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="44"/>
+      <c r="H19" s="27"/>
       <c r="I19">
         <f>SUM(I7:I8,I10,I11,I12,I13,I15,I16,I17)</f>
         <v>18</v>
@@ -1562,441 +2696,441 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="E2" s="50" t="s">
+      <c r="C2" s="58"/>
+      <c r="E2" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="51"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="52" t="s">
+      <c r="F2" s="58"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="30" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="30" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="46" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="46" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="30" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="46" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="30" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="46" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="46" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="30" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="46" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="30" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="46" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="30" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="46" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="30" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="46" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="30" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="46" t="s">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="30" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="46" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="47"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="46" t="s">
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="47"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="46" t="s">
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="47"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="46" t="s">
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="F19" s="47"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="46" t="s">
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="F20" s="47"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="46" t="s">
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="47"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="46" t="s">
+      <c r="F21" s="30"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="F22" s="47"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="46" t="s">
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="47"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="46" t="s">
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="47"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="46" t="s">
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="46" t="s">
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="46" t="s">
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="46" t="s">
+      <c r="E27" s="29"/>
+      <c r="F27" s="30"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="46" t="s">
+      <c r="E28" s="29"/>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="E29" s="46"/>
-      <c r="F29" s="47"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="46" t="s">
+      <c r="E29" s="29"/>
+      <c r="F29" s="30"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="46" t="s">
+      <c r="E30" s="29"/>
+      <c r="F30" s="30"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="46"/>
-      <c r="F31" s="47"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="46" t="s">
+      <c r="E31" s="29"/>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="46" t="s">
+      <c r="E32" s="29"/>
+      <c r="F32" s="30"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="47"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="46"/>
-      <c r="C34" s="47" t="s">
+      <c r="E33" s="29"/>
+      <c r="F33" s="30"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="29"/>
+      <c r="C34" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="47"/>
-    </row>
-    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="48"/>
-      <c r="C35" s="49" t="s">
+      <c r="E34" s="29"/>
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="31"/>
+      <c r="C35" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="49"/>
-    </row>
-    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="41">
+      <c r="E35" s="31"/>
+      <c r="F35" s="32"/>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="25">
         <v>30</v>
       </c>
-      <c r="C36" s="45">
+      <c r="C36" s="28">
         <v>32</v>
       </c>
-      <c r="E36" s="41">
+      <c r="E36" s="25">
         <f>COUNTIF(E4:E35,"*")</f>
         <v>21</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="28">
         <v>32</v>
       </c>
     </row>
@@ -2009,405 +3143,409 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>2500000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>2500000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>2500000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="4">
+      <c r="B6" s="62"/>
+      <c r="C6" s="3">
         <f>SUM(C3:C5)</f>
         <v>7500000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="4">
+      <c r="B12" s="62"/>
+      <c r="C12" s="3">
         <f>SUM(C8:C11)</f>
         <v>360000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>1</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>320000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>2</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>3</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>4</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="4">
+      <c r="B18" s="62"/>
+      <c r="C18" s="3">
         <f>SUM(C14:C17)</f>
         <v>570000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>1</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>2</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>3</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>350000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>4</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="4">
+      <c r="B24" s="62"/>
+      <c r="C24" s="3">
         <f>SUM(C20:C23)</f>
         <v>465000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>1</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>2</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>3</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>4</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>500000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="4">
+      <c r="B30" s="62"/>
+      <c r="C30" s="3">
         <f>SUM(C26:C29)</f>
         <v>665000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>1</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>1800000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="4">
+      <c r="B33" s="62"/>
+      <c r="C33" s="3">
         <f>SUM(C32)</f>
         <v>1800000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>1</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>2</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>180000</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>3</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="8">
+      <c r="B38" s="64"/>
+      <c r="C38" s="7">
         <f>SUM(C35:C37)</f>
         <v>400000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="5">
+      <c r="B39" s="60"/>
+      <c r="C39" s="4">
         <f>SUM(C38,C33,C30,C24,C18,C12,C6)</f>
         <v>11760000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A6:B6"/>
@@ -2419,10 +3557,6 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RAB RETAS.xlsx
+++ b/RAB RETAS.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="365">
   <si>
     <t>Cincin</t>
   </si>
@@ -1100,6 +1100,33 @@
   </si>
   <si>
     <t>15 Juta Rupiah</t>
+  </si>
+  <si>
+    <t>Berat Badan</t>
+  </si>
+  <si>
+    <t>Menurunkan BB</t>
+  </si>
+  <si>
+    <t>Penurunan 4 KG</t>
+  </si>
+  <si>
+    <t>82 KG</t>
+  </si>
+  <si>
+    <t>76 KG</t>
+  </si>
+  <si>
+    <t>78 KG</t>
+  </si>
+  <si>
+    <t>72 KG</t>
+  </si>
+  <si>
+    <t>Penurunan 6 KG</t>
+  </si>
+  <si>
+    <t>68 KG</t>
   </si>
 </sst>
 </file>
@@ -3200,69 +3227,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -3886,6 +3850,81 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -3895,7 +3934,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="380">
+  <cellXfs count="384">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4134,105 +4173,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4268,9 +4208,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4422,73 +4359,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="79" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="80" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="81" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="82" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="88" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="89" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4516,24 +4387,6 @@
     <xf numFmtId="9" fontId="22" fillId="0" borderId="100" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="88" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4550,39 +4403,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="102" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="104" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="107" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="108" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="109" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="110" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="111" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="112" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="113" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="75" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4615,12 +4441,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="116" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="117" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="118" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4635,15 +4455,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="125" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="128" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="27" fillId="0" borderId="129" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4683,33 +4497,6 @@
     <xf numFmtId="0" fontId="20" fillId="13" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="131" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="132" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="134" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="133" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="135" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="136" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="137" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="138" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="139" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="112" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4722,54 +4509,27 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="90" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="140" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="141" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="142" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="143" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="144" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="145" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="111" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="117" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="146" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="115" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="147" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="148" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="143" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="149" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="144" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="150" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="151" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="152" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="153" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="154" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="145" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="146" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="147" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="148" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="149" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="126" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="95" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="105" xfId="1" applyFont="1" applyBorder="1"/>
@@ -4777,84 +4537,375 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="155" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="151" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="151" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="152" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="144" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="114" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="153" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="154" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="121" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="155" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="156" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="157" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="155" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="158" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="110" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="159" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="156" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="160" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="156" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="160" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="157" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="149" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="114" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="158" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="159" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="121" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="160" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="161" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="162" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="160" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="161" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="162" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="163" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="163" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="110" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="164" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="164" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="161" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="165" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="167" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="167" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="168" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="169" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="170" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="171" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="172" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="167" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="171" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="170" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="173" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="175" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="176" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="177" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="178" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="178" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="179" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="180" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="181" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="107" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="108" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="133" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="131" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="88" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="107" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="108" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="112" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="113" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="110" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="165" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="165" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="150" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="109" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="111" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="166" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="174" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="182" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="128" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="117" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="132" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="140" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="166" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="167" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="168" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="168" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="169" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="166" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="170" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="171" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="111" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="117" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="139" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="172" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="172" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="173" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="174" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="175" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="176" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="177" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="172" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="141" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="176" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="175" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="178" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="172" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="79" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="80" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="81" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="82" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="88" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="89" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="138" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="135" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="136" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="137" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="134" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="179" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="180" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="181" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="182" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="183" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="183" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="184" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="185" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="186" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="187" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="109" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="183" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="184" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="185" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="186" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="187" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4863,7 +4914,14 @@
     <cellStyle name="Normal 2 2" xfId="2"/>
     <cellStyle name="Percent 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5018,13 +5076,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5077,13 +5135,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5139,13 +5197,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5670,13 +5728,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5729,13 +5787,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5788,13 +5846,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5847,13 +5905,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5906,13 +5964,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5965,13 +6023,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6024,13 +6082,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6083,13 +6141,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6142,13 +6200,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6201,13 +6259,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6260,13 +6318,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6319,13 +6377,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6378,13 +6436,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6437,13 +6495,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6496,13 +6554,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6555,13 +6613,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6614,13 +6672,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6673,13 +6731,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6732,13 +6790,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6791,13 +6849,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6850,13 +6908,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6909,13 +6967,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6968,13 +7026,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7027,13 +7085,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7086,13 +7144,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7145,13 +7203,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7204,13 +7262,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7263,13 +7321,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7322,13 +7380,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7381,13 +7439,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7440,13 +7498,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7499,13 +7557,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7558,13 +7616,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7617,13 +7675,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7676,13 +7734,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7735,13 +7793,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7794,13 +7852,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7853,13 +7911,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7881,6 +7939,360 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10848975" y="15459075"/>
+          <a:ext cx="323850" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBD1566-325E-4BE8-897C-B78D5C8E4A32}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3EC0004F-0093-414A-B666-96FF52C2BB09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8724900" y="3952875"/>
+          <a:ext cx="323850" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBD1566-325E-4BE8-897C-B78D5C8E4A32}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3EC0004F-0093-414A-B666-96FF52C2BB09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8724900" y="4238625"/>
+          <a:ext cx="323850" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBD1566-325E-4BE8-897C-B78D5C8E4A32}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3EC0004F-0093-414A-B666-96FF52C2BB09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020175" y="4543425"/>
+          <a:ext cx="323850" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBD1566-325E-4BE8-897C-B78D5C8E4A32}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3EC0004F-0093-414A-B666-96FF52C2BB09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020175" y="4829175"/>
+          <a:ext cx="323850" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBD1566-325E-4BE8-897C-B78D5C8E4A32}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3EC0004F-0093-414A-B666-96FF52C2BB09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9334500" y="5153025"/>
+          <a:ext cx="323850" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBD1566-325E-4BE8-897C-B78D5C8E4A32}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3EC0004F-0093-414A-B666-96FF52C2BB09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9334500" y="5438775"/>
           <a:ext cx="323850" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -8178,3057 +8590,3371 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EY65"/>
+  <dimension ref="A1:AP71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10" style="181"/>
-    <col min="2" max="2" width="6.140625" style="179" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="180" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="181" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="181" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" style="181" customWidth="1"/>
-    <col min="7" max="8" width="13" style="179" customWidth="1"/>
-    <col min="9" max="24" width="4.5703125" style="181" customWidth="1"/>
-    <col min="25" max="26" width="4.85546875" style="181" customWidth="1"/>
-    <col min="27" max="27" width="15" style="181" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="19.7109375" style="181" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="13.85546875" style="181" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="16" style="181" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="18.42578125" style="179" hidden="1" customWidth="1"/>
-    <col min="32" max="41" width="10.42578125" style="181" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="22.140625" style="181" hidden="1" customWidth="1"/>
-    <col min="43" max="44" width="0" style="181" hidden="1" customWidth="1"/>
-    <col min="45" max="16384" width="10" style="181"/>
+    <col min="1" max="1" width="10" style="147"/>
+    <col min="2" max="2" width="6.140625" style="145" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="146" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="147" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="147" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" style="147" customWidth="1"/>
+    <col min="7" max="8" width="13" style="145" customWidth="1"/>
+    <col min="9" max="24" width="4.5703125" style="147" customWidth="1"/>
+    <col min="25" max="26" width="4.85546875" style="147" customWidth="1"/>
+    <col min="27" max="27" width="15" style="147" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="19.7109375" style="147" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="13.85546875" style="147" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="16" style="147" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="18.42578125" style="145" hidden="1" customWidth="1"/>
+    <col min="32" max="41" width="10.42578125" style="147" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="22.140625" style="147" hidden="1" customWidth="1"/>
+    <col min="43" max="44" width="0" style="147" hidden="1" customWidth="1"/>
+    <col min="45" max="16384" width="10" style="147"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="178"/>
-    </row>
-    <row r="3" spans="1:42" s="182" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B3" s="183" t="s">
+      <c r="A1" s="144"/>
+    </row>
+    <row r="3" spans="1:42" s="148" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B3" s="149" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="184"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="184"/>
-      <c r="J3" s="184"/>
-      <c r="K3" s="184"/>
-      <c r="L3" s="184"/>
-      <c r="M3" s="184"/>
-      <c r="N3" s="184"/>
-      <c r="O3" s="184"/>
-      <c r="P3" s="184"/>
-      <c r="Q3" s="184"/>
-      <c r="R3" s="184"/>
-      <c r="S3" s="184"/>
-      <c r="T3" s="184"/>
-      <c r="U3" s="184"/>
-      <c r="V3" s="184"/>
-      <c r="AE3" s="187"/>
-    </row>
-    <row r="4" spans="1:42" s="182" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
-      <c r="K4" s="184"/>
-      <c r="L4" s="184"/>
-      <c r="M4" s="184"/>
-      <c r="N4" s="184"/>
-      <c r="O4" s="184"/>
-      <c r="P4" s="184"/>
-      <c r="Q4" s="184"/>
-      <c r="R4" s="184"/>
-      <c r="S4" s="184"/>
-      <c r="T4" s="184"/>
-      <c r="U4" s="184"/>
-      <c r="V4" s="184"/>
-      <c r="AA4" s="188"/>
-      <c r="AB4" s="188"/>
-      <c r="AC4" s="188"/>
-      <c r="AD4" s="188"/>
-      <c r="AE4" s="187"/>
-    </row>
-    <row r="5" spans="1:42" s="182" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A5" s="189"/>
-      <c r="B5" s="190" t="s">
+      <c r="C3" s="150"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="AE3" s="153"/>
+    </row>
+    <row r="4" spans="1:42" s="148" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
+      <c r="AA4" s="154"/>
+      <c r="AB4" s="154"/>
+      <c r="AC4" s="154"/>
+      <c r="AD4" s="154"/>
+      <c r="AE4" s="153"/>
+    </row>
+    <row r="5" spans="1:42" s="148" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A5" s="155"/>
+      <c r="B5" s="337" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="191" t="s">
+      <c r="C5" s="339" t="s">
         <v>299</v>
       </c>
-      <c r="D5" s="306"/>
-      <c r="E5" s="192" t="s">
+      <c r="D5" s="340"/>
+      <c r="E5" s="320" t="s">
         <v>300</v>
       </c>
-      <c r="F5" s="193" t="s">
+      <c r="F5" s="286" t="s">
         <v>301</v>
       </c>
-      <c r="G5" s="193" t="s">
+      <c r="G5" s="286" t="s">
         <v>302</v>
       </c>
-      <c r="H5" s="192" t="s">
+      <c r="H5" s="320" t="s">
         <v>330</v>
       </c>
-      <c r="I5" s="194">
+      <c r="I5" s="288">
         <v>2025</v>
       </c>
-      <c r="J5" s="293"/>
-      <c r="K5" s="294">
+      <c r="J5" s="289"/>
+      <c r="K5" s="312">
         <v>2026</v>
       </c>
-      <c r="L5" s="293"/>
-      <c r="M5" s="294">
+      <c r="L5" s="289"/>
+      <c r="M5" s="312">
         <v>2027</v>
       </c>
-      <c r="N5" s="293"/>
-      <c r="O5" s="294">
+      <c r="N5" s="289"/>
+      <c r="O5" s="312">
         <v>2028</v>
       </c>
-      <c r="P5" s="293"/>
-      <c r="Q5" s="294">
+      <c r="P5" s="289"/>
+      <c r="Q5" s="312">
         <v>2029</v>
       </c>
-      <c r="R5" s="293"/>
-      <c r="S5" s="294">
+      <c r="R5" s="289"/>
+      <c r="S5" s="312">
         <v>2030</v>
       </c>
-      <c r="T5" s="293"/>
-      <c r="U5" s="294">
+      <c r="T5" s="289"/>
+      <c r="U5" s="312">
         <v>2031</v>
       </c>
-      <c r="V5" s="293"/>
-      <c r="W5" s="195">
+      <c r="V5" s="289"/>
+      <c r="W5" s="318">
         <v>2032</v>
       </c>
-      <c r="X5" s="196"/>
-      <c r="Y5" s="220"/>
-      <c r="Z5" s="220"/>
-      <c r="AA5" s="197" t="s">
+      <c r="X5" s="319"/>
+      <c r="Y5" s="164"/>
+      <c r="Z5" s="164"/>
+      <c r="AA5" s="332" t="s">
         <v>303</v>
       </c>
-      <c r="AB5" s="198" t="s">
+      <c r="AB5" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="AC5" s="199" t="s">
+      <c r="AC5" s="336" t="s">
         <v>305</v>
       </c>
-      <c r="AD5" s="200" t="s">
+      <c r="AD5" s="322" t="s">
         <v>193</v>
       </c>
-      <c r="AE5" s="201" t="s">
+      <c r="AE5" s="324" t="s">
         <v>306</v>
       </c>
-      <c r="AF5" s="202" t="s">
+      <c r="AF5" s="326" t="s">
         <v>307</v>
       </c>
-      <c r="AG5" s="203"/>
-      <c r="AH5" s="203"/>
-      <c r="AI5" s="203"/>
-      <c r="AJ5" s="203"/>
-      <c r="AK5" s="203"/>
-      <c r="AL5" s="203"/>
-      <c r="AM5" s="204"/>
-    </row>
-    <row r="6" spans="1:42" s="213" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="205"/>
-      <c r="B6" s="309"/>
-      <c r="C6" s="307"/>
-      <c r="D6" s="308"/>
-      <c r="E6" s="295"/>
-      <c r="F6" s="296"/>
-      <c r="G6" s="296"/>
-      <c r="H6" s="314"/>
-      <c r="I6" s="297"/>
-      <c r="J6" s="298"/>
-      <c r="K6" s="299"/>
-      <c r="L6" s="298"/>
-      <c r="M6" s="299"/>
-      <c r="N6" s="298"/>
-      <c r="O6" s="299"/>
-      <c r="P6" s="298"/>
-      <c r="Q6" s="299"/>
-      <c r="R6" s="298"/>
-      <c r="S6" s="299"/>
-      <c r="T6" s="298"/>
-      <c r="U6" s="299"/>
-      <c r="V6" s="298"/>
-      <c r="W6" s="300"/>
-      <c r="X6" s="301"/>
-      <c r="Y6" s="220"/>
-      <c r="Z6" s="220"/>
-      <c r="AA6" s="206"/>
-      <c r="AB6" s="207"/>
-      <c r="AC6" s="199"/>
-      <c r="AD6" s="208"/>
-      <c r="AE6" s="209"/>
-      <c r="AF6" s="210"/>
-      <c r="AG6" s="211"/>
-      <c r="AH6" s="211"/>
-      <c r="AI6" s="211"/>
-      <c r="AJ6" s="211"/>
-      <c r="AK6" s="211"/>
-      <c r="AL6" s="211"/>
-      <c r="AM6" s="212"/>
+      <c r="AG5" s="327"/>
+      <c r="AH5" s="327"/>
+      <c r="AI5" s="327"/>
+      <c r="AJ5" s="327"/>
+      <c r="AK5" s="327"/>
+      <c r="AL5" s="327"/>
+      <c r="AM5" s="328"/>
+    </row>
+    <row r="6" spans="1:42" s="157" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="156"/>
+      <c r="B6" s="338"/>
+      <c r="C6" s="341"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="343"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="287"/>
+      <c r="H6" s="321"/>
+      <c r="I6" s="379"/>
+      <c r="J6" s="380"/>
+      <c r="K6" s="381"/>
+      <c r="L6" s="382"/>
+      <c r="M6" s="381"/>
+      <c r="N6" s="382"/>
+      <c r="O6" s="381"/>
+      <c r="P6" s="382"/>
+      <c r="Q6" s="381"/>
+      <c r="R6" s="382"/>
+      <c r="S6" s="381"/>
+      <c r="T6" s="382"/>
+      <c r="U6" s="381"/>
+      <c r="V6" s="382"/>
+      <c r="W6" s="381"/>
+      <c r="X6" s="383"/>
+      <c r="Y6" s="164"/>
+      <c r="Z6" s="164"/>
+      <c r="AA6" s="333"/>
+      <c r="AB6" s="335"/>
+      <c r="AC6" s="336"/>
+      <c r="AD6" s="323"/>
+      <c r="AE6" s="325"/>
+      <c r="AF6" s="329"/>
+      <c r="AG6" s="330"/>
+      <c r="AH6" s="330"/>
+      <c r="AI6" s="330"/>
+      <c r="AJ6" s="330"/>
+      <c r="AK6" s="330"/>
+      <c r="AL6" s="330"/>
+      <c r="AM6" s="331"/>
     </row>
     <row r="7" spans="1:42" ht="23.25" customHeight="1" thickTop="1">
-      <c r="A7" s="205"/>
-      <c r="B7" s="311">
+      <c r="A7" s="156"/>
+      <c r="B7" s="313">
         <v>1</v>
       </c>
-      <c r="C7" s="310" t="s">
+      <c r="C7" s="316" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="158" t="s">
         <v>321</v>
       </c>
-      <c r="E7" s="214" t="s">
+      <c r="E7" s="158" t="s">
         <v>327</v>
       </c>
-      <c r="F7" s="305" t="s">
+      <c r="F7" s="221" t="s">
         <v>322</v>
       </c>
-      <c r="G7" s="215" t="s">
+      <c r="G7" s="159" t="s">
         <v>310</v>
       </c>
-      <c r="H7" s="215"/>
-      <c r="I7" s="216"/>
-      <c r="J7" s="320"/>
-      <c r="K7" s="217"/>
-      <c r="L7" s="320"/>
-      <c r="M7" s="217"/>
-      <c r="N7" s="320"/>
-      <c r="O7" s="217"/>
-      <c r="P7" s="320"/>
-      <c r="Q7" s="217"/>
-      <c r="R7" s="320"/>
-      <c r="S7" s="217"/>
-      <c r="T7" s="320"/>
-      <c r="U7" s="286"/>
-      <c r="V7" s="287"/>
-      <c r="W7" s="219"/>
-      <c r="X7" s="288"/>
-      <c r="Y7" s="220"/>
-      <c r="Z7" s="220"/>
-      <c r="AA7" s="221">
+      <c r="H7" s="159"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="227"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="227"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="227"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="227"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="227"/>
+      <c r="S7" s="161"/>
+      <c r="T7" s="227"/>
+      <c r="U7" s="211"/>
+      <c r="V7" s="212"/>
+      <c r="W7" s="163"/>
+      <c r="X7" s="213"/>
+      <c r="Y7" s="164"/>
+      <c r="Z7" s="164"/>
+      <c r="AA7" s="165">
         <v>0.05</v>
       </c>
-      <c r="AB7" s="222">
+      <c r="AB7" s="166">
         <v>1</v>
       </c>
-      <c r="AC7" s="223">
+      <c r="AC7" s="167">
         <v>0.2</v>
       </c>
-      <c r="AD7" s="224">
-        <f t="shared" ref="AD7:AD33" si="0">AA7*AB7*AC7</f>
+      <c r="AD7" s="168">
+        <f t="shared" ref="AD7:AD39" si="0">AA7*AB7*AC7</f>
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="AE7" s="225">
+      <c r="AE7" s="169">
         <v>1</v>
       </c>
-      <c r="AF7" s="226" t="s">
+      <c r="AF7" s="292" t="s">
         <v>308</v>
       </c>
-      <c r="AG7" s="227"/>
-      <c r="AH7" s="227"/>
-      <c r="AI7" s="227"/>
-      <c r="AJ7" s="227"/>
-      <c r="AK7" s="227"/>
-      <c r="AL7" s="227"/>
-      <c r="AM7" s="228"/>
-      <c r="AO7" s="229" t="s">
+      <c r="AG7" s="293"/>
+      <c r="AH7" s="293"/>
+      <c r="AI7" s="293"/>
+      <c r="AJ7" s="293"/>
+      <c r="AK7" s="293"/>
+      <c r="AL7" s="293"/>
+      <c r="AM7" s="294"/>
+      <c r="AO7" s="290" t="s">
         <v>309</v>
       </c>
-      <c r="AP7" s="230"/>
+      <c r="AP7" s="291"/>
     </row>
     <row r="8" spans="1:42" ht="23.25" customHeight="1">
-      <c r="A8" s="205"/>
-      <c r="B8" s="312"/>
-      <c r="C8" s="231"/>
-      <c r="D8" s="214" t="s">
+      <c r="A8" s="156"/>
+      <c r="B8" s="314"/>
+      <c r="C8" s="303"/>
+      <c r="D8" s="158" t="s">
         <v>321</v>
       </c>
-      <c r="E8" s="214" t="s">
+      <c r="E8" s="158" t="s">
         <v>327</v>
       </c>
-      <c r="F8" s="215" t="s">
+      <c r="F8" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G8" s="215" t="s">
+      <c r="G8" s="159" t="s">
         <v>323</v>
       </c>
-      <c r="H8" s="215"/>
-      <c r="I8" s="216"/>
-      <c r="J8" s="321"/>
-      <c r="K8" s="217"/>
-      <c r="L8" s="321"/>
-      <c r="M8" s="217"/>
-      <c r="N8" s="321"/>
-      <c r="O8" s="217"/>
-      <c r="P8" s="321"/>
-      <c r="Q8" s="217"/>
-      <c r="R8" s="321"/>
-      <c r="S8" s="217"/>
-      <c r="T8" s="321"/>
-      <c r="U8" s="286"/>
-      <c r="V8" s="287"/>
-      <c r="W8" s="219"/>
-      <c r="X8" s="288"/>
-      <c r="Y8" s="220"/>
-      <c r="Z8" s="220"/>
-      <c r="AA8" s="221">
+      <c r="H8" s="159"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="228"/>
+      <c r="K8" s="161"/>
+      <c r="L8" s="228"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="228"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="228"/>
+      <c r="Q8" s="161"/>
+      <c r="R8" s="228"/>
+      <c r="S8" s="161"/>
+      <c r="T8" s="228"/>
+      <c r="U8" s="211"/>
+      <c r="V8" s="212"/>
+      <c r="W8" s="163"/>
+      <c r="X8" s="213"/>
+      <c r="Y8" s="164"/>
+      <c r="Z8" s="164"/>
+      <c r="AA8" s="165">
         <v>0.05</v>
       </c>
-      <c r="AB8" s="222">
+      <c r="AB8" s="166">
         <v>1</v>
       </c>
-      <c r="AC8" s="223">
+      <c r="AC8" s="167">
         <v>0.2</v>
       </c>
-      <c r="AD8" s="224">
+      <c r="AD8" s="168">
         <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="AE8" s="225"/>
-      <c r="AF8" s="226" t="s">
+      <c r="AE8" s="169"/>
+      <c r="AF8" s="292" t="s">
         <v>308</v>
       </c>
-      <c r="AG8" s="227"/>
-      <c r="AH8" s="227"/>
-      <c r="AI8" s="227"/>
-      <c r="AJ8" s="227"/>
-      <c r="AK8" s="227"/>
-      <c r="AL8" s="227"/>
-      <c r="AM8" s="228"/>
-      <c r="AO8" s="232"/>
-      <c r="AP8" s="233"/>
+      <c r="AG8" s="293"/>
+      <c r="AH8" s="293"/>
+      <c r="AI8" s="293"/>
+      <c r="AJ8" s="293"/>
+      <c r="AK8" s="293"/>
+      <c r="AL8" s="293"/>
+      <c r="AM8" s="294"/>
+      <c r="AO8" s="170"/>
+      <c r="AP8" s="171"/>
     </row>
     <row r="9" spans="1:42" ht="23.25" customHeight="1">
-      <c r="A9" s="205"/>
-      <c r="B9" s="312"/>
-      <c r="C9" s="231"/>
-      <c r="D9" s="214" t="s">
+      <c r="A9" s="156"/>
+      <c r="B9" s="314"/>
+      <c r="C9" s="303"/>
+      <c r="D9" s="158" t="s">
         <v>324</v>
       </c>
-      <c r="E9" s="214" t="s">
+      <c r="E9" s="158" t="s">
         <v>328</v>
       </c>
-      <c r="F9" s="215" t="s">
+      <c r="F9" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G9" s="215" t="s">
+      <c r="G9" s="159" t="s">
         <v>310</v>
       </c>
-      <c r="H9" s="215"/>
-      <c r="I9" s="216"/>
-      <c r="J9" s="321"/>
-      <c r="K9" s="217"/>
-      <c r="L9" s="321"/>
-      <c r="M9" s="217"/>
-      <c r="N9" s="321"/>
-      <c r="O9" s="217"/>
-      <c r="P9" s="321"/>
-      <c r="Q9" s="217"/>
-      <c r="R9" s="321"/>
-      <c r="S9" s="217"/>
-      <c r="T9" s="321"/>
-      <c r="U9" s="286"/>
-      <c r="V9" s="287"/>
-      <c r="W9" s="219"/>
-      <c r="X9" s="288"/>
-      <c r="Y9" s="220"/>
-      <c r="Z9" s="220"/>
-      <c r="AA9" s="221"/>
-      <c r="AB9" s="222"/>
-      <c r="AC9" s="223"/>
-      <c r="AD9" s="224"/>
-      <c r="AE9" s="225"/>
-      <c r="AF9" s="317"/>
-      <c r="AG9" s="318"/>
-      <c r="AH9" s="318"/>
-      <c r="AI9" s="318"/>
-      <c r="AJ9" s="318"/>
-      <c r="AK9" s="318"/>
-      <c r="AL9" s="318"/>
-      <c r="AM9" s="319"/>
-      <c r="AO9" s="232"/>
-      <c r="AP9" s="233"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="228"/>
+      <c r="K9" s="161"/>
+      <c r="L9" s="228"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="228"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="228"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="228"/>
+      <c r="S9" s="161"/>
+      <c r="T9" s="228"/>
+      <c r="U9" s="211"/>
+      <c r="V9" s="212"/>
+      <c r="W9" s="163"/>
+      <c r="X9" s="213"/>
+      <c r="Y9" s="164"/>
+      <c r="Z9" s="164"/>
+      <c r="AA9" s="165"/>
+      <c r="AB9" s="166"/>
+      <c r="AC9" s="167"/>
+      <c r="AD9" s="168"/>
+      <c r="AE9" s="169"/>
+      <c r="AF9" s="224"/>
+      <c r="AG9" s="225"/>
+      <c r="AH9" s="225"/>
+      <c r="AI9" s="225"/>
+      <c r="AJ9" s="225"/>
+      <c r="AK9" s="225"/>
+      <c r="AL9" s="225"/>
+      <c r="AM9" s="226"/>
+      <c r="AO9" s="170"/>
+      <c r="AP9" s="171"/>
     </row>
     <row r="10" spans="1:42" ht="23.25" customHeight="1">
-      <c r="A10" s="205"/>
-      <c r="B10" s="312"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="214" t="s">
+      <c r="A10" s="156"/>
+      <c r="B10" s="314"/>
+      <c r="C10" s="303"/>
+      <c r="D10" s="158" t="s">
         <v>324</v>
       </c>
-      <c r="E10" s="214" t="s">
+      <c r="E10" s="158" t="s">
         <v>328</v>
       </c>
-      <c r="F10" s="215" t="s">
+      <c r="F10" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G10" s="215" t="s">
+      <c r="G10" s="159" t="s">
         <v>323</v>
       </c>
-      <c r="H10" s="215"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="321"/>
-      <c r="K10" s="217"/>
-      <c r="L10" s="321"/>
-      <c r="M10" s="217"/>
-      <c r="N10" s="321"/>
-      <c r="O10" s="217"/>
-      <c r="P10" s="321"/>
-      <c r="Q10" s="217"/>
-      <c r="R10" s="321"/>
-      <c r="S10" s="217"/>
-      <c r="T10" s="321"/>
-      <c r="U10" s="286"/>
-      <c r="V10" s="287"/>
-      <c r="W10" s="219"/>
-      <c r="X10" s="288"/>
-      <c r="Y10" s="220"/>
-      <c r="Z10" s="220"/>
-      <c r="AA10" s="221"/>
-      <c r="AB10" s="222"/>
-      <c r="AC10" s="223"/>
-      <c r="AD10" s="224"/>
-      <c r="AE10" s="225"/>
-      <c r="AF10" s="317"/>
-      <c r="AG10" s="318"/>
-      <c r="AH10" s="318"/>
-      <c r="AI10" s="318"/>
-      <c r="AJ10" s="318"/>
-      <c r="AK10" s="318"/>
-      <c r="AL10" s="318"/>
-      <c r="AM10" s="319"/>
-      <c r="AO10" s="232"/>
-      <c r="AP10" s="233"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="228"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="228"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="228"/>
+      <c r="O10" s="161"/>
+      <c r="P10" s="228"/>
+      <c r="Q10" s="161"/>
+      <c r="R10" s="228"/>
+      <c r="S10" s="161"/>
+      <c r="T10" s="228"/>
+      <c r="U10" s="211"/>
+      <c r="V10" s="212"/>
+      <c r="W10" s="163"/>
+      <c r="X10" s="213"/>
+      <c r="Y10" s="164"/>
+      <c r="Z10" s="164"/>
+      <c r="AA10" s="165"/>
+      <c r="AB10" s="166"/>
+      <c r="AC10" s="167"/>
+      <c r="AD10" s="168"/>
+      <c r="AE10" s="169"/>
+      <c r="AF10" s="224"/>
+      <c r="AG10" s="225"/>
+      <c r="AH10" s="225"/>
+      <c r="AI10" s="225"/>
+      <c r="AJ10" s="225"/>
+      <c r="AK10" s="225"/>
+      <c r="AL10" s="225"/>
+      <c r="AM10" s="226"/>
+      <c r="AO10" s="170"/>
+      <c r="AP10" s="171"/>
     </row>
     <row r="11" spans="1:42" ht="23.25" customHeight="1">
-      <c r="A11" s="205"/>
-      <c r="B11" s="312"/>
-      <c r="C11" s="231"/>
-      <c r="D11" s="214" t="s">
+      <c r="A11" s="156"/>
+      <c r="B11" s="314"/>
+      <c r="C11" s="303"/>
+      <c r="D11" s="158" t="s">
         <v>325</v>
       </c>
-      <c r="E11" s="214" t="s">
+      <c r="E11" s="158" t="s">
         <v>327</v>
       </c>
-      <c r="F11" s="215" t="s">
+      <c r="F11" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G11" s="215" t="s">
+      <c r="G11" s="159" t="s">
         <v>310</v>
       </c>
-      <c r="H11" s="215"/>
-      <c r="I11" s="216"/>
-      <c r="J11" s="321"/>
-      <c r="K11" s="217"/>
-      <c r="L11" s="321"/>
-      <c r="M11" s="217"/>
-      <c r="N11" s="321"/>
-      <c r="O11" s="217"/>
-      <c r="P11" s="321"/>
-      <c r="Q11" s="217"/>
-      <c r="R11" s="321"/>
-      <c r="S11" s="217"/>
-      <c r="T11" s="321"/>
-      <c r="U11" s="286"/>
-      <c r="V11" s="287"/>
-      <c r="W11" s="219"/>
-      <c r="X11" s="288"/>
-      <c r="Y11" s="220"/>
-      <c r="Z11" s="220"/>
-      <c r="AA11" s="221"/>
-      <c r="AB11" s="222"/>
-      <c r="AC11" s="223"/>
-      <c r="AD11" s="224"/>
-      <c r="AE11" s="225"/>
-      <c r="AF11" s="317"/>
-      <c r="AG11" s="318"/>
-      <c r="AH11" s="318"/>
-      <c r="AI11" s="318"/>
-      <c r="AJ11" s="318"/>
-      <c r="AK11" s="318"/>
-      <c r="AL11" s="318"/>
-      <c r="AM11" s="319"/>
-      <c r="AO11" s="232"/>
-      <c r="AP11" s="233"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="228"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="228"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="228"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="228"/>
+      <c r="Q11" s="161"/>
+      <c r="R11" s="228"/>
+      <c r="S11" s="161"/>
+      <c r="T11" s="228"/>
+      <c r="U11" s="211"/>
+      <c r="V11" s="212"/>
+      <c r="W11" s="163"/>
+      <c r="X11" s="213"/>
+      <c r="Y11" s="164"/>
+      <c r="Z11" s="164"/>
+      <c r="AA11" s="165"/>
+      <c r="AB11" s="166"/>
+      <c r="AC11" s="167"/>
+      <c r="AD11" s="168"/>
+      <c r="AE11" s="169"/>
+      <c r="AF11" s="224"/>
+      <c r="AG11" s="225"/>
+      <c r="AH11" s="225"/>
+      <c r="AI11" s="225"/>
+      <c r="AJ11" s="225"/>
+      <c r="AK11" s="225"/>
+      <c r="AL11" s="225"/>
+      <c r="AM11" s="226"/>
+      <c r="AO11" s="170"/>
+      <c r="AP11" s="171"/>
     </row>
     <row r="12" spans="1:42" ht="23.25" customHeight="1">
-      <c r="A12" s="205"/>
-      <c r="B12" s="312"/>
-      <c r="C12" s="231"/>
-      <c r="D12" s="214" t="s">
+      <c r="A12" s="156"/>
+      <c r="B12" s="314"/>
+      <c r="C12" s="303"/>
+      <c r="D12" s="158" t="s">
         <v>325</v>
       </c>
-      <c r="E12" s="214" t="s">
+      <c r="E12" s="158" t="s">
         <v>327</v>
       </c>
-      <c r="F12" s="215" t="s">
+      <c r="F12" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G12" s="215" t="s">
+      <c r="G12" s="159" t="s">
         <v>323</v>
       </c>
-      <c r="H12" s="215"/>
-      <c r="I12" s="216"/>
-      <c r="J12" s="321"/>
-      <c r="K12" s="217"/>
-      <c r="L12" s="321"/>
-      <c r="M12" s="217"/>
-      <c r="N12" s="321"/>
-      <c r="O12" s="217"/>
-      <c r="P12" s="321"/>
-      <c r="Q12" s="217"/>
-      <c r="R12" s="321"/>
-      <c r="S12" s="217"/>
-      <c r="T12" s="321"/>
-      <c r="U12" s="286"/>
-      <c r="V12" s="287"/>
-      <c r="W12" s="219"/>
-      <c r="X12" s="288"/>
-      <c r="Y12" s="220"/>
-      <c r="Z12" s="220"/>
-      <c r="AA12" s="221"/>
-      <c r="AB12" s="222"/>
-      <c r="AC12" s="223"/>
-      <c r="AD12" s="224"/>
-      <c r="AE12" s="225"/>
-      <c r="AF12" s="317"/>
-      <c r="AG12" s="318"/>
-      <c r="AH12" s="318"/>
-      <c r="AI12" s="318"/>
-      <c r="AJ12" s="318"/>
-      <c r="AK12" s="318"/>
-      <c r="AL12" s="318"/>
-      <c r="AM12" s="319"/>
-      <c r="AO12" s="232"/>
-      <c r="AP12" s="233"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="228"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="228"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="228"/>
+      <c r="O12" s="161"/>
+      <c r="P12" s="228"/>
+      <c r="Q12" s="161"/>
+      <c r="R12" s="228"/>
+      <c r="S12" s="161"/>
+      <c r="T12" s="228"/>
+      <c r="U12" s="211"/>
+      <c r="V12" s="212"/>
+      <c r="W12" s="163"/>
+      <c r="X12" s="213"/>
+      <c r="Y12" s="164"/>
+      <c r="Z12" s="164"/>
+      <c r="AA12" s="165"/>
+      <c r="AB12" s="166"/>
+      <c r="AC12" s="167"/>
+      <c r="AD12" s="168"/>
+      <c r="AE12" s="169"/>
+      <c r="AF12" s="224"/>
+      <c r="AG12" s="225"/>
+      <c r="AH12" s="225"/>
+      <c r="AI12" s="225"/>
+      <c r="AJ12" s="225"/>
+      <c r="AK12" s="225"/>
+      <c r="AL12" s="225"/>
+      <c r="AM12" s="226"/>
+      <c r="AO12" s="170"/>
+      <c r="AP12" s="171"/>
     </row>
     <row r="13" spans="1:42" ht="23.25" customHeight="1">
-      <c r="A13" s="205"/>
-      <c r="B13" s="312"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="214" t="s">
+      <c r="A13" s="156"/>
+      <c r="B13" s="314"/>
+      <c r="C13" s="303"/>
+      <c r="D13" s="158" t="s">
         <v>326</v>
       </c>
-      <c r="E13" s="214" t="s">
+      <c r="E13" s="158" t="s">
         <v>329</v>
       </c>
-      <c r="F13" s="215" t="s">
+      <c r="F13" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G13" s="215" t="s">
+      <c r="G13" s="159" t="s">
         <v>310</v>
       </c>
-      <c r="H13" s="215"/>
-      <c r="I13" s="216"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="217"/>
-      <c r="L13" s="321"/>
-      <c r="M13" s="217"/>
-      <c r="N13" s="321"/>
-      <c r="O13" s="217"/>
-      <c r="P13" s="321"/>
-      <c r="Q13" s="217"/>
-      <c r="R13" s="321"/>
-      <c r="S13" s="217"/>
-      <c r="T13" s="321"/>
-      <c r="U13" s="286"/>
-      <c r="V13" s="287"/>
-      <c r="W13" s="219"/>
-      <c r="X13" s="288"/>
-      <c r="Y13" s="220"/>
-      <c r="Z13" s="220"/>
-      <c r="AA13" s="221"/>
-      <c r="AB13" s="222"/>
-      <c r="AC13" s="223"/>
-      <c r="AD13" s="224"/>
-      <c r="AE13" s="225"/>
-      <c r="AF13" s="317"/>
-      <c r="AG13" s="318"/>
-      <c r="AH13" s="318"/>
-      <c r="AI13" s="318"/>
-      <c r="AJ13" s="318"/>
-      <c r="AK13" s="318"/>
-      <c r="AL13" s="318"/>
-      <c r="AM13" s="319"/>
-      <c r="AO13" s="232"/>
-      <c r="AP13" s="233"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="228"/>
+      <c r="K13" s="161"/>
+      <c r="L13" s="228"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="228"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="228"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="228"/>
+      <c r="S13" s="161"/>
+      <c r="T13" s="228"/>
+      <c r="U13" s="211"/>
+      <c r="V13" s="212"/>
+      <c r="W13" s="163"/>
+      <c r="X13" s="213"/>
+      <c r="Y13" s="164"/>
+      <c r="Z13" s="164"/>
+      <c r="AA13" s="165"/>
+      <c r="AB13" s="166"/>
+      <c r="AC13" s="167"/>
+      <c r="AD13" s="168"/>
+      <c r="AE13" s="169"/>
+      <c r="AF13" s="224"/>
+      <c r="AG13" s="225"/>
+      <c r="AH13" s="225"/>
+      <c r="AI13" s="225"/>
+      <c r="AJ13" s="225"/>
+      <c r="AK13" s="225"/>
+      <c r="AL13" s="225"/>
+      <c r="AM13" s="226"/>
+      <c r="AO13" s="170"/>
+      <c r="AP13" s="171"/>
     </row>
     <row r="14" spans="1:42" ht="23.25" customHeight="1">
-      <c r="A14" s="205"/>
-      <c r="B14" s="313"/>
-      <c r="C14" s="263"/>
-      <c r="D14" s="234" t="s">
+      <c r="A14" s="156"/>
+      <c r="B14" s="315"/>
+      <c r="C14" s="317"/>
+      <c r="D14" s="172" t="s">
         <v>326</v>
       </c>
-      <c r="E14" s="234" t="s">
+      <c r="E14" s="172" t="s">
         <v>329</v>
       </c>
-      <c r="F14" s="235" t="s">
+      <c r="F14" s="173" t="s">
         <v>322</v>
       </c>
-      <c r="G14" s="235" t="s">
+      <c r="G14" s="173" t="s">
         <v>323</v>
       </c>
-      <c r="H14" s="235"/>
-      <c r="I14" s="236"/>
-      <c r="J14" s="322"/>
-      <c r="K14" s="237"/>
-      <c r="L14" s="322"/>
-      <c r="M14" s="237"/>
-      <c r="N14" s="322"/>
-      <c r="O14" s="237"/>
-      <c r="P14" s="322"/>
-      <c r="Q14" s="237"/>
-      <c r="R14" s="322"/>
-      <c r="S14" s="237"/>
-      <c r="T14" s="322"/>
-      <c r="U14" s="289"/>
-      <c r="V14" s="290"/>
-      <c r="W14" s="239"/>
-      <c r="X14" s="291"/>
-      <c r="Y14" s="220"/>
-      <c r="Z14" s="220"/>
-      <c r="AA14" s="221">
+      <c r="H14" s="173"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="229"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="229"/>
+      <c r="M14" s="175"/>
+      <c r="N14" s="229"/>
+      <c r="O14" s="175"/>
+      <c r="P14" s="229"/>
+      <c r="Q14" s="175"/>
+      <c r="R14" s="229"/>
+      <c r="S14" s="175"/>
+      <c r="T14" s="229"/>
+      <c r="U14" s="214"/>
+      <c r="V14" s="215"/>
+      <c r="W14" s="177"/>
+      <c r="X14" s="216"/>
+      <c r="Y14" s="164"/>
+      <c r="Z14" s="164"/>
+      <c r="AA14" s="165">
         <v>0.05</v>
       </c>
-      <c r="AB14" s="222">
+      <c r="AB14" s="166">
         <v>1</v>
       </c>
-      <c r="AC14" s="223">
+      <c r="AC14" s="167">
         <v>0.2</v>
       </c>
-      <c r="AD14" s="224">
+      <c r="AD14" s="168">
         <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="AE14" s="225">
+      <c r="AE14" s="169">
         <v>1</v>
       </c>
-      <c r="AF14" s="240" t="s">
+      <c r="AF14" s="295" t="s">
         <v>308</v>
       </c>
-      <c r="AG14" s="241"/>
-      <c r="AH14" s="241"/>
-      <c r="AI14" s="241"/>
-      <c r="AJ14" s="241"/>
-      <c r="AK14" s="241"/>
-      <c r="AL14" s="241"/>
-      <c r="AM14" s="242"/>
-      <c r="AO14" s="243"/>
-      <c r="AP14" s="244" t="s">
+      <c r="AG14" s="296"/>
+      <c r="AH14" s="296"/>
+      <c r="AI14" s="296"/>
+      <c r="AJ14" s="296"/>
+      <c r="AK14" s="296"/>
+      <c r="AL14" s="296"/>
+      <c r="AM14" s="297"/>
+      <c r="AO14" s="178"/>
+      <c r="AP14" s="179" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:42" ht="23.25" customHeight="1">
-      <c r="A15" s="205"/>
-      <c r="B15" s="245">
+      <c r="A15" s="156"/>
+      <c r="B15" s="378"/>
+      <c r="C15" s="302" t="s">
+        <v>356</v>
+      </c>
+      <c r="D15" s="158" t="s">
+        <v>357</v>
+      </c>
+      <c r="E15" s="194" t="s">
+        <v>358</v>
+      </c>
+      <c r="F15" s="159" t="s">
+        <v>359</v>
+      </c>
+      <c r="G15" s="159" t="s">
+        <v>310</v>
+      </c>
+      <c r="H15" s="159"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="231"/>
+      <c r="K15" s="245"/>
+      <c r="L15" s="231"/>
+      <c r="M15" s="245"/>
+      <c r="N15" s="242"/>
+      <c r="O15" s="245"/>
+      <c r="P15" s="242"/>
+      <c r="Q15" s="245"/>
+      <c r="R15" s="231"/>
+      <c r="S15" s="245"/>
+      <c r="T15" s="242"/>
+      <c r="U15" s="245"/>
+      <c r="V15" s="242"/>
+      <c r="W15" s="193"/>
+      <c r="X15" s="217"/>
+      <c r="Y15" s="164"/>
+      <c r="Z15" s="164"/>
+      <c r="AA15" s="165"/>
+      <c r="AB15" s="166"/>
+      <c r="AC15" s="167"/>
+      <c r="AD15" s="168"/>
+      <c r="AE15" s="169"/>
+      <c r="AF15" s="283"/>
+      <c r="AG15" s="284"/>
+      <c r="AH15" s="284"/>
+      <c r="AI15" s="284"/>
+      <c r="AJ15" s="284"/>
+      <c r="AK15" s="284"/>
+      <c r="AL15" s="284"/>
+      <c r="AM15" s="285"/>
+      <c r="AO15" s="178"/>
+      <c r="AP15" s="179"/>
+    </row>
+    <row r="16" spans="1:42" ht="23.25" customHeight="1">
+      <c r="A16" s="156"/>
+      <c r="B16" s="314"/>
+      <c r="C16" s="303"/>
+      <c r="D16" s="158" t="s">
+        <v>357</v>
+      </c>
+      <c r="E16" s="194" t="s">
+        <v>358</v>
+      </c>
+      <c r="F16" s="159" t="s">
+        <v>360</v>
+      </c>
+      <c r="G16" s="159" t="s">
+        <v>323</v>
+      </c>
+      <c r="H16" s="159"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="231"/>
+      <c r="K16" s="245"/>
+      <c r="L16" s="242"/>
+      <c r="M16" s="245"/>
+      <c r="N16" s="242"/>
+      <c r="O16" s="245"/>
+      <c r="P16" s="242"/>
+      <c r="Q16" s="245"/>
+      <c r="R16" s="242"/>
+      <c r="S16" s="245"/>
+      <c r="T16" s="242"/>
+      <c r="U16" s="245"/>
+      <c r="V16" s="242"/>
+      <c r="W16" s="193"/>
+      <c r="X16" s="217"/>
+      <c r="Y16" s="164"/>
+      <c r="Z16" s="164"/>
+      <c r="AA16" s="165"/>
+      <c r="AB16" s="166"/>
+      <c r="AC16" s="167"/>
+      <c r="AD16" s="168"/>
+      <c r="AE16" s="169"/>
+      <c r="AF16" s="283"/>
+      <c r="AG16" s="284"/>
+      <c r="AH16" s="284"/>
+      <c r="AI16" s="284"/>
+      <c r="AJ16" s="284"/>
+      <c r="AK16" s="284"/>
+      <c r="AL16" s="284"/>
+      <c r="AM16" s="285"/>
+      <c r="AO16" s="178"/>
+      <c r="AP16" s="179"/>
+    </row>
+    <row r="17" spans="1:42" ht="23.25" customHeight="1">
+      <c r="A17" s="156"/>
+      <c r="B17" s="314"/>
+      <c r="C17" s="303"/>
+      <c r="D17" s="158" t="s">
+        <v>357</v>
+      </c>
+      <c r="E17" s="194" t="s">
+        <v>358</v>
+      </c>
+      <c r="F17" s="159" t="s">
+        <v>361</v>
+      </c>
+      <c r="G17" s="159" t="s">
+        <v>310</v>
+      </c>
+      <c r="H17" s="159"/>
+      <c r="I17" s="245"/>
+      <c r="J17" s="242"/>
+      <c r="K17" s="245"/>
+      <c r="L17" s="242"/>
+      <c r="M17" s="245"/>
+      <c r="N17" s="242"/>
+      <c r="O17" s="245"/>
+      <c r="P17" s="242"/>
+      <c r="Q17" s="245"/>
+      <c r="R17" s="242"/>
+      <c r="S17" s="245"/>
+      <c r="T17" s="242"/>
+      <c r="U17" s="245"/>
+      <c r="V17" s="242"/>
+      <c r="W17" s="193"/>
+      <c r="X17" s="217"/>
+      <c r="Y17" s="164"/>
+      <c r="Z17" s="164"/>
+      <c r="AA17" s="165"/>
+      <c r="AB17" s="166"/>
+      <c r="AC17" s="167"/>
+      <c r="AD17" s="168"/>
+      <c r="AE17" s="169"/>
+      <c r="AF17" s="283"/>
+      <c r="AG17" s="284"/>
+      <c r="AH17" s="284"/>
+      <c r="AI17" s="284"/>
+      <c r="AJ17" s="284"/>
+      <c r="AK17" s="284"/>
+      <c r="AL17" s="284"/>
+      <c r="AM17" s="285"/>
+      <c r="AO17" s="178"/>
+      <c r="AP17" s="179"/>
+    </row>
+    <row r="18" spans="1:42" ht="23.25" customHeight="1">
+      <c r="A18" s="156"/>
+      <c r="B18" s="314"/>
+      <c r="C18" s="303"/>
+      <c r="D18" s="158" t="s">
+        <v>357</v>
+      </c>
+      <c r="E18" s="194" t="s">
+        <v>358</v>
+      </c>
+      <c r="F18" s="159" t="s">
+        <v>362</v>
+      </c>
+      <c r="G18" s="159" t="s">
+        <v>323</v>
+      </c>
+      <c r="H18" s="159"/>
+      <c r="I18" s="245"/>
+      <c r="J18" s="242"/>
+      <c r="K18" s="245"/>
+      <c r="L18" s="242"/>
+      <c r="M18" s="245"/>
+      <c r="N18" s="242"/>
+      <c r="O18" s="245"/>
+      <c r="P18" s="242"/>
+      <c r="Q18" s="245"/>
+      <c r="R18" s="242"/>
+      <c r="S18" s="245"/>
+      <c r="T18" s="242"/>
+      <c r="U18" s="245"/>
+      <c r="V18" s="242"/>
+      <c r="W18" s="193"/>
+      <c r="X18" s="217"/>
+      <c r="Y18" s="164"/>
+      <c r="Z18" s="164"/>
+      <c r="AA18" s="165"/>
+      <c r="AB18" s="166"/>
+      <c r="AC18" s="167"/>
+      <c r="AD18" s="168"/>
+      <c r="AE18" s="169"/>
+      <c r="AF18" s="283"/>
+      <c r="AG18" s="284"/>
+      <c r="AH18" s="284"/>
+      <c r="AI18" s="284"/>
+      <c r="AJ18" s="284"/>
+      <c r="AK18" s="284"/>
+      <c r="AL18" s="284"/>
+      <c r="AM18" s="285"/>
+      <c r="AO18" s="178"/>
+      <c r="AP18" s="179"/>
+    </row>
+    <row r="19" spans="1:42" ht="23.25" customHeight="1">
+      <c r="A19" s="156"/>
+      <c r="B19" s="314"/>
+      <c r="C19" s="303"/>
+      <c r="D19" s="158" t="s">
+        <v>357</v>
+      </c>
+      <c r="E19" s="194" t="s">
+        <v>363</v>
+      </c>
+      <c r="F19" s="159" t="s">
+        <v>362</v>
+      </c>
+      <c r="G19" s="159" t="s">
+        <v>310</v>
+      </c>
+      <c r="H19" s="159"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="242"/>
+      <c r="K19" s="245"/>
+      <c r="L19" s="231"/>
+      <c r="M19" s="245"/>
+      <c r="N19" s="242"/>
+      <c r="O19" s="245"/>
+      <c r="P19" s="242"/>
+      <c r="Q19" s="245"/>
+      <c r="R19" s="231"/>
+      <c r="S19" s="245"/>
+      <c r="T19" s="242"/>
+      <c r="U19" s="245"/>
+      <c r="V19" s="242"/>
+      <c r="W19" s="193"/>
+      <c r="X19" s="217"/>
+      <c r="Y19" s="164"/>
+      <c r="Z19" s="164"/>
+      <c r="AA19" s="165"/>
+      <c r="AB19" s="166"/>
+      <c r="AC19" s="167"/>
+      <c r="AD19" s="168"/>
+      <c r="AE19" s="169"/>
+      <c r="AF19" s="283"/>
+      <c r="AG19" s="284"/>
+      <c r="AH19" s="284"/>
+      <c r="AI19" s="284"/>
+      <c r="AJ19" s="284"/>
+      <c r="AK19" s="284"/>
+      <c r="AL19" s="284"/>
+      <c r="AM19" s="285"/>
+      <c r="AO19" s="178"/>
+      <c r="AP19" s="179"/>
+    </row>
+    <row r="20" spans="1:42" ht="23.25" customHeight="1">
+      <c r="A20" s="156"/>
+      <c r="B20" s="315"/>
+      <c r="C20" s="317"/>
+      <c r="D20" s="238" t="s">
+        <v>357</v>
+      </c>
+      <c r="E20" s="238" t="s">
+        <v>358</v>
+      </c>
+      <c r="F20" s="239" t="s">
+        <v>364</v>
+      </c>
+      <c r="G20" s="239" t="s">
+        <v>323</v>
+      </c>
+      <c r="H20" s="239"/>
+      <c r="I20" s="243"/>
+      <c r="J20" s="244"/>
+      <c r="K20" s="246"/>
+      <c r="L20" s="244"/>
+      <c r="M20" s="246"/>
+      <c r="N20" s="244"/>
+      <c r="O20" s="246"/>
+      <c r="P20" s="244"/>
+      <c r="Q20" s="246"/>
+      <c r="R20" s="244"/>
+      <c r="S20" s="246"/>
+      <c r="T20" s="244"/>
+      <c r="U20" s="250"/>
+      <c r="V20" s="251"/>
+      <c r="W20" s="240"/>
+      <c r="X20" s="241"/>
+      <c r="Y20" s="164"/>
+      <c r="Z20" s="164"/>
+      <c r="AA20" s="165"/>
+      <c r="AB20" s="166"/>
+      <c r="AC20" s="167"/>
+      <c r="AD20" s="168"/>
+      <c r="AE20" s="169"/>
+      <c r="AF20" s="283"/>
+      <c r="AG20" s="284"/>
+      <c r="AH20" s="284"/>
+      <c r="AI20" s="284"/>
+      <c r="AJ20" s="284"/>
+      <c r="AK20" s="284"/>
+      <c r="AL20" s="284"/>
+      <c r="AM20" s="285"/>
+      <c r="AO20" s="178"/>
+      <c r="AP20" s="179"/>
+    </row>
+    <row r="21" spans="1:42" ht="23.25" customHeight="1">
+      <c r="A21" s="156"/>
+      <c r="B21" s="305">
         <v>2</v>
       </c>
-      <c r="C15" s="246" t="s">
+      <c r="C21" s="302" t="s">
         <v>318</v>
       </c>
-      <c r="D15" s="214" t="s">
+      <c r="D21" s="158" t="s">
         <v>331</v>
       </c>
-      <c r="E15" s="214" t="s">
+      <c r="E21" s="158" t="s">
         <v>354</v>
       </c>
-      <c r="F15" s="215" t="s">
+      <c r="F21" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G15" s="215" t="s">
+      <c r="G21" s="159" t="s">
         <v>310</v>
       </c>
-      <c r="H15" s="215"/>
-      <c r="I15" s="269"/>
-      <c r="J15" s="323"/>
-      <c r="K15" s="326"/>
-      <c r="L15" s="323"/>
-      <c r="M15" s="326"/>
-      <c r="N15" s="323"/>
-      <c r="O15" s="326"/>
-      <c r="P15" s="323"/>
-      <c r="Q15" s="326"/>
-      <c r="R15" s="323"/>
-      <c r="S15" s="326"/>
-      <c r="T15" s="323"/>
-      <c r="U15" s="286"/>
-      <c r="V15" s="287"/>
-      <c r="W15" s="219"/>
-      <c r="X15" s="288"/>
-      <c r="Y15" s="220"/>
-      <c r="Z15" s="220"/>
-      <c r="AA15" s="221">
+      <c r="H21" s="159"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="230"/>
+      <c r="K21" s="233"/>
+      <c r="L21" s="230"/>
+      <c r="M21" s="233"/>
+      <c r="N21" s="230"/>
+      <c r="O21" s="233"/>
+      <c r="P21" s="230"/>
+      <c r="Q21" s="233"/>
+      <c r="R21" s="230"/>
+      <c r="S21" s="233"/>
+      <c r="T21" s="230"/>
+      <c r="U21" s="211"/>
+      <c r="V21" s="212"/>
+      <c r="W21" s="163"/>
+      <c r="X21" s="213"/>
+      <c r="Y21" s="164"/>
+      <c r="Z21" s="164"/>
+      <c r="AA21" s="165">
         <v>0.05</v>
       </c>
-      <c r="AB15" s="222">
+      <c r="AB21" s="166">
         <v>1</v>
       </c>
-      <c r="AC15" s="223">
+      <c r="AC21" s="167">
         <v>0.2</v>
       </c>
-      <c r="AD15" s="224">
+      <c r="AD21" s="168">
         <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="AE15" s="225"/>
-      <c r="AF15" s="240" t="s">
+      <c r="AE21" s="169"/>
+      <c r="AF21" s="295" t="s">
         <v>308</v>
       </c>
-      <c r="AG15" s="241"/>
-      <c r="AH15" s="241"/>
-      <c r="AI15" s="241"/>
-      <c r="AJ15" s="241"/>
-      <c r="AK15" s="241"/>
-      <c r="AL15" s="241"/>
-      <c r="AM15" s="242"/>
-      <c r="AO15" s="243"/>
-      <c r="AP15" s="244"/>
-    </row>
-    <row r="16" spans="1:42" ht="23.25" customHeight="1">
-      <c r="A16" s="205"/>
-      <c r="B16" s="247"/>
-      <c r="C16" s="231"/>
-      <c r="D16" s="214" t="s">
+      <c r="AG21" s="296"/>
+      <c r="AH21" s="296"/>
+      <c r="AI21" s="296"/>
+      <c r="AJ21" s="296"/>
+      <c r="AK21" s="296"/>
+      <c r="AL21" s="296"/>
+      <c r="AM21" s="297"/>
+      <c r="AO21" s="178"/>
+      <c r="AP21" s="179"/>
+    </row>
+    <row r="22" spans="1:42" ht="23.25" customHeight="1">
+      <c r="A22" s="156"/>
+      <c r="B22" s="306"/>
+      <c r="C22" s="303"/>
+      <c r="D22" s="158" t="s">
         <v>331</v>
       </c>
-      <c r="E16" s="214" t="s">
+      <c r="E22" s="158" t="s">
         <v>332</v>
       </c>
-      <c r="F16" s="215" t="s">
+      <c r="F22" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G16" s="215" t="s">
+      <c r="G22" s="159" t="s">
         <v>323</v>
       </c>
-      <c r="H16" s="215"/>
-      <c r="I16" s="218"/>
-      <c r="J16" s="324"/>
-      <c r="K16" s="327"/>
-      <c r="L16" s="324"/>
-      <c r="M16" s="327"/>
-      <c r="N16" s="324"/>
-      <c r="O16" s="327"/>
-      <c r="P16" s="324"/>
-      <c r="Q16" s="327"/>
-      <c r="R16" s="324"/>
-      <c r="S16" s="327"/>
-      <c r="T16" s="324"/>
-      <c r="U16" s="286"/>
-      <c r="V16" s="287"/>
-      <c r="W16" s="219"/>
-      <c r="X16" s="288"/>
-      <c r="Y16" s="220"/>
-      <c r="Z16" s="220"/>
-      <c r="AA16" s="221">
+      <c r="H22" s="159"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="231"/>
+      <c r="K22" s="234"/>
+      <c r="L22" s="231"/>
+      <c r="M22" s="234"/>
+      <c r="N22" s="231"/>
+      <c r="O22" s="234"/>
+      <c r="P22" s="231"/>
+      <c r="Q22" s="234"/>
+      <c r="R22" s="231"/>
+      <c r="S22" s="234"/>
+      <c r="T22" s="231"/>
+      <c r="U22" s="211"/>
+      <c r="V22" s="212"/>
+      <c r="W22" s="163"/>
+      <c r="X22" s="213"/>
+      <c r="Y22" s="164"/>
+      <c r="Z22" s="164"/>
+      <c r="AA22" s="165">
         <v>0.2</v>
       </c>
-      <c r="AB16" s="222">
+      <c r="AB22" s="166">
         <v>1</v>
       </c>
-      <c r="AC16" s="223">
+      <c r="AC22" s="167">
         <v>0.2</v>
       </c>
-      <c r="AD16" s="224">
+      <c r="AD22" s="168">
         <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="AE16" s="225">
+      <c r="AE22" s="169">
         <v>1</v>
       </c>
-      <c r="AF16" s="248" t="s">
+      <c r="AF22" s="298" t="s">
         <v>308</v>
       </c>
-      <c r="AG16" s="249"/>
-      <c r="AH16" s="249"/>
-      <c r="AI16" s="249"/>
-      <c r="AJ16" s="249"/>
-      <c r="AK16" s="249"/>
-      <c r="AL16" s="249"/>
-      <c r="AM16" s="250"/>
-      <c r="AO16" s="243"/>
-      <c r="AP16" s="244" t="s">
+      <c r="AG22" s="299"/>
+      <c r="AH22" s="299"/>
+      <c r="AI22" s="299"/>
+      <c r="AJ22" s="299"/>
+      <c r="AK22" s="299"/>
+      <c r="AL22" s="299"/>
+      <c r="AM22" s="300"/>
+      <c r="AO22" s="178"/>
+      <c r="AP22" s="179" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A17" s="205"/>
-      <c r="B17" s="247"/>
-      <c r="C17" s="231"/>
-      <c r="D17" s="214" t="s">
+    <row r="23" spans="1:42" ht="23.25" customHeight="1">
+      <c r="A23" s="156"/>
+      <c r="B23" s="306"/>
+      <c r="C23" s="303"/>
+      <c r="D23" s="158" t="s">
         <v>331</v>
       </c>
-      <c r="E17" s="214" t="s">
+      <c r="E23" s="158" t="s">
         <v>354</v>
       </c>
-      <c r="F17" s="215" t="s">
+      <c r="F23" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G17" s="215" t="s">
+      <c r="G23" s="159" t="s">
         <v>310</v>
       </c>
-      <c r="H17" s="215"/>
-      <c r="I17" s="218"/>
-      <c r="J17" s="324"/>
-      <c r="K17" s="327"/>
-      <c r="L17" s="324"/>
-      <c r="M17" s="327"/>
-      <c r="N17" s="324"/>
-      <c r="O17" s="327"/>
-      <c r="P17" s="324"/>
-      <c r="Q17" s="327"/>
-      <c r="R17" s="324"/>
-      <c r="S17" s="327"/>
-      <c r="T17" s="324"/>
-      <c r="U17" s="286"/>
-      <c r="V17" s="287"/>
-      <c r="W17" s="219"/>
-      <c r="X17" s="288"/>
-      <c r="Y17" s="220"/>
-      <c r="Z17" s="220"/>
-      <c r="AA17" s="251">
+      <c r="H23" s="159"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="231"/>
+      <c r="K23" s="234"/>
+      <c r="L23" s="231"/>
+      <c r="M23" s="234"/>
+      <c r="N23" s="231"/>
+      <c r="O23" s="234"/>
+      <c r="P23" s="231"/>
+      <c r="Q23" s="234"/>
+      <c r="R23" s="231"/>
+      <c r="S23" s="234"/>
+      <c r="T23" s="231"/>
+      <c r="U23" s="211"/>
+      <c r="V23" s="212"/>
+      <c r="W23" s="163"/>
+      <c r="X23" s="213"/>
+      <c r="Y23" s="164"/>
+      <c r="Z23" s="164"/>
+      <c r="AA23" s="180">
         <v>0.3</v>
       </c>
-      <c r="AB17" s="252">
+      <c r="AB23" s="181">
         <v>1</v>
       </c>
-      <c r="AC17" s="253">
+      <c r="AC23" s="182">
         <v>0.2</v>
       </c>
-      <c r="AD17" s="254">
+      <c r="AD23" s="183">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="AE17" s="225">
+      <c r="AE23" s="169">
         <v>1</v>
       </c>
-      <c r="AF17" s="248" t="s">
+      <c r="AF23" s="298" t="s">
         <v>308</v>
       </c>
-      <c r="AG17" s="249"/>
-      <c r="AH17" s="249"/>
-      <c r="AI17" s="249"/>
-      <c r="AJ17" s="249"/>
-      <c r="AK17" s="249"/>
-      <c r="AL17" s="249"/>
-      <c r="AM17" s="250"/>
-    </row>
-    <row r="18" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A18" s="205"/>
-      <c r="B18" s="247"/>
-      <c r="C18" s="231"/>
-      <c r="D18" s="214" t="s">
+      <c r="AG23" s="299"/>
+      <c r="AH23" s="299"/>
+      <c r="AI23" s="299"/>
+      <c r="AJ23" s="299"/>
+      <c r="AK23" s="299"/>
+      <c r="AL23" s="299"/>
+      <c r="AM23" s="300"/>
+    </row>
+    <row r="24" spans="1:42" ht="23.25" customHeight="1">
+      <c r="A24" s="156"/>
+      <c r="B24" s="306"/>
+      <c r="C24" s="303"/>
+      <c r="D24" s="158" t="s">
         <v>331</v>
       </c>
-      <c r="E18" s="214" t="s">
+      <c r="E24" s="158" t="s">
         <v>355</v>
       </c>
-      <c r="F18" s="215" t="s">
+      <c r="F24" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G18" s="215" t="s">
+      <c r="G24" s="159" t="s">
         <v>323</v>
       </c>
-      <c r="H18" s="215"/>
-      <c r="I18" s="218"/>
-      <c r="J18" s="324"/>
-      <c r="K18" s="327"/>
-      <c r="L18" s="324"/>
-      <c r="M18" s="327"/>
-      <c r="N18" s="324"/>
-      <c r="O18" s="327"/>
-      <c r="P18" s="324"/>
-      <c r="Q18" s="327"/>
-      <c r="R18" s="324"/>
-      <c r="S18" s="327"/>
-      <c r="T18" s="324"/>
-      <c r="U18" s="286"/>
-      <c r="V18" s="287"/>
-      <c r="W18" s="219"/>
-      <c r="X18" s="288"/>
-      <c r="Y18" s="220"/>
-      <c r="Z18" s="220"/>
-      <c r="AA18" s="255">
+      <c r="H24" s="159"/>
+      <c r="I24" s="162"/>
+      <c r="J24" s="231"/>
+      <c r="K24" s="234"/>
+      <c r="L24" s="231"/>
+      <c r="M24" s="234"/>
+      <c r="N24" s="231"/>
+      <c r="O24" s="234"/>
+      <c r="P24" s="231"/>
+      <c r="Q24" s="234"/>
+      <c r="R24" s="231"/>
+      <c r="S24" s="234"/>
+      <c r="T24" s="231"/>
+      <c r="U24" s="211"/>
+      <c r="V24" s="212"/>
+      <c r="W24" s="163"/>
+      <c r="X24" s="213"/>
+      <c r="Y24" s="164"/>
+      <c r="Z24" s="164"/>
+      <c r="AA24" s="184">
         <v>0.4</v>
       </c>
-      <c r="AB18" s="256">
+      <c r="AB24" s="185">
         <v>1</v>
       </c>
-      <c r="AC18" s="257">
+      <c r="AC24" s="186">
         <v>0.2</v>
       </c>
-      <c r="AD18" s="258">
+      <c r="AD24" s="187">
         <f t="shared" si="0"/>
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="AE18" s="225">
+      <c r="AE24" s="169">
         <v>0.8</v>
       </c>
-      <c r="AF18" s="248" t="s">
+      <c r="AF24" s="298" t="s">
         <v>308</v>
       </c>
-      <c r="AG18" s="249"/>
-      <c r="AH18" s="249"/>
-      <c r="AI18" s="249"/>
-      <c r="AJ18" s="249"/>
-      <c r="AK18" s="249"/>
-      <c r="AL18" s="249"/>
-      <c r="AM18" s="250"/>
-    </row>
-    <row r="19" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A19" s="205"/>
-      <c r="B19" s="247"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="214" t="s">
+      <c r="AG24" s="299"/>
+      <c r="AH24" s="299"/>
+      <c r="AI24" s="299"/>
+      <c r="AJ24" s="299"/>
+      <c r="AK24" s="299"/>
+      <c r="AL24" s="299"/>
+      <c r="AM24" s="300"/>
+    </row>
+    <row r="25" spans="1:42" ht="23.25" customHeight="1">
+      <c r="A25" s="156"/>
+      <c r="B25" s="306"/>
+      <c r="C25" s="303"/>
+      <c r="D25" s="158" t="s">
         <v>331</v>
       </c>
-      <c r="E19" s="214" t="s">
+      <c r="E25" s="158" t="s">
         <v>354</v>
       </c>
-      <c r="F19" s="215" t="s">
+      <c r="F25" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G19" s="215" t="s">
+      <c r="G25" s="159" t="s">
         <v>310</v>
       </c>
-      <c r="H19" s="215"/>
-      <c r="I19" s="218"/>
-      <c r="J19" s="324"/>
-      <c r="K19" s="327"/>
-      <c r="L19" s="324"/>
-      <c r="M19" s="327"/>
-      <c r="N19" s="324"/>
-      <c r="O19" s="327"/>
-      <c r="P19" s="324"/>
-      <c r="Q19" s="327"/>
-      <c r="R19" s="324"/>
-      <c r="S19" s="327"/>
-      <c r="T19" s="324"/>
-      <c r="U19" s="286"/>
-      <c r="V19" s="287"/>
-      <c r="W19" s="219"/>
-      <c r="X19" s="288"/>
-      <c r="Y19" s="220"/>
-      <c r="Z19" s="220"/>
-      <c r="AA19" s="259">
+      <c r="H25" s="159"/>
+      <c r="I25" s="162"/>
+      <c r="J25" s="231"/>
+      <c r="K25" s="234"/>
+      <c r="L25" s="231"/>
+      <c r="M25" s="234"/>
+      <c r="N25" s="231"/>
+      <c r="O25" s="234"/>
+      <c r="P25" s="231"/>
+      <c r="Q25" s="234"/>
+      <c r="R25" s="231"/>
+      <c r="S25" s="234"/>
+      <c r="T25" s="231"/>
+      <c r="U25" s="211"/>
+      <c r="V25" s="212"/>
+      <c r="W25" s="163"/>
+      <c r="X25" s="213"/>
+      <c r="Y25" s="164"/>
+      <c r="Z25" s="164"/>
+      <c r="AA25" s="188">
         <v>0.05</v>
       </c>
-      <c r="AB19" s="256">
+      <c r="AB25" s="185">
         <v>1</v>
       </c>
-      <c r="AC19" s="257">
+      <c r="AC25" s="186">
         <v>0.2</v>
       </c>
-      <c r="AD19" s="258">
+      <c r="AD25" s="187">
         <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="AE19" s="225"/>
-      <c r="AF19" s="248" t="s">
+      <c r="AE25" s="169"/>
+      <c r="AF25" s="298" t="s">
         <v>308</v>
       </c>
-      <c r="AG19" s="249"/>
-      <c r="AH19" s="249"/>
-      <c r="AI19" s="249"/>
-      <c r="AJ19" s="249"/>
-      <c r="AK19" s="249"/>
-      <c r="AL19" s="249"/>
-      <c r="AM19" s="250"/>
-    </row>
-    <row r="20" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A20" s="205"/>
-      <c r="B20" s="247"/>
-      <c r="C20" s="231"/>
-      <c r="D20" s="214" t="s">
+      <c r="AG25" s="299"/>
+      <c r="AH25" s="299"/>
+      <c r="AI25" s="299"/>
+      <c r="AJ25" s="299"/>
+      <c r="AK25" s="299"/>
+      <c r="AL25" s="299"/>
+      <c r="AM25" s="300"/>
+    </row>
+    <row r="26" spans="1:42" ht="23.25" customHeight="1">
+      <c r="A26" s="156"/>
+      <c r="B26" s="306"/>
+      <c r="C26" s="303"/>
+      <c r="D26" s="158" t="s">
         <v>331</v>
       </c>
-      <c r="E20" s="214" t="s">
+      <c r="E26" s="158" t="s">
         <v>333</v>
       </c>
-      <c r="F20" s="215" t="s">
+      <c r="F26" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G20" s="215" t="s">
+      <c r="G26" s="159" t="s">
         <v>323</v>
       </c>
-      <c r="H20" s="215"/>
-      <c r="I20" s="218"/>
-      <c r="J20" s="324"/>
-      <c r="K20" s="327"/>
-      <c r="L20" s="324"/>
-      <c r="M20" s="327"/>
-      <c r="N20" s="324"/>
-      <c r="O20" s="327"/>
-      <c r="P20" s="324"/>
-      <c r="Q20" s="327"/>
-      <c r="R20" s="324"/>
-      <c r="S20" s="327"/>
-      <c r="T20" s="324"/>
-      <c r="U20" s="286"/>
-      <c r="V20" s="287"/>
-      <c r="W20" s="219"/>
-      <c r="X20" s="288"/>
-      <c r="Y20" s="220"/>
-      <c r="Z20" s="220"/>
-      <c r="AA20" s="259">
+      <c r="H26" s="159"/>
+      <c r="I26" s="162"/>
+      <c r="J26" s="231"/>
+      <c r="K26" s="234"/>
+      <c r="L26" s="231"/>
+      <c r="M26" s="234"/>
+      <c r="N26" s="231"/>
+      <c r="O26" s="234"/>
+      <c r="P26" s="231"/>
+      <c r="Q26" s="234"/>
+      <c r="R26" s="231"/>
+      <c r="S26" s="234"/>
+      <c r="T26" s="231"/>
+      <c r="U26" s="211"/>
+      <c r="V26" s="212"/>
+      <c r="W26" s="163"/>
+      <c r="X26" s="213"/>
+      <c r="Y26" s="164"/>
+      <c r="Z26" s="164"/>
+      <c r="AA26" s="188">
         <v>0.05</v>
       </c>
-      <c r="AB20" s="256">
+      <c r="AB26" s="185">
         <v>1</v>
       </c>
-      <c r="AC20" s="257">
+      <c r="AC26" s="186">
         <v>0.2</v>
       </c>
-      <c r="AD20" s="258">
+      <c r="AD26" s="187">
         <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="AE20" s="225"/>
-      <c r="AF20" s="248" t="s">
+      <c r="AE26" s="169"/>
+      <c r="AF26" s="298" t="s">
         <v>308</v>
       </c>
-      <c r="AG20" s="249"/>
-      <c r="AH20" s="249"/>
-      <c r="AI20" s="249"/>
-      <c r="AJ20" s="249"/>
-      <c r="AK20" s="249"/>
-      <c r="AL20" s="249"/>
-      <c r="AM20" s="250"/>
-    </row>
-    <row r="21" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A21" s="205"/>
-      <c r="B21" s="247"/>
-      <c r="C21" s="231"/>
-      <c r="D21" s="214" t="s">
+      <c r="AG26" s="299"/>
+      <c r="AH26" s="299"/>
+      <c r="AI26" s="299"/>
+      <c r="AJ26" s="299"/>
+      <c r="AK26" s="299"/>
+      <c r="AL26" s="299"/>
+      <c r="AM26" s="300"/>
+    </row>
+    <row r="27" spans="1:42" ht="23.25" customHeight="1">
+      <c r="A27" s="156"/>
+      <c r="B27" s="306"/>
+      <c r="C27" s="303"/>
+      <c r="D27" s="158" t="s">
         <v>331</v>
       </c>
-      <c r="E21" s="214" t="s">
+      <c r="E27" s="158" t="s">
         <v>354</v>
       </c>
-      <c r="F21" s="215" t="s">
+      <c r="F27" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G21" s="215" t="s">
+      <c r="G27" s="159" t="s">
         <v>310</v>
       </c>
-      <c r="H21" s="215"/>
-      <c r="I21" s="218"/>
-      <c r="J21" s="324"/>
-      <c r="K21" s="327"/>
-      <c r="L21" s="324"/>
-      <c r="M21" s="327"/>
-      <c r="N21" s="324"/>
-      <c r="O21" s="327"/>
-      <c r="P21" s="324"/>
-      <c r="Q21" s="327"/>
-      <c r="R21" s="324"/>
-      <c r="S21" s="327"/>
-      <c r="T21" s="324"/>
-      <c r="U21" s="286"/>
-      <c r="V21" s="287"/>
-      <c r="W21" s="219"/>
-      <c r="X21" s="288"/>
-      <c r="Y21" s="220"/>
-      <c r="Z21" s="220"/>
-      <c r="AA21" s="259"/>
-      <c r="AB21" s="256"/>
-      <c r="AC21" s="257"/>
-      <c r="AD21" s="258"/>
-      <c r="AE21" s="225"/>
-      <c r="AF21" s="302"/>
-      <c r="AG21" s="303"/>
-      <c r="AH21" s="303"/>
-      <c r="AI21" s="303"/>
-      <c r="AJ21" s="303"/>
-      <c r="AK21" s="303"/>
-      <c r="AL21" s="303"/>
-      <c r="AM21" s="304"/>
-    </row>
-    <row r="22" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A22" s="205"/>
-      <c r="B22" s="247"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="214" t="s">
+      <c r="H27" s="159"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="231"/>
+      <c r="K27" s="234"/>
+      <c r="L27" s="231"/>
+      <c r="M27" s="234"/>
+      <c r="N27" s="231"/>
+      <c r="O27" s="234"/>
+      <c r="P27" s="231"/>
+      <c r="Q27" s="234"/>
+      <c r="R27" s="231"/>
+      <c r="S27" s="234"/>
+      <c r="T27" s="231"/>
+      <c r="U27" s="211"/>
+      <c r="V27" s="212"/>
+      <c r="W27" s="163"/>
+      <c r="X27" s="213"/>
+      <c r="Y27" s="164"/>
+      <c r="Z27" s="164"/>
+      <c r="AA27" s="188"/>
+      <c r="AB27" s="185"/>
+      <c r="AC27" s="186"/>
+      <c r="AD27" s="187"/>
+      <c r="AE27" s="169"/>
+      <c r="AF27" s="218"/>
+      <c r="AG27" s="219"/>
+      <c r="AH27" s="219"/>
+      <c r="AI27" s="219"/>
+      <c r="AJ27" s="219"/>
+      <c r="AK27" s="219"/>
+      <c r="AL27" s="219"/>
+      <c r="AM27" s="220"/>
+    </row>
+    <row r="28" spans="1:42" ht="23.25" customHeight="1">
+      <c r="A28" s="156"/>
+      <c r="B28" s="306"/>
+      <c r="C28" s="303"/>
+      <c r="D28" s="158" t="s">
         <v>331</v>
       </c>
-      <c r="E22" s="214" t="s">
+      <c r="E28" s="158" t="s">
         <v>333</v>
       </c>
-      <c r="F22" s="215" t="s">
+      <c r="F28" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G22" s="215" t="s">
+      <c r="G28" s="159" t="s">
         <v>323</v>
       </c>
-      <c r="H22" s="215"/>
-      <c r="I22" s="218"/>
-      <c r="J22" s="324"/>
-      <c r="K22" s="327"/>
-      <c r="L22" s="324"/>
-      <c r="M22" s="327"/>
-      <c r="N22" s="324"/>
-      <c r="O22" s="327"/>
-      <c r="P22" s="324"/>
-      <c r="Q22" s="327"/>
-      <c r="R22" s="324"/>
-      <c r="S22" s="327"/>
-      <c r="T22" s="324"/>
-      <c r="U22" s="286"/>
-      <c r="V22" s="287"/>
-      <c r="W22" s="219"/>
-      <c r="X22" s="288"/>
-      <c r="Y22" s="220"/>
-      <c r="Z22" s="220"/>
-      <c r="AA22" s="259"/>
-      <c r="AB22" s="256"/>
-      <c r="AC22" s="257"/>
-      <c r="AD22" s="258"/>
-      <c r="AE22" s="225"/>
-      <c r="AF22" s="302"/>
-      <c r="AG22" s="303"/>
-      <c r="AH22" s="303"/>
-      <c r="AI22" s="303"/>
-      <c r="AJ22" s="303"/>
-      <c r="AK22" s="303"/>
-      <c r="AL22" s="303"/>
-      <c r="AM22" s="304"/>
-    </row>
-    <row r="23" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A23" s="205"/>
-      <c r="B23" s="247"/>
-      <c r="C23" s="231"/>
-      <c r="D23" s="214" t="s">
+      <c r="H28" s="159"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="231"/>
+      <c r="K28" s="234"/>
+      <c r="L28" s="231"/>
+      <c r="M28" s="234"/>
+      <c r="N28" s="231"/>
+      <c r="O28" s="234"/>
+      <c r="P28" s="231"/>
+      <c r="Q28" s="234"/>
+      <c r="R28" s="231"/>
+      <c r="S28" s="234"/>
+      <c r="T28" s="231"/>
+      <c r="U28" s="211"/>
+      <c r="V28" s="212"/>
+      <c r="W28" s="163"/>
+      <c r="X28" s="213"/>
+      <c r="Y28" s="164"/>
+      <c r="Z28" s="164"/>
+      <c r="AA28" s="188"/>
+      <c r="AB28" s="185"/>
+      <c r="AC28" s="186"/>
+      <c r="AD28" s="187"/>
+      <c r="AE28" s="169"/>
+      <c r="AF28" s="218"/>
+      <c r="AG28" s="219"/>
+      <c r="AH28" s="219"/>
+      <c r="AI28" s="219"/>
+      <c r="AJ28" s="219"/>
+      <c r="AK28" s="219"/>
+      <c r="AL28" s="219"/>
+      <c r="AM28" s="220"/>
+    </row>
+    <row r="29" spans="1:42" ht="23.25" customHeight="1">
+      <c r="A29" s="156"/>
+      <c r="B29" s="306"/>
+      <c r="C29" s="303"/>
+      <c r="D29" s="158" t="s">
         <v>331</v>
       </c>
-      <c r="E23" s="261" t="s">
+      <c r="E29" s="190" t="s">
         <v>354</v>
       </c>
-      <c r="F23" s="215" t="s">
+      <c r="F29" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G23" s="215" t="s">
+      <c r="G29" s="159" t="s">
         <v>310</v>
       </c>
-      <c r="H23" s="285"/>
-      <c r="I23" s="218"/>
-      <c r="J23" s="324"/>
-      <c r="K23" s="327"/>
-      <c r="L23" s="324"/>
-      <c r="M23" s="327"/>
-      <c r="N23" s="324"/>
-      <c r="O23" s="327"/>
-      <c r="P23" s="324"/>
-      <c r="Q23" s="327"/>
-      <c r="R23" s="324"/>
-      <c r="S23" s="327"/>
-      <c r="T23" s="324"/>
-      <c r="U23" s="286"/>
-      <c r="V23" s="287"/>
-      <c r="W23" s="219"/>
-      <c r="X23" s="288"/>
-      <c r="Y23" s="220"/>
-      <c r="Z23" s="220"/>
-      <c r="AA23" s="259">
+      <c r="H29" s="210"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="231"/>
+      <c r="K29" s="234"/>
+      <c r="L29" s="231"/>
+      <c r="M29" s="234"/>
+      <c r="N29" s="231"/>
+      <c r="O29" s="234"/>
+      <c r="P29" s="231"/>
+      <c r="Q29" s="234"/>
+      <c r="R29" s="231"/>
+      <c r="S29" s="234"/>
+      <c r="T29" s="231"/>
+      <c r="U29" s="211"/>
+      <c r="V29" s="212"/>
+      <c r="W29" s="163"/>
+      <c r="X29" s="213"/>
+      <c r="Y29" s="164"/>
+      <c r="Z29" s="164"/>
+      <c r="AA29" s="188">
         <v>0.05</v>
       </c>
-      <c r="AB23" s="256">
+      <c r="AB29" s="185">
         <v>1</v>
       </c>
-      <c r="AC23" s="257">
+      <c r="AC29" s="186">
         <v>0.2</v>
       </c>
-      <c r="AD23" s="258">
+      <c r="AD29" s="187">
         <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="AE23" s="225"/>
-      <c r="AF23" s="248" t="s">
+      <c r="AE29" s="169"/>
+      <c r="AF29" s="298" t="s">
         <v>308</v>
       </c>
-      <c r="AG23" s="249"/>
-      <c r="AH23" s="249"/>
-      <c r="AI23" s="249"/>
-      <c r="AJ23" s="249"/>
-      <c r="AK23" s="249"/>
-      <c r="AL23" s="249"/>
-      <c r="AM23" s="250"/>
-    </row>
-    <row r="24" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A24" s="205"/>
-      <c r="B24" s="247"/>
-      <c r="C24" s="231"/>
-      <c r="D24" s="214" t="s">
+      <c r="AG29" s="299"/>
+      <c r="AH29" s="299"/>
+      <c r="AI29" s="299"/>
+      <c r="AJ29" s="299"/>
+      <c r="AK29" s="299"/>
+      <c r="AL29" s="299"/>
+      <c r="AM29" s="300"/>
+    </row>
+    <row r="30" spans="1:42" ht="23.25" customHeight="1">
+      <c r="A30" s="156"/>
+      <c r="B30" s="306"/>
+      <c r="C30" s="303"/>
+      <c r="D30" s="158" t="s">
         <v>331</v>
       </c>
-      <c r="E24" s="214" t="s">
+      <c r="E30" s="158" t="s">
         <v>333</v>
       </c>
-      <c r="F24" s="215" t="s">
+      <c r="F30" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G24" s="215" t="s">
+      <c r="G30" s="159" t="s">
         <v>323</v>
       </c>
-      <c r="H24" s="215"/>
-      <c r="I24" s="218"/>
-      <c r="J24" s="324"/>
-      <c r="K24" s="327"/>
-      <c r="L24" s="324"/>
-      <c r="M24" s="327"/>
-      <c r="N24" s="324"/>
-      <c r="O24" s="327"/>
-      <c r="P24" s="324"/>
-      <c r="Q24" s="327"/>
-      <c r="R24" s="324"/>
-      <c r="S24" s="327"/>
-      <c r="T24" s="324"/>
-      <c r="U24" s="286"/>
-      <c r="V24" s="287"/>
-      <c r="W24" s="219"/>
-      <c r="X24" s="288"/>
-      <c r="Y24" s="220"/>
-      <c r="Z24" s="220"/>
-      <c r="AA24" s="259"/>
-      <c r="AB24" s="256"/>
-      <c r="AC24" s="257"/>
-      <c r="AD24" s="258"/>
-      <c r="AE24" s="225"/>
-      <c r="AF24" s="302"/>
-      <c r="AG24" s="303"/>
-      <c r="AH24" s="303"/>
-      <c r="AI24" s="303"/>
-      <c r="AJ24" s="303"/>
-      <c r="AK24" s="303"/>
-      <c r="AL24" s="303"/>
-      <c r="AM24" s="304"/>
-    </row>
-    <row r="25" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A25" s="205"/>
-      <c r="B25" s="247"/>
-      <c r="C25" s="231"/>
-      <c r="D25" s="214" t="s">
+      <c r="H30" s="159"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="231"/>
+      <c r="K30" s="234"/>
+      <c r="L30" s="231"/>
+      <c r="M30" s="234"/>
+      <c r="N30" s="231"/>
+      <c r="O30" s="234"/>
+      <c r="P30" s="231"/>
+      <c r="Q30" s="234"/>
+      <c r="R30" s="231"/>
+      <c r="S30" s="234"/>
+      <c r="T30" s="231"/>
+      <c r="U30" s="211"/>
+      <c r="V30" s="212"/>
+      <c r="W30" s="163"/>
+      <c r="X30" s="213"/>
+      <c r="Y30" s="164"/>
+      <c r="Z30" s="164"/>
+      <c r="AA30" s="188"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="186"/>
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="169"/>
+      <c r="AF30" s="218"/>
+      <c r="AG30" s="219"/>
+      <c r="AH30" s="219"/>
+      <c r="AI30" s="219"/>
+      <c r="AJ30" s="219"/>
+      <c r="AK30" s="219"/>
+      <c r="AL30" s="219"/>
+      <c r="AM30" s="220"/>
+    </row>
+    <row r="31" spans="1:42" ht="23.25" customHeight="1">
+      <c r="A31" s="156"/>
+      <c r="B31" s="306"/>
+      <c r="C31" s="303"/>
+      <c r="D31" s="158" t="s">
         <v>331</v>
       </c>
-      <c r="E25" s="214" t="s">
+      <c r="E31" s="158" t="s">
         <v>354</v>
       </c>
-      <c r="F25" s="215" t="s">
+      <c r="F31" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G25" s="215" t="s">
+      <c r="G31" s="159" t="s">
         <v>310</v>
       </c>
-      <c r="H25" s="215"/>
-      <c r="I25" s="218"/>
-      <c r="J25" s="324"/>
-      <c r="K25" s="327"/>
-      <c r="L25" s="324"/>
-      <c r="M25" s="327"/>
-      <c r="N25" s="324"/>
-      <c r="O25" s="327"/>
-      <c r="P25" s="324"/>
-      <c r="Q25" s="327"/>
-      <c r="R25" s="324"/>
-      <c r="S25" s="327"/>
-      <c r="T25" s="324"/>
-      <c r="U25" s="286"/>
-      <c r="V25" s="287"/>
-      <c r="W25" s="219"/>
-      <c r="X25" s="288"/>
-      <c r="Y25" s="220"/>
-      <c r="Z25" s="220"/>
-      <c r="AA25" s="259"/>
-      <c r="AB25" s="256"/>
-      <c r="AC25" s="257"/>
-      <c r="AD25" s="258"/>
-      <c r="AE25" s="225"/>
-      <c r="AF25" s="302"/>
-      <c r="AG25" s="303"/>
-      <c r="AH25" s="303"/>
-      <c r="AI25" s="303"/>
-      <c r="AJ25" s="303"/>
-      <c r="AK25" s="303"/>
-      <c r="AL25" s="303"/>
-      <c r="AM25" s="304"/>
-    </row>
-    <row r="26" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A26" s="205"/>
-      <c r="B26" s="247"/>
-      <c r="C26" s="231"/>
-      <c r="D26" s="214" t="s">
+      <c r="H31" s="159"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="231"/>
+      <c r="K31" s="234"/>
+      <c r="L31" s="231"/>
+      <c r="M31" s="234"/>
+      <c r="N31" s="231"/>
+      <c r="O31" s="234"/>
+      <c r="P31" s="231"/>
+      <c r="Q31" s="234"/>
+      <c r="R31" s="231"/>
+      <c r="S31" s="234"/>
+      <c r="T31" s="231"/>
+      <c r="U31" s="211"/>
+      <c r="V31" s="212"/>
+      <c r="W31" s="163"/>
+      <c r="X31" s="213"/>
+      <c r="Y31" s="164"/>
+      <c r="Z31" s="164"/>
+      <c r="AA31" s="188"/>
+      <c r="AB31" s="185"/>
+      <c r="AC31" s="186"/>
+      <c r="AD31" s="187"/>
+      <c r="AE31" s="169"/>
+      <c r="AF31" s="218"/>
+      <c r="AG31" s="219"/>
+      <c r="AH31" s="219"/>
+      <c r="AI31" s="219"/>
+      <c r="AJ31" s="219"/>
+      <c r="AK31" s="219"/>
+      <c r="AL31" s="219"/>
+      <c r="AM31" s="220"/>
+    </row>
+    <row r="32" spans="1:42" ht="23.25" customHeight="1">
+      <c r="A32" s="156"/>
+      <c r="B32" s="306"/>
+      <c r="C32" s="303"/>
+      <c r="D32" s="158" t="s">
         <v>331</v>
       </c>
-      <c r="E26" s="214" t="s">
+      <c r="E32" s="158" t="s">
         <v>333</v>
       </c>
-      <c r="F26" s="215" t="s">
+      <c r="F32" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G26" s="215" t="s">
+      <c r="G32" s="159" t="s">
         <v>323</v>
       </c>
-      <c r="H26" s="215"/>
-      <c r="I26" s="218"/>
-      <c r="J26" s="324"/>
-      <c r="K26" s="327"/>
-      <c r="L26" s="324"/>
-      <c r="M26" s="327"/>
-      <c r="N26" s="324"/>
-      <c r="O26" s="327"/>
-      <c r="P26" s="324"/>
-      <c r="Q26" s="327"/>
-      <c r="R26" s="324"/>
-      <c r="S26" s="327"/>
-      <c r="T26" s="324"/>
-      <c r="U26" s="286"/>
-      <c r="V26" s="287"/>
-      <c r="W26" s="219"/>
-      <c r="X26" s="288"/>
-      <c r="Y26" s="220"/>
-      <c r="Z26" s="220"/>
-      <c r="AA26" s="259"/>
-      <c r="AB26" s="256"/>
-      <c r="AC26" s="257"/>
-      <c r="AD26" s="258"/>
-      <c r="AE26" s="225"/>
-      <c r="AF26" s="302"/>
-      <c r="AG26" s="303"/>
-      <c r="AH26" s="303"/>
-      <c r="AI26" s="303"/>
-      <c r="AJ26" s="303"/>
-      <c r="AK26" s="303"/>
-      <c r="AL26" s="303"/>
-      <c r="AM26" s="304"/>
-    </row>
-    <row r="27" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A27" s="205"/>
-      <c r="B27" s="247"/>
-      <c r="C27" s="231"/>
-      <c r="D27" s="214" t="s">
+      <c r="H32" s="159"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="231"/>
+      <c r="K32" s="234"/>
+      <c r="L32" s="231"/>
+      <c r="M32" s="234"/>
+      <c r="N32" s="231"/>
+      <c r="O32" s="234"/>
+      <c r="P32" s="231"/>
+      <c r="Q32" s="234"/>
+      <c r="R32" s="231"/>
+      <c r="S32" s="234"/>
+      <c r="T32" s="231"/>
+      <c r="U32" s="211"/>
+      <c r="V32" s="212"/>
+      <c r="W32" s="163"/>
+      <c r="X32" s="213"/>
+      <c r="Y32" s="164"/>
+      <c r="Z32" s="164"/>
+      <c r="AA32" s="188"/>
+      <c r="AB32" s="185"/>
+      <c r="AC32" s="186"/>
+      <c r="AD32" s="187"/>
+      <c r="AE32" s="169"/>
+      <c r="AF32" s="218"/>
+      <c r="AG32" s="219"/>
+      <c r="AH32" s="219"/>
+      <c r="AI32" s="219"/>
+      <c r="AJ32" s="219"/>
+      <c r="AK32" s="219"/>
+      <c r="AL32" s="219"/>
+      <c r="AM32" s="220"/>
+    </row>
+    <row r="33" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A33" s="156"/>
+      <c r="B33" s="306"/>
+      <c r="C33" s="303"/>
+      <c r="D33" s="158" t="s">
         <v>331</v>
       </c>
-      <c r="E27" s="261" t="s">
+      <c r="E33" s="190" t="s">
         <v>354</v>
       </c>
-      <c r="F27" s="215" t="s">
+      <c r="F33" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G27" s="215" t="s">
+      <c r="G33" s="159" t="s">
         <v>310</v>
       </c>
-      <c r="H27" s="215"/>
-      <c r="I27" s="218"/>
-      <c r="J27" s="324"/>
-      <c r="K27" s="327"/>
-      <c r="L27" s="324"/>
-      <c r="M27" s="327"/>
-      <c r="N27" s="324"/>
-      <c r="O27" s="327"/>
-      <c r="P27" s="324"/>
-      <c r="Q27" s="327"/>
-      <c r="R27" s="324"/>
-      <c r="S27" s="327"/>
-      <c r="T27" s="324"/>
-      <c r="U27" s="286"/>
-      <c r="V27" s="287"/>
-      <c r="W27" s="219"/>
-      <c r="X27" s="288"/>
-      <c r="Y27" s="220"/>
-      <c r="Z27" s="220"/>
-      <c r="AA27" s="259"/>
-      <c r="AB27" s="256"/>
-      <c r="AC27" s="257"/>
-      <c r="AD27" s="258"/>
-      <c r="AE27" s="225"/>
-      <c r="AF27" s="302"/>
-      <c r="AG27" s="303"/>
-      <c r="AH27" s="303"/>
-      <c r="AI27" s="303"/>
-      <c r="AJ27" s="303"/>
-      <c r="AK27" s="303"/>
-      <c r="AL27" s="303"/>
-      <c r="AM27" s="304"/>
-    </row>
-    <row r="28" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A28" s="205"/>
-      <c r="B28" s="247"/>
-      <c r="C28" s="231"/>
-      <c r="D28" s="214" t="s">
+      <c r="H33" s="159"/>
+      <c r="I33" s="162"/>
+      <c r="J33" s="231"/>
+      <c r="K33" s="234"/>
+      <c r="L33" s="231"/>
+      <c r="M33" s="234"/>
+      <c r="N33" s="231"/>
+      <c r="O33" s="234"/>
+      <c r="P33" s="231"/>
+      <c r="Q33" s="234"/>
+      <c r="R33" s="231"/>
+      <c r="S33" s="234"/>
+      <c r="T33" s="231"/>
+      <c r="U33" s="211"/>
+      <c r="V33" s="212"/>
+      <c r="W33" s="163"/>
+      <c r="X33" s="213"/>
+      <c r="Y33" s="164"/>
+      <c r="Z33" s="164"/>
+      <c r="AA33" s="188"/>
+      <c r="AB33" s="185"/>
+      <c r="AC33" s="186"/>
+      <c r="AD33" s="187"/>
+      <c r="AE33" s="169"/>
+      <c r="AF33" s="218"/>
+      <c r="AG33" s="219"/>
+      <c r="AH33" s="219"/>
+      <c r="AI33" s="219"/>
+      <c r="AJ33" s="219"/>
+      <c r="AK33" s="219"/>
+      <c r="AL33" s="219"/>
+      <c r="AM33" s="220"/>
+    </row>
+    <row r="34" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A34" s="156"/>
+      <c r="B34" s="306"/>
+      <c r="C34" s="303"/>
+      <c r="D34" s="158" t="s">
         <v>331</v>
       </c>
-      <c r="E28" s="214" t="s">
+      <c r="E34" s="158" t="s">
         <v>333</v>
       </c>
-      <c r="F28" s="215" t="s">
+      <c r="F34" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G28" s="215" t="s">
+      <c r="G34" s="159" t="s">
         <v>323</v>
       </c>
-      <c r="H28" s="215"/>
-      <c r="I28" s="218"/>
-      <c r="J28" s="324"/>
-      <c r="K28" s="327"/>
-      <c r="L28" s="324"/>
-      <c r="M28" s="327"/>
-      <c r="N28" s="324"/>
-      <c r="O28" s="327"/>
-      <c r="P28" s="324"/>
-      <c r="Q28" s="327"/>
-      <c r="R28" s="324"/>
-      <c r="S28" s="327"/>
-      <c r="T28" s="324"/>
-      <c r="U28" s="286"/>
-      <c r="V28" s="287"/>
-      <c r="W28" s="219"/>
-      <c r="X28" s="288"/>
-      <c r="Y28" s="220"/>
-      <c r="Z28" s="220"/>
-      <c r="AA28" s="259"/>
-      <c r="AB28" s="256"/>
-      <c r="AC28" s="257"/>
-      <c r="AD28" s="258"/>
-      <c r="AE28" s="225"/>
-      <c r="AF28" s="302"/>
-      <c r="AG28" s="303"/>
-      <c r="AH28" s="303"/>
-      <c r="AI28" s="303"/>
-      <c r="AJ28" s="303"/>
-      <c r="AK28" s="303"/>
-      <c r="AL28" s="303"/>
-      <c r="AM28" s="304"/>
-    </row>
-    <row r="29" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A29" s="205"/>
-      <c r="B29" s="247"/>
-      <c r="C29" s="231"/>
-      <c r="D29" s="214" t="s">
+      <c r="H34" s="159"/>
+      <c r="I34" s="162"/>
+      <c r="J34" s="231"/>
+      <c r="K34" s="234"/>
+      <c r="L34" s="231"/>
+      <c r="M34" s="234"/>
+      <c r="N34" s="231"/>
+      <c r="O34" s="234"/>
+      <c r="P34" s="231"/>
+      <c r="Q34" s="234"/>
+      <c r="R34" s="231"/>
+      <c r="S34" s="234"/>
+      <c r="T34" s="231"/>
+      <c r="U34" s="211"/>
+      <c r="V34" s="212"/>
+      <c r="W34" s="163"/>
+      <c r="X34" s="213"/>
+      <c r="Y34" s="164"/>
+      <c r="Z34" s="164"/>
+      <c r="AA34" s="188"/>
+      <c r="AB34" s="185"/>
+      <c r="AC34" s="186"/>
+      <c r="AD34" s="187"/>
+      <c r="AE34" s="169"/>
+      <c r="AF34" s="218"/>
+      <c r="AG34" s="219"/>
+      <c r="AH34" s="219"/>
+      <c r="AI34" s="219"/>
+      <c r="AJ34" s="219"/>
+      <c r="AK34" s="219"/>
+      <c r="AL34" s="219"/>
+      <c r="AM34" s="220"/>
+    </row>
+    <row r="35" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A35" s="156"/>
+      <c r="B35" s="306"/>
+      <c r="C35" s="303"/>
+      <c r="D35" s="158" t="s">
         <v>331</v>
       </c>
-      <c r="E29" s="261" t="s">
+      <c r="E35" s="190" t="s">
         <v>354</v>
       </c>
-      <c r="F29" s="215" t="s">
+      <c r="F35" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G29" s="215" t="s">
+      <c r="G35" s="159" t="s">
         <v>310</v>
       </c>
-      <c r="H29" s="215"/>
-      <c r="I29" s="218"/>
-      <c r="J29" s="324"/>
-      <c r="K29" s="327"/>
-      <c r="L29" s="324"/>
-      <c r="M29" s="327"/>
-      <c r="N29" s="324"/>
-      <c r="O29" s="327"/>
-      <c r="P29" s="324"/>
-      <c r="Q29" s="327"/>
-      <c r="R29" s="324"/>
-      <c r="S29" s="327"/>
-      <c r="T29" s="324"/>
-      <c r="U29" s="286"/>
-      <c r="V29" s="287"/>
-      <c r="W29" s="219"/>
-      <c r="X29" s="288"/>
-      <c r="Y29" s="220"/>
-      <c r="Z29" s="220"/>
-      <c r="AA29" s="259"/>
-      <c r="AB29" s="256"/>
-      <c r="AC29" s="257"/>
-      <c r="AD29" s="258"/>
-      <c r="AE29" s="225"/>
-      <c r="AF29" s="302"/>
-      <c r="AG29" s="303"/>
-      <c r="AH29" s="303"/>
-      <c r="AI29" s="303"/>
-      <c r="AJ29" s="303"/>
-      <c r="AK29" s="303"/>
-      <c r="AL29" s="303"/>
-      <c r="AM29" s="304"/>
-    </row>
-    <row r="30" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A30" s="205"/>
-      <c r="B30" s="262"/>
-      <c r="C30" s="263"/>
-      <c r="D30" s="234" t="s">
+      <c r="H35" s="159"/>
+      <c r="I35" s="162"/>
+      <c r="J35" s="231"/>
+      <c r="K35" s="234"/>
+      <c r="L35" s="231"/>
+      <c r="M35" s="234"/>
+      <c r="N35" s="231"/>
+      <c r="O35" s="234"/>
+      <c r="P35" s="231"/>
+      <c r="Q35" s="234"/>
+      <c r="R35" s="231"/>
+      <c r="S35" s="234"/>
+      <c r="T35" s="231"/>
+      <c r="U35" s="211"/>
+      <c r="V35" s="212"/>
+      <c r="W35" s="163"/>
+      <c r="X35" s="213"/>
+      <c r="Y35" s="164"/>
+      <c r="Z35" s="164"/>
+      <c r="AA35" s="188"/>
+      <c r="AB35" s="185"/>
+      <c r="AC35" s="186"/>
+      <c r="AD35" s="187"/>
+      <c r="AE35" s="169"/>
+      <c r="AF35" s="218"/>
+      <c r="AG35" s="219"/>
+      <c r="AH35" s="219"/>
+      <c r="AI35" s="219"/>
+      <c r="AJ35" s="219"/>
+      <c r="AK35" s="219"/>
+      <c r="AL35" s="219"/>
+      <c r="AM35" s="220"/>
+    </row>
+    <row r="36" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A36" s="156"/>
+      <c r="B36" s="311"/>
+      <c r="C36" s="317"/>
+      <c r="D36" s="172" t="s">
         <v>331</v>
       </c>
-      <c r="E30" s="234" t="s">
+      <c r="E36" s="172" t="s">
         <v>333</v>
       </c>
-      <c r="F30" s="235" t="s">
+      <c r="F36" s="173" t="s">
         <v>322</v>
       </c>
-      <c r="G30" s="235" t="s">
+      <c r="G36" s="173" t="s">
         <v>323</v>
       </c>
-      <c r="H30" s="235"/>
-      <c r="I30" s="238"/>
-      <c r="J30" s="325"/>
-      <c r="K30" s="328"/>
-      <c r="L30" s="325"/>
-      <c r="M30" s="328"/>
-      <c r="N30" s="325"/>
-      <c r="O30" s="328"/>
-      <c r="P30" s="325"/>
-      <c r="Q30" s="328"/>
-      <c r="R30" s="325"/>
-      <c r="S30" s="328"/>
-      <c r="T30" s="325"/>
-      <c r="U30" s="289"/>
-      <c r="V30" s="290"/>
-      <c r="W30" s="239"/>
-      <c r="X30" s="291"/>
-      <c r="Y30" s="220"/>
-      <c r="Z30" s="220"/>
-      <c r="AA30" s="259">
+      <c r="H36" s="173"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="232"/>
+      <c r="K36" s="235"/>
+      <c r="L36" s="232"/>
+      <c r="M36" s="235"/>
+      <c r="N36" s="232"/>
+      <c r="O36" s="235"/>
+      <c r="P36" s="232"/>
+      <c r="Q36" s="235"/>
+      <c r="R36" s="232"/>
+      <c r="S36" s="235"/>
+      <c r="T36" s="232"/>
+      <c r="U36" s="214"/>
+      <c r="V36" s="215"/>
+      <c r="W36" s="177"/>
+      <c r="X36" s="216"/>
+      <c r="Y36" s="164"/>
+      <c r="Z36" s="164"/>
+      <c r="AA36" s="188">
         <v>0.05</v>
       </c>
-      <c r="AB30" s="256">
+      <c r="AB36" s="185">
         <v>1</v>
       </c>
-      <c r="AC30" s="257">
+      <c r="AC36" s="186">
         <v>0.2</v>
       </c>
-      <c r="AD30" s="258">
+      <c r="AD36" s="187">
         <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="AE30" s="225"/>
-      <c r="AF30" s="248" t="s">
+      <c r="AE36" s="169"/>
+      <c r="AF36" s="298" t="s">
         <v>308</v>
       </c>
-      <c r="AG30" s="249"/>
-      <c r="AH30" s="249"/>
-      <c r="AI30" s="249"/>
-      <c r="AJ30" s="249"/>
-      <c r="AK30" s="249"/>
-      <c r="AL30" s="249"/>
-      <c r="AM30" s="250"/>
-    </row>
-    <row r="31" spans="1:39" ht="33">
-      <c r="A31" s="205"/>
-      <c r="B31" s="245">
+      <c r="AG36" s="299"/>
+      <c r="AH36" s="299"/>
+      <c r="AI36" s="299"/>
+      <c r="AJ36" s="299"/>
+      <c r="AK36" s="299"/>
+      <c r="AL36" s="299"/>
+      <c r="AM36" s="300"/>
+    </row>
+    <row r="37" spans="1:39" ht="33">
+      <c r="A37" s="156"/>
+      <c r="B37" s="305">
         <v>3</v>
       </c>
-      <c r="C31" s="284"/>
-      <c r="D31" s="214" t="s">
+      <c r="C37" s="209"/>
+      <c r="D37" s="158" t="s">
         <v>350</v>
       </c>
-      <c r="E31" s="267" t="s">
+      <c r="E37" s="194" t="s">
         <v>351</v>
       </c>
-      <c r="F31" s="215"/>
-      <c r="G31" s="215" t="s">
+      <c r="F37" s="159"/>
+      <c r="G37" s="159" t="s">
         <v>310</v>
       </c>
-      <c r="H31" s="315"/>
-      <c r="I31" s="265"/>
-      <c r="J31" s="324"/>
-      <c r="K31" s="339"/>
-      <c r="L31" s="336"/>
-      <c r="M31" s="339"/>
-      <c r="N31" s="336"/>
-      <c r="O31" s="339"/>
-      <c r="P31" s="336"/>
-      <c r="Q31" s="339"/>
-      <c r="R31" s="336"/>
-      <c r="S31" s="339"/>
-      <c r="T31" s="336"/>
-      <c r="U31" s="339"/>
-      <c r="V31" s="336"/>
-      <c r="W31" s="266"/>
-      <c r="X31" s="292"/>
-      <c r="Y31" s="220"/>
-      <c r="Z31" s="220"/>
-      <c r="AA31" s="259"/>
-      <c r="AB31" s="256"/>
-      <c r="AC31" s="346"/>
-      <c r="AD31" s="258"/>
-      <c r="AE31" s="225"/>
-      <c r="AF31" s="302"/>
-      <c r="AG31" s="303"/>
-      <c r="AH31" s="303"/>
-      <c r="AI31" s="303"/>
-      <c r="AJ31" s="303"/>
-      <c r="AK31" s="303"/>
-      <c r="AL31" s="303"/>
-      <c r="AM31" s="304"/>
-    </row>
-    <row r="32" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A32" s="205"/>
-      <c r="B32" s="262"/>
-      <c r="C32" s="284"/>
-      <c r="D32" s="260"/>
-      <c r="E32" s="260"/>
-      <c r="F32" s="316"/>
-      <c r="G32" s="316" t="s">
+      <c r="H37" s="222"/>
+      <c r="I37" s="192"/>
+      <c r="J37" s="231"/>
+      <c r="K37" s="245"/>
+      <c r="L37" s="242"/>
+      <c r="M37" s="245"/>
+      <c r="N37" s="242"/>
+      <c r="O37" s="245"/>
+      <c r="P37" s="242"/>
+      <c r="Q37" s="245"/>
+      <c r="R37" s="242"/>
+      <c r="S37" s="245"/>
+      <c r="T37" s="242"/>
+      <c r="U37" s="245"/>
+      <c r="V37" s="242"/>
+      <c r="W37" s="193"/>
+      <c r="X37" s="217"/>
+      <c r="Y37" s="164"/>
+      <c r="Z37" s="164"/>
+      <c r="AA37" s="188"/>
+      <c r="AB37" s="185"/>
+      <c r="AC37" s="252"/>
+      <c r="AD37" s="187"/>
+      <c r="AE37" s="169"/>
+      <c r="AF37" s="218"/>
+      <c r="AG37" s="219"/>
+      <c r="AH37" s="219"/>
+      <c r="AI37" s="219"/>
+      <c r="AJ37" s="219"/>
+      <c r="AK37" s="219"/>
+      <c r="AL37" s="219"/>
+      <c r="AM37" s="220"/>
+    </row>
+    <row r="38" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A38" s="156"/>
+      <c r="B38" s="311"/>
+      <c r="C38" s="209"/>
+      <c r="D38" s="189"/>
+      <c r="E38" s="189"/>
+      <c r="F38" s="223"/>
+      <c r="G38" s="223" t="s">
         <v>323</v>
       </c>
-      <c r="H32" s="316"/>
-      <c r="I32" s="265"/>
-      <c r="J32" s="336"/>
-      <c r="K32" s="339"/>
-      <c r="L32" s="336"/>
-      <c r="M32" s="339"/>
-      <c r="N32" s="336"/>
-      <c r="O32" s="339"/>
-      <c r="P32" s="324"/>
-      <c r="Q32" s="339"/>
-      <c r="R32" s="336"/>
-      <c r="S32" s="339"/>
-      <c r="T32" s="336"/>
-      <c r="U32" s="339"/>
-      <c r="V32" s="343"/>
-      <c r="W32" s="266"/>
-      <c r="X32" s="292"/>
-      <c r="Y32" s="220"/>
-      <c r="Z32" s="220"/>
-      <c r="AA32" s="259"/>
-      <c r="AB32" s="256"/>
-      <c r="AC32" s="346"/>
-      <c r="AD32" s="258"/>
-      <c r="AE32" s="225"/>
-      <c r="AF32" s="302"/>
-      <c r="AG32" s="303"/>
-      <c r="AH32" s="303"/>
-      <c r="AI32" s="303"/>
-      <c r="AJ32" s="303"/>
-      <c r="AK32" s="303"/>
-      <c r="AL32" s="303"/>
-      <c r="AM32" s="304"/>
-    </row>
-    <row r="33" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A33" s="205"/>
-      <c r="B33" s="245">
+      <c r="H38" s="223"/>
+      <c r="I38" s="192"/>
+      <c r="J38" s="242"/>
+      <c r="K38" s="245"/>
+      <c r="L38" s="242"/>
+      <c r="M38" s="245"/>
+      <c r="N38" s="242"/>
+      <c r="O38" s="245"/>
+      <c r="P38" s="231"/>
+      <c r="Q38" s="245"/>
+      <c r="R38" s="242"/>
+      <c r="S38" s="245"/>
+      <c r="T38" s="242"/>
+      <c r="U38" s="245"/>
+      <c r="V38" s="249"/>
+      <c r="W38" s="193"/>
+      <c r="X38" s="217"/>
+      <c r="Y38" s="164"/>
+      <c r="Z38" s="164"/>
+      <c r="AA38" s="188"/>
+      <c r="AB38" s="185"/>
+      <c r="AC38" s="252"/>
+      <c r="AD38" s="187"/>
+      <c r="AE38" s="169"/>
+      <c r="AF38" s="218"/>
+      <c r="AG38" s="219"/>
+      <c r="AH38" s="219"/>
+      <c r="AI38" s="219"/>
+      <c r="AJ38" s="219"/>
+      <c r="AK38" s="219"/>
+      <c r="AL38" s="219"/>
+      <c r="AM38" s="220"/>
+    </row>
+    <row r="39" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A39" s="156"/>
+      <c r="B39" s="305">
         <v>4</v>
       </c>
-      <c r="C33" s="246" t="s">
+      <c r="C39" s="302" t="s">
         <v>320</v>
       </c>
-      <c r="D33" s="268" t="s">
+      <c r="D39" s="195" t="s">
         <v>334</v>
       </c>
-      <c r="E33" s="268" t="s">
+      <c r="E39" s="195" t="s">
         <v>335</v>
       </c>
-      <c r="F33" s="329" t="s">
+      <c r="F39" s="236" t="s">
         <v>322</v>
       </c>
-      <c r="G33" s="329" t="s">
+      <c r="G39" s="236" t="s">
         <v>310</v>
       </c>
-      <c r="H33" s="329"/>
-      <c r="I33" s="269"/>
-      <c r="J33" s="323"/>
-      <c r="K33" s="326"/>
-      <c r="L33" s="323"/>
-      <c r="M33" s="326"/>
-      <c r="N33" s="323"/>
-      <c r="O33" s="326"/>
-      <c r="P33" s="323"/>
-      <c r="Q33" s="326"/>
-      <c r="R33" s="323"/>
-      <c r="S33" s="326"/>
-      <c r="T33" s="323"/>
-      <c r="U33" s="341"/>
-      <c r="V33" s="342"/>
-      <c r="W33" s="270"/>
-      <c r="X33" s="330"/>
-      <c r="Y33" s="220"/>
-      <c r="Z33" s="220"/>
-      <c r="AA33" s="259">
+      <c r="H39" s="236"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="230"/>
+      <c r="K39" s="233"/>
+      <c r="L39" s="230"/>
+      <c r="M39" s="233"/>
+      <c r="N39" s="230"/>
+      <c r="O39" s="233"/>
+      <c r="P39" s="230"/>
+      <c r="Q39" s="233"/>
+      <c r="R39" s="230"/>
+      <c r="S39" s="233"/>
+      <c r="T39" s="230"/>
+      <c r="U39" s="247"/>
+      <c r="V39" s="248"/>
+      <c r="W39" s="197"/>
+      <c r="X39" s="237"/>
+      <c r="Y39" s="164"/>
+      <c r="Z39" s="164"/>
+      <c r="AA39" s="188">
         <v>0.05</v>
       </c>
-      <c r="AB33" s="256">
+      <c r="AB39" s="185">
         <v>1</v>
       </c>
-      <c r="AC33" s="264">
+      <c r="AC39" s="191">
         <v>0.5</v>
       </c>
-      <c r="AD33" s="258">
+      <c r="AD39" s="187">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE33" s="225"/>
-      <c r="AF33" s="248" t="s">
+      <c r="AE39" s="169"/>
+      <c r="AF39" s="298" t="s">
         <v>308</v>
       </c>
-      <c r="AG33" s="249"/>
-      <c r="AH33" s="249"/>
-      <c r="AI33" s="249"/>
-      <c r="AJ33" s="249"/>
-      <c r="AK33" s="249"/>
-      <c r="AL33" s="249"/>
-      <c r="AM33" s="250"/>
-    </row>
-    <row r="34" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A34" s="205"/>
-      <c r="B34" s="247"/>
-      <c r="C34" s="231"/>
-      <c r="D34" s="214" t="s">
+      <c r="AG39" s="299"/>
+      <c r="AH39" s="299"/>
+      <c r="AI39" s="299"/>
+      <c r="AJ39" s="299"/>
+      <c r="AK39" s="299"/>
+      <c r="AL39" s="299"/>
+      <c r="AM39" s="300"/>
+    </row>
+    <row r="40" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A40" s="156"/>
+      <c r="B40" s="306"/>
+      <c r="C40" s="303"/>
+      <c r="D40" s="158" t="s">
         <v>334</v>
       </c>
-      <c r="E34" s="267" t="s">
+      <c r="E40" s="194" t="s">
         <v>335</v>
       </c>
-      <c r="F34" s="215" t="s">
+      <c r="F40" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G34" s="215" t="s">
+      <c r="G40" s="159" t="s">
         <v>323</v>
       </c>
-      <c r="H34" s="315"/>
-      <c r="I34" s="265"/>
-      <c r="J34" s="336"/>
-      <c r="K34" s="339"/>
-      <c r="L34" s="336"/>
-      <c r="M34" s="339"/>
-      <c r="N34" s="336"/>
-      <c r="O34" s="339"/>
-      <c r="P34" s="324"/>
-      <c r="Q34" s="339"/>
-      <c r="R34" s="336"/>
-      <c r="S34" s="339"/>
-      <c r="T34" s="336"/>
-      <c r="U34" s="339"/>
-      <c r="V34" s="343"/>
-      <c r="W34" s="266"/>
-      <c r="X34" s="292"/>
-      <c r="Y34" s="220"/>
-      <c r="Z34" s="220"/>
-      <c r="AA34" s="259">
+      <c r="H40" s="222"/>
+      <c r="I40" s="192"/>
+      <c r="J40" s="242"/>
+      <c r="K40" s="245"/>
+      <c r="L40" s="242"/>
+      <c r="M40" s="245"/>
+      <c r="N40" s="242"/>
+      <c r="O40" s="245"/>
+      <c r="P40" s="231"/>
+      <c r="Q40" s="245"/>
+      <c r="R40" s="242"/>
+      <c r="S40" s="245"/>
+      <c r="T40" s="242"/>
+      <c r="U40" s="245"/>
+      <c r="V40" s="249"/>
+      <c r="W40" s="193"/>
+      <c r="X40" s="217"/>
+      <c r="Y40" s="164"/>
+      <c r="Z40" s="164"/>
+      <c r="AA40" s="188">
         <v>0.05</v>
       </c>
-      <c r="AB34" s="256">
+      <c r="AB40" s="185">
         <v>1</v>
       </c>
-      <c r="AC34" s="264">
+      <c r="AC40" s="191">
         <v>0.5</v>
       </c>
-      <c r="AD34" s="258">
-        <f t="shared" ref="AD34:AD52" si="1">AA34*AB34*AC34</f>
+      <c r="AD40" s="187">
+        <f t="shared" ref="AD40:AD58" si="1">AA40*AB40*AC40</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE34" s="225"/>
-      <c r="AF34" s="248" t="s">
+      <c r="AE40" s="169"/>
+      <c r="AF40" s="298" t="s">
         <v>308</v>
       </c>
-      <c r="AG34" s="249"/>
-      <c r="AH34" s="249"/>
-      <c r="AI34" s="249"/>
-      <c r="AJ34" s="249"/>
-      <c r="AK34" s="249"/>
-      <c r="AL34" s="249"/>
-      <c r="AM34" s="250"/>
-    </row>
-    <row r="35" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A35" s="205"/>
-      <c r="B35" s="247"/>
-      <c r="C35" s="231"/>
-      <c r="D35" s="214" t="s">
+      <c r="AG40" s="299"/>
+      <c r="AH40" s="299"/>
+      <c r="AI40" s="299"/>
+      <c r="AJ40" s="299"/>
+      <c r="AK40" s="299"/>
+      <c r="AL40" s="299"/>
+      <c r="AM40" s="300"/>
+    </row>
+    <row r="41" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A41" s="156"/>
+      <c r="B41" s="306"/>
+      <c r="C41" s="303"/>
+      <c r="D41" s="158" t="s">
         <v>334</v>
       </c>
-      <c r="E35" s="267" t="s">
+      <c r="E41" s="194" t="s">
         <v>335</v>
       </c>
-      <c r="F35" s="215" t="s">
+      <c r="F41" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G35" s="215" t="s">
+      <c r="G41" s="159" t="s">
         <v>310</v>
       </c>
-      <c r="H35" s="315"/>
-      <c r="I35" s="265"/>
-      <c r="J35" s="324"/>
-      <c r="K35" s="339"/>
-      <c r="L35" s="324"/>
-      <c r="M35" s="339"/>
-      <c r="N35" s="336"/>
-      <c r="O35" s="339"/>
-      <c r="P35" s="336"/>
-      <c r="Q35" s="339"/>
-      <c r="R35" s="324"/>
-      <c r="S35" s="339"/>
-      <c r="T35" s="336"/>
-      <c r="U35" s="339"/>
-      <c r="V35" s="336"/>
-      <c r="W35" s="266"/>
-      <c r="X35" s="292"/>
-      <c r="Y35" s="220"/>
-      <c r="Z35" s="220"/>
-      <c r="AA35" s="259">
+      <c r="H41" s="222"/>
+      <c r="I41" s="192"/>
+      <c r="J41" s="231"/>
+      <c r="K41" s="245"/>
+      <c r="L41" s="231"/>
+      <c r="M41" s="245"/>
+      <c r="N41" s="242"/>
+      <c r="O41" s="245"/>
+      <c r="P41" s="242"/>
+      <c r="Q41" s="245"/>
+      <c r="R41" s="231"/>
+      <c r="S41" s="245"/>
+      <c r="T41" s="242"/>
+      <c r="U41" s="245"/>
+      <c r="V41" s="242"/>
+      <c r="W41" s="193"/>
+      <c r="X41" s="217"/>
+      <c r="Y41" s="164"/>
+      <c r="Z41" s="164"/>
+      <c r="AA41" s="188">
         <v>0.05</v>
       </c>
-      <c r="AB35" s="256">
+      <c r="AB41" s="185">
         <v>1</v>
       </c>
-      <c r="AC35" s="264">
+      <c r="AC41" s="191">
         <v>0.5</v>
       </c>
-      <c r="AD35" s="258">
+      <c r="AD41" s="187">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE35" s="225"/>
-      <c r="AF35" s="248" t="s">
+      <c r="AE41" s="169"/>
+      <c r="AF41" s="298" t="s">
         <v>308</v>
       </c>
-      <c r="AG35" s="249"/>
-      <c r="AH35" s="249"/>
-      <c r="AI35" s="249"/>
-      <c r="AJ35" s="249"/>
-      <c r="AK35" s="249"/>
-      <c r="AL35" s="249"/>
-      <c r="AM35" s="250"/>
-    </row>
-    <row r="36" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A36" s="205"/>
-      <c r="B36" s="247"/>
-      <c r="C36" s="231"/>
-      <c r="D36" s="214" t="s">
+      <c r="AG41" s="299"/>
+      <c r="AH41" s="299"/>
+      <c r="AI41" s="299"/>
+      <c r="AJ41" s="299"/>
+      <c r="AK41" s="299"/>
+      <c r="AL41" s="299"/>
+      <c r="AM41" s="300"/>
+    </row>
+    <row r="42" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A42" s="156"/>
+      <c r="B42" s="306"/>
+      <c r="C42" s="303"/>
+      <c r="D42" s="158" t="s">
         <v>334</v>
       </c>
-      <c r="E36" s="267" t="s">
+      <c r="E42" s="194" t="s">
         <v>335</v>
       </c>
-      <c r="F36" s="215" t="s">
+      <c r="F42" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G36" s="215" t="s">
+      <c r="G42" s="159" t="s">
         <v>323</v>
       </c>
-      <c r="H36" s="315"/>
-      <c r="I36" s="265"/>
-      <c r="J36" s="324"/>
-      <c r="K36" s="339"/>
-      <c r="L36" s="336"/>
-      <c r="M36" s="339"/>
-      <c r="N36" s="336"/>
-      <c r="O36" s="339"/>
-      <c r="P36" s="336"/>
-      <c r="Q36" s="339"/>
-      <c r="R36" s="336"/>
-      <c r="S36" s="339"/>
-      <c r="T36" s="336"/>
-      <c r="U36" s="339"/>
-      <c r="V36" s="336"/>
-      <c r="W36" s="266"/>
-      <c r="X36" s="292"/>
-      <c r="Y36" s="220"/>
-      <c r="Z36" s="220"/>
-      <c r="AA36" s="251">
+      <c r="H42" s="222"/>
+      <c r="I42" s="192"/>
+      <c r="J42" s="231"/>
+      <c r="K42" s="245"/>
+      <c r="L42" s="242"/>
+      <c r="M42" s="245"/>
+      <c r="N42" s="242"/>
+      <c r="O42" s="245"/>
+      <c r="P42" s="242"/>
+      <c r="Q42" s="245"/>
+      <c r="R42" s="242"/>
+      <c r="S42" s="245"/>
+      <c r="T42" s="242"/>
+      <c r="U42" s="245"/>
+      <c r="V42" s="242"/>
+      <c r="W42" s="193"/>
+      <c r="X42" s="217"/>
+      <c r="Y42" s="164"/>
+      <c r="Z42" s="164"/>
+      <c r="AA42" s="180">
         <v>0.05</v>
       </c>
-      <c r="AB36" s="252">
+      <c r="AB42" s="181">
         <v>1</v>
       </c>
-      <c r="AC36" s="253">
+      <c r="AC42" s="182">
         <v>0.5</v>
       </c>
-      <c r="AD36" s="254">
+      <c r="AD42" s="183">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE36" s="225"/>
-      <c r="AF36" s="248" t="s">
+      <c r="AE42" s="169"/>
+      <c r="AF42" s="298" t="s">
         <v>308</v>
       </c>
-      <c r="AG36" s="249"/>
-      <c r="AH36" s="249"/>
-      <c r="AI36" s="249"/>
-      <c r="AJ36" s="249"/>
-      <c r="AK36" s="249"/>
-      <c r="AL36" s="249"/>
-      <c r="AM36" s="250"/>
-    </row>
-    <row r="37" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A37" s="205"/>
-      <c r="B37" s="247"/>
-      <c r="C37" s="231"/>
-      <c r="D37" s="214" t="s">
+      <c r="AG42" s="299"/>
+      <c r="AH42" s="299"/>
+      <c r="AI42" s="299"/>
+      <c r="AJ42" s="299"/>
+      <c r="AK42" s="299"/>
+      <c r="AL42" s="299"/>
+      <c r="AM42" s="300"/>
+    </row>
+    <row r="43" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A43" s="156"/>
+      <c r="B43" s="306"/>
+      <c r="C43" s="303"/>
+      <c r="D43" s="158" t="s">
         <v>334</v>
       </c>
-      <c r="E37" s="267" t="s">
+      <c r="E43" s="194" t="s">
         <v>335</v>
       </c>
-      <c r="F37" s="215" t="s">
+      <c r="F43" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G37" s="215" t="s">
+      <c r="G43" s="159" t="s">
         <v>310</v>
       </c>
-      <c r="H37" s="315"/>
-      <c r="I37" s="265"/>
-      <c r="J37" s="324"/>
-      <c r="K37" s="339"/>
-      <c r="L37" s="324"/>
-      <c r="M37" s="339"/>
-      <c r="N37" s="336"/>
-      <c r="O37" s="339"/>
-      <c r="P37" s="336"/>
-      <c r="Q37" s="339"/>
-      <c r="R37" s="324"/>
-      <c r="S37" s="339"/>
-      <c r="T37" s="336"/>
-      <c r="U37" s="339"/>
-      <c r="V37" s="336"/>
-      <c r="W37" s="266"/>
-      <c r="X37" s="292"/>
-      <c r="Y37" s="220"/>
-      <c r="Z37" s="220"/>
-      <c r="AA37" s="255">
+      <c r="H43" s="222"/>
+      <c r="I43" s="192"/>
+      <c r="J43" s="231"/>
+      <c r="K43" s="245"/>
+      <c r="L43" s="231"/>
+      <c r="M43" s="245"/>
+      <c r="N43" s="242"/>
+      <c r="O43" s="245"/>
+      <c r="P43" s="242"/>
+      <c r="Q43" s="245"/>
+      <c r="R43" s="231"/>
+      <c r="S43" s="245"/>
+      <c r="T43" s="242"/>
+      <c r="U43" s="245"/>
+      <c r="V43" s="242"/>
+      <c r="W43" s="193"/>
+      <c r="X43" s="217"/>
+      <c r="Y43" s="164"/>
+      <c r="Z43" s="164"/>
+      <c r="AA43" s="184">
         <v>0.05</v>
       </c>
-      <c r="AB37" s="256">
+      <c r="AB43" s="185">
         <v>1</v>
       </c>
-      <c r="AC37" s="257">
+      <c r="AC43" s="186">
         <v>0.5</v>
       </c>
-      <c r="AD37" s="258">
+      <c r="AD43" s="187">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE37" s="225"/>
-      <c r="AF37" s="248" t="s">
+      <c r="AE43" s="169"/>
+      <c r="AF43" s="298" t="s">
         <v>308</v>
       </c>
-      <c r="AG37" s="249"/>
-      <c r="AH37" s="249"/>
-      <c r="AI37" s="249"/>
-      <c r="AJ37" s="249"/>
-      <c r="AK37" s="249"/>
-      <c r="AL37" s="249"/>
-      <c r="AM37" s="250"/>
-    </row>
-    <row r="38" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A38" s="205"/>
-      <c r="B38" s="247"/>
-      <c r="C38" s="231"/>
-      <c r="D38" s="214" t="s">
+      <c r="AG43" s="299"/>
+      <c r="AH43" s="299"/>
+      <c r="AI43" s="299"/>
+      <c r="AJ43" s="299"/>
+      <c r="AK43" s="299"/>
+      <c r="AL43" s="299"/>
+      <c r="AM43" s="300"/>
+    </row>
+    <row r="44" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A44" s="156"/>
+      <c r="B44" s="306"/>
+      <c r="C44" s="303"/>
+      <c r="D44" s="158" t="s">
         <v>334</v>
       </c>
-      <c r="E38" s="267" t="s">
+      <c r="E44" s="194" t="s">
         <v>335</v>
       </c>
-      <c r="F38" s="215" t="s">
+      <c r="F44" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G38" s="215" t="s">
+      <c r="G44" s="159" t="s">
         <v>323</v>
       </c>
-      <c r="H38" s="315"/>
-      <c r="I38" s="265"/>
-      <c r="J38" s="324"/>
-      <c r="K38" s="339"/>
-      <c r="L38" s="324"/>
-      <c r="M38" s="339"/>
-      <c r="N38" s="336"/>
-      <c r="O38" s="339"/>
-      <c r="P38" s="336"/>
-      <c r="Q38" s="339"/>
-      <c r="R38" s="324"/>
-      <c r="S38" s="339"/>
-      <c r="T38" s="336"/>
-      <c r="U38" s="339"/>
-      <c r="V38" s="336"/>
-      <c r="W38" s="266"/>
-      <c r="X38" s="292"/>
-      <c r="Y38" s="220"/>
-      <c r="Z38" s="220"/>
-      <c r="AA38" s="259">
+      <c r="H44" s="222"/>
+      <c r="I44" s="192"/>
+      <c r="J44" s="231"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="231"/>
+      <c r="M44" s="245"/>
+      <c r="N44" s="242"/>
+      <c r="O44" s="245"/>
+      <c r="P44" s="242"/>
+      <c r="Q44" s="245"/>
+      <c r="R44" s="231"/>
+      <c r="S44" s="245"/>
+      <c r="T44" s="242"/>
+      <c r="U44" s="245"/>
+      <c r="V44" s="242"/>
+      <c r="W44" s="193"/>
+      <c r="X44" s="217"/>
+      <c r="Y44" s="164"/>
+      <c r="Z44" s="164"/>
+      <c r="AA44" s="188">
         <v>0.05</v>
       </c>
-      <c r="AB38" s="256">
+      <c r="AB44" s="185">
         <v>1</v>
       </c>
-      <c r="AC38" s="257">
+      <c r="AC44" s="186">
         <v>0.5</v>
       </c>
-      <c r="AD38" s="258">
+      <c r="AD44" s="187">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE38" s="225"/>
-      <c r="AF38" s="248" t="s">
+      <c r="AE44" s="169"/>
+      <c r="AF44" s="298" t="s">
         <v>308</v>
       </c>
-      <c r="AG38" s="249"/>
-      <c r="AH38" s="249"/>
-      <c r="AI38" s="249"/>
-      <c r="AJ38" s="249"/>
-      <c r="AK38" s="249"/>
-      <c r="AL38" s="249"/>
-      <c r="AM38" s="250"/>
-    </row>
-    <row r="39" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A39" s="205"/>
-      <c r="B39" s="247"/>
-      <c r="C39" s="231"/>
-      <c r="D39" s="214" t="s">
+      <c r="AG44" s="299"/>
+      <c r="AH44" s="299"/>
+      <c r="AI44" s="299"/>
+      <c r="AJ44" s="299"/>
+      <c r="AK44" s="299"/>
+      <c r="AL44" s="299"/>
+      <c r="AM44" s="300"/>
+    </row>
+    <row r="45" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A45" s="156"/>
+      <c r="B45" s="306"/>
+      <c r="C45" s="303"/>
+      <c r="D45" s="158" t="s">
         <v>334</v>
       </c>
-      <c r="E39" s="267" t="s">
+      <c r="E45" s="194" t="s">
         <v>335</v>
       </c>
-      <c r="F39" s="215" t="s">
+      <c r="F45" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G39" s="215" t="s">
+      <c r="G45" s="159" t="s">
         <v>310</v>
       </c>
-      <c r="H39" s="215"/>
-      <c r="I39" s="265"/>
-      <c r="J39" s="324"/>
-      <c r="K39" s="339"/>
-      <c r="L39" s="336"/>
-      <c r="M39" s="339"/>
-      <c r="N39" s="336"/>
-      <c r="O39" s="339"/>
-      <c r="P39" s="336"/>
-      <c r="Q39" s="339"/>
-      <c r="R39" s="336"/>
-      <c r="S39" s="339"/>
-      <c r="T39" s="336"/>
-      <c r="U39" s="339"/>
-      <c r="V39" s="336"/>
-      <c r="W39" s="266"/>
-      <c r="X39" s="292"/>
-      <c r="Y39" s="220"/>
-      <c r="Z39" s="220"/>
-      <c r="AA39" s="259">
+      <c r="H45" s="159"/>
+      <c r="I45" s="192"/>
+      <c r="J45" s="231"/>
+      <c r="K45" s="245"/>
+      <c r="L45" s="242"/>
+      <c r="M45" s="245"/>
+      <c r="N45" s="242"/>
+      <c r="O45" s="245"/>
+      <c r="P45" s="242"/>
+      <c r="Q45" s="245"/>
+      <c r="R45" s="242"/>
+      <c r="S45" s="245"/>
+      <c r="T45" s="242"/>
+      <c r="U45" s="245"/>
+      <c r="V45" s="242"/>
+      <c r="W45" s="193"/>
+      <c r="X45" s="217"/>
+      <c r="Y45" s="164"/>
+      <c r="Z45" s="164"/>
+      <c r="AA45" s="188">
         <v>0.05</v>
       </c>
-      <c r="AB39" s="256">
+      <c r="AB45" s="185">
         <v>1</v>
       </c>
-      <c r="AC39" s="257">
+      <c r="AC45" s="186">
         <v>0.5</v>
       </c>
-      <c r="AD39" s="258">
+      <c r="AD45" s="187">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE39" s="225"/>
-      <c r="AF39" s="248" t="s">
+      <c r="AE45" s="169"/>
+      <c r="AF45" s="298" t="s">
         <v>308</v>
       </c>
-      <c r="AG39" s="249"/>
-      <c r="AH39" s="249"/>
-      <c r="AI39" s="249"/>
-      <c r="AJ39" s="249"/>
-      <c r="AK39" s="249"/>
-      <c r="AL39" s="249"/>
-      <c r="AM39" s="250"/>
-    </row>
-    <row r="40" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A40" s="205"/>
-      <c r="B40" s="247"/>
-      <c r="C40" s="231"/>
-      <c r="D40" s="214" t="s">
+      <c r="AG45" s="299"/>
+      <c r="AH45" s="299"/>
+      <c r="AI45" s="299"/>
+      <c r="AJ45" s="299"/>
+      <c r="AK45" s="299"/>
+      <c r="AL45" s="299"/>
+      <c r="AM45" s="300"/>
+    </row>
+    <row r="46" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A46" s="156"/>
+      <c r="B46" s="306"/>
+      <c r="C46" s="303"/>
+      <c r="D46" s="158" t="s">
         <v>334</v>
       </c>
-      <c r="E40" s="267" t="s">
+      <c r="E46" s="194" t="s">
         <v>335</v>
       </c>
-      <c r="F40" s="215" t="s">
+      <c r="F46" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G40" s="215" t="s">
+      <c r="G46" s="159" t="s">
         <v>323</v>
       </c>
-      <c r="H40" s="215"/>
-      <c r="I40" s="265"/>
-      <c r="J40" s="324"/>
-      <c r="K40" s="339"/>
-      <c r="L40" s="324"/>
-      <c r="M40" s="339"/>
-      <c r="N40" s="336"/>
-      <c r="O40" s="339"/>
-      <c r="P40" s="336"/>
-      <c r="Q40" s="339"/>
-      <c r="R40" s="324"/>
-      <c r="S40" s="339"/>
-      <c r="T40" s="336"/>
-      <c r="U40" s="339"/>
-      <c r="V40" s="336"/>
-      <c r="W40" s="266"/>
-      <c r="X40" s="292"/>
-      <c r="Y40" s="220"/>
-      <c r="Z40" s="220"/>
-      <c r="AA40" s="259">
+      <c r="H46" s="159"/>
+      <c r="I46" s="192"/>
+      <c r="J46" s="231"/>
+      <c r="K46" s="245"/>
+      <c r="L46" s="231"/>
+      <c r="M46" s="245"/>
+      <c r="N46" s="242"/>
+      <c r="O46" s="245"/>
+      <c r="P46" s="242"/>
+      <c r="Q46" s="245"/>
+      <c r="R46" s="231"/>
+      <c r="S46" s="245"/>
+      <c r="T46" s="242"/>
+      <c r="U46" s="245"/>
+      <c r="V46" s="242"/>
+      <c r="W46" s="193"/>
+      <c r="X46" s="217"/>
+      <c r="Y46" s="164"/>
+      <c r="Z46" s="164"/>
+      <c r="AA46" s="188">
         <v>0.05</v>
       </c>
-      <c r="AB40" s="256">
+      <c r="AB46" s="185">
         <v>1</v>
       </c>
-      <c r="AC40" s="257">
+      <c r="AC46" s="186">
         <v>0.5</v>
       </c>
-      <c r="AD40" s="258">
+      <c r="AD46" s="187">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE40" s="225"/>
-      <c r="AF40" s="302" t="s">
+      <c r="AE46" s="169"/>
+      <c r="AF46" s="218" t="s">
         <v>308</v>
       </c>
-      <c r="AG40" s="303"/>
-      <c r="AH40" s="303"/>
-      <c r="AI40" s="303"/>
-      <c r="AJ40" s="303"/>
-      <c r="AK40" s="303"/>
-      <c r="AL40" s="303"/>
-      <c r="AM40" s="304"/>
-    </row>
-    <row r="41" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A41" s="205"/>
-      <c r="B41" s="247"/>
-      <c r="C41" s="231"/>
-      <c r="D41" s="214" t="s">
+      <c r="AG46" s="219"/>
+      <c r="AH46" s="219"/>
+      <c r="AI46" s="219"/>
+      <c r="AJ46" s="219"/>
+      <c r="AK46" s="219"/>
+      <c r="AL46" s="219"/>
+      <c r="AM46" s="220"/>
+    </row>
+    <row r="47" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A47" s="156"/>
+      <c r="B47" s="306"/>
+      <c r="C47" s="303"/>
+      <c r="D47" s="158" t="s">
         <v>334</v>
       </c>
-      <c r="E41" s="267" t="s">
+      <c r="E47" s="194" t="s">
         <v>335</v>
       </c>
-      <c r="F41" s="215" t="s">
+      <c r="F47" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G41" s="215" t="s">
+      <c r="G47" s="159" t="s">
         <v>310</v>
       </c>
-      <c r="H41" s="215"/>
-      <c r="I41" s="265"/>
-      <c r="J41" s="324"/>
-      <c r="K41" s="339"/>
-      <c r="L41" s="324"/>
-      <c r="M41" s="339"/>
-      <c r="N41" s="336"/>
-      <c r="O41" s="339"/>
-      <c r="P41" s="336"/>
-      <c r="Q41" s="339"/>
-      <c r="R41" s="324"/>
-      <c r="S41" s="339"/>
-      <c r="T41" s="336"/>
-      <c r="U41" s="339"/>
-      <c r="V41" s="336"/>
-      <c r="W41" s="266"/>
-      <c r="X41" s="292"/>
-      <c r="Y41" s="220"/>
-      <c r="Z41" s="220"/>
-      <c r="AA41" s="259">
+      <c r="H47" s="159"/>
+      <c r="I47" s="192"/>
+      <c r="J47" s="231"/>
+      <c r="K47" s="245"/>
+      <c r="L47" s="231"/>
+      <c r="M47" s="245"/>
+      <c r="N47" s="242"/>
+      <c r="O47" s="245"/>
+      <c r="P47" s="242"/>
+      <c r="Q47" s="245"/>
+      <c r="R47" s="231"/>
+      <c r="S47" s="245"/>
+      <c r="T47" s="242"/>
+      <c r="U47" s="245"/>
+      <c r="V47" s="242"/>
+      <c r="W47" s="193"/>
+      <c r="X47" s="217"/>
+      <c r="Y47" s="164"/>
+      <c r="Z47" s="164"/>
+      <c r="AA47" s="188">
         <v>0.05</v>
       </c>
-      <c r="AB41" s="256">
+      <c r="AB47" s="185">
         <v>1</v>
       </c>
-      <c r="AC41" s="257">
+      <c r="AC47" s="186">
         <v>0.5</v>
       </c>
-      <c r="AD41" s="258">
+      <c r="AD47" s="187">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE41" s="225"/>
-      <c r="AF41" s="302" t="s">
+      <c r="AE47" s="169"/>
+      <c r="AF47" s="218" t="s">
         <v>308</v>
       </c>
-      <c r="AG41" s="303"/>
-      <c r="AH41" s="303"/>
-      <c r="AI41" s="303"/>
-      <c r="AJ41" s="303"/>
-      <c r="AK41" s="303"/>
-      <c r="AL41" s="303"/>
-      <c r="AM41" s="304"/>
-    </row>
-    <row r="42" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A42" s="205"/>
-      <c r="B42" s="247"/>
-      <c r="C42" s="231"/>
-      <c r="D42" s="214" t="s">
+      <c r="AG47" s="219"/>
+      <c r="AH47" s="219"/>
+      <c r="AI47" s="219"/>
+      <c r="AJ47" s="219"/>
+      <c r="AK47" s="219"/>
+      <c r="AL47" s="219"/>
+      <c r="AM47" s="220"/>
+    </row>
+    <row r="48" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A48" s="156"/>
+      <c r="B48" s="306"/>
+      <c r="C48" s="303"/>
+      <c r="D48" s="158" t="s">
         <v>334</v>
       </c>
-      <c r="E42" s="267" t="s">
+      <c r="E48" s="194" t="s">
         <v>335</v>
       </c>
-      <c r="F42" s="215" t="s">
+      <c r="F48" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G42" s="215" t="s">
+      <c r="G48" s="159" t="s">
         <v>323</v>
       </c>
-      <c r="H42" s="215"/>
-      <c r="I42" s="265"/>
-      <c r="J42" s="324"/>
-      <c r="K42" s="339"/>
-      <c r="L42" s="336"/>
-      <c r="M42" s="339"/>
-      <c r="N42" s="336"/>
-      <c r="O42" s="339"/>
-      <c r="P42" s="336"/>
-      <c r="Q42" s="339"/>
-      <c r="R42" s="336"/>
-      <c r="S42" s="339"/>
-      <c r="T42" s="336"/>
-      <c r="U42" s="339"/>
-      <c r="V42" s="336"/>
-      <c r="W42" s="266"/>
-      <c r="X42" s="292"/>
-      <c r="Y42" s="220"/>
-      <c r="Z42" s="220"/>
-      <c r="AA42" s="259">
+      <c r="H48" s="159"/>
+      <c r="I48" s="192"/>
+      <c r="J48" s="231"/>
+      <c r="K48" s="245"/>
+      <c r="L48" s="242"/>
+      <c r="M48" s="245"/>
+      <c r="N48" s="242"/>
+      <c r="O48" s="245"/>
+      <c r="P48" s="242"/>
+      <c r="Q48" s="245"/>
+      <c r="R48" s="242"/>
+      <c r="S48" s="245"/>
+      <c r="T48" s="242"/>
+      <c r="U48" s="245"/>
+      <c r="V48" s="242"/>
+      <c r="W48" s="193"/>
+      <c r="X48" s="217"/>
+      <c r="Y48" s="164"/>
+      <c r="Z48" s="164"/>
+      <c r="AA48" s="188">
         <v>0.05</v>
       </c>
-      <c r="AB42" s="256">
+      <c r="AB48" s="185">
         <v>1</v>
       </c>
-      <c r="AC42" s="257">
+      <c r="AC48" s="186">
         <v>0.5</v>
       </c>
-      <c r="AD42" s="258">
+      <c r="AD48" s="187">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE42" s="225"/>
-      <c r="AF42" s="248" t="s">
+      <c r="AE48" s="169"/>
+      <c r="AF48" s="298" t="s">
         <v>308</v>
       </c>
-      <c r="AG42" s="249"/>
-      <c r="AH42" s="249"/>
-      <c r="AI42" s="249"/>
-      <c r="AJ42" s="249"/>
-      <c r="AK42" s="249"/>
-      <c r="AL42" s="249"/>
-      <c r="AM42" s="250"/>
-    </row>
-    <row r="43" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A43" s="205"/>
-      <c r="B43" s="247"/>
-      <c r="C43" s="231"/>
-      <c r="D43" s="214" t="s">
+      <c r="AG48" s="299"/>
+      <c r="AH48" s="299"/>
+      <c r="AI48" s="299"/>
+      <c r="AJ48" s="299"/>
+      <c r="AK48" s="299"/>
+      <c r="AL48" s="299"/>
+      <c r="AM48" s="300"/>
+    </row>
+    <row r="49" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A49" s="156"/>
+      <c r="B49" s="306"/>
+      <c r="C49" s="303"/>
+      <c r="D49" s="158" t="s">
         <v>334</v>
       </c>
-      <c r="E43" s="267" t="s">
+      <c r="E49" s="194" t="s">
         <v>335</v>
       </c>
-      <c r="F43" s="215" t="s">
+      <c r="F49" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="G43" s="215" t="s">
+      <c r="G49" s="159" t="s">
         <v>310</v>
       </c>
-      <c r="H43" s="215"/>
-      <c r="I43" s="265"/>
-      <c r="J43" s="336"/>
-      <c r="K43" s="339"/>
-      <c r="L43" s="324"/>
-      <c r="M43" s="339"/>
-      <c r="N43" s="336"/>
-      <c r="O43" s="339"/>
-      <c r="P43" s="336"/>
-      <c r="Q43" s="339"/>
-      <c r="R43" s="324"/>
-      <c r="S43" s="339"/>
-      <c r="T43" s="336"/>
-      <c r="U43" s="339"/>
-      <c r="V43" s="336"/>
-      <c r="W43" s="266"/>
-      <c r="X43" s="292"/>
-      <c r="Y43" s="220"/>
-      <c r="Z43" s="220"/>
-      <c r="AA43" s="259">
+      <c r="H49" s="159"/>
+      <c r="I49" s="192"/>
+      <c r="J49" s="242"/>
+      <c r="K49" s="245"/>
+      <c r="L49" s="231"/>
+      <c r="M49" s="245"/>
+      <c r="N49" s="242"/>
+      <c r="O49" s="245"/>
+      <c r="P49" s="242"/>
+      <c r="Q49" s="245"/>
+      <c r="R49" s="231"/>
+      <c r="S49" s="245"/>
+      <c r="T49" s="242"/>
+      <c r="U49" s="245"/>
+      <c r="V49" s="242"/>
+      <c r="W49" s="193"/>
+      <c r="X49" s="217"/>
+      <c r="Y49" s="164"/>
+      <c r="Z49" s="164"/>
+      <c r="AA49" s="188">
         <v>0.05</v>
       </c>
-      <c r="AB43" s="256">
+      <c r="AB49" s="185">
         <v>1</v>
       </c>
-      <c r="AC43" s="257">
+      <c r="AC49" s="186">
         <v>0.5</v>
       </c>
-      <c r="AD43" s="258">
+      <c r="AD49" s="187">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE43" s="225"/>
-      <c r="AF43" s="302" t="s">
+      <c r="AE49" s="169"/>
+      <c r="AF49" s="218" t="s">
         <v>308</v>
       </c>
-      <c r="AG43" s="303"/>
-      <c r="AH43" s="303"/>
-      <c r="AI43" s="303"/>
-      <c r="AJ43" s="303"/>
-      <c r="AK43" s="303"/>
-      <c r="AL43" s="303"/>
-      <c r="AM43" s="304"/>
-    </row>
-    <row r="44" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A44" s="205"/>
-      <c r="B44" s="247"/>
-      <c r="C44" s="331"/>
-      <c r="D44" s="332" t="s">
+      <c r="AG49" s="219"/>
+      <c r="AH49" s="219"/>
+      <c r="AI49" s="219"/>
+      <c r="AJ49" s="219"/>
+      <c r="AK49" s="219"/>
+      <c r="AL49" s="219"/>
+      <c r="AM49" s="220"/>
+    </row>
+    <row r="50" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A50" s="156"/>
+      <c r="B50" s="306"/>
+      <c r="C50" s="304"/>
+      <c r="D50" s="238" t="s">
         <v>334</v>
       </c>
-      <c r="E44" s="332" t="s">
+      <c r="E50" s="238" t="s">
         <v>335</v>
       </c>
-      <c r="F44" s="333" t="s">
+      <c r="F50" s="239" t="s">
         <v>322</v>
       </c>
-      <c r="G44" s="333" t="s">
+      <c r="G50" s="239" t="s">
         <v>323</v>
       </c>
-      <c r="H44" s="333"/>
-      <c r="I44" s="337"/>
-      <c r="J44" s="338"/>
-      <c r="K44" s="340"/>
-      <c r="L44" s="338"/>
-      <c r="M44" s="340"/>
-      <c r="N44" s="338"/>
-      <c r="O44" s="340"/>
-      <c r="P44" s="338"/>
-      <c r="Q44" s="340"/>
-      <c r="R44" s="338"/>
-      <c r="S44" s="340"/>
-      <c r="T44" s="338"/>
-      <c r="U44" s="344"/>
-      <c r="V44" s="345"/>
-      <c r="W44" s="334"/>
-      <c r="X44" s="335"/>
-      <c r="Y44" s="220"/>
-      <c r="Z44" s="220"/>
-      <c r="AA44" s="259">
+      <c r="H50" s="239"/>
+      <c r="I50" s="243"/>
+      <c r="J50" s="244"/>
+      <c r="K50" s="246"/>
+      <c r="L50" s="244"/>
+      <c r="M50" s="246"/>
+      <c r="N50" s="244"/>
+      <c r="O50" s="246"/>
+      <c r="P50" s="244"/>
+      <c r="Q50" s="246"/>
+      <c r="R50" s="244"/>
+      <c r="S50" s="246"/>
+      <c r="T50" s="244"/>
+      <c r="U50" s="250"/>
+      <c r="V50" s="251"/>
+      <c r="W50" s="240"/>
+      <c r="X50" s="241"/>
+      <c r="Y50" s="164"/>
+      <c r="Z50" s="164"/>
+      <c r="AA50" s="188">
         <v>0.05</v>
       </c>
-      <c r="AB44" s="256">
+      <c r="AB50" s="185">
         <v>1</v>
       </c>
-      <c r="AC44" s="257">
+      <c r="AC50" s="186">
         <v>0.5</v>
       </c>
-      <c r="AD44" s="258">
+      <c r="AD50" s="187">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE44" s="225"/>
-      <c r="AF44" s="302" t="s">
+      <c r="AE50" s="169"/>
+      <c r="AF50" s="218" t="s">
         <v>308</v>
       </c>
-      <c r="AG44" s="303"/>
-      <c r="AH44" s="303"/>
-      <c r="AI44" s="303"/>
-      <c r="AJ44" s="303"/>
-      <c r="AK44" s="303"/>
-      <c r="AL44" s="303"/>
-      <c r="AM44" s="304"/>
-    </row>
-    <row r="45" spans="1:39" ht="30.75" customHeight="1">
-      <c r="A45" s="205"/>
-      <c r="B45" s="379">
+      <c r="AG50" s="219"/>
+      <c r="AH50" s="219"/>
+      <c r="AI50" s="219"/>
+      <c r="AJ50" s="219"/>
+      <c r="AK50" s="219"/>
+      <c r="AL50" s="219"/>
+      <c r="AM50" s="220"/>
+    </row>
+    <row r="51" spans="1:39" ht="30.75" customHeight="1">
+      <c r="A51" s="156"/>
+      <c r="B51" s="309">
         <v>5</v>
       </c>
-      <c r="C45" s="347"/>
-      <c r="D45" s="348" t="s">
+      <c r="C51" s="253"/>
+      <c r="D51" s="254" t="s">
         <v>343</v>
       </c>
-      <c r="E45" s="348" t="s">
+      <c r="E51" s="254" t="s">
         <v>344</v>
       </c>
-      <c r="F45" s="349"/>
-      <c r="G45" s="349" t="s">
+      <c r="F51" s="255"/>
+      <c r="G51" s="255" t="s">
         <v>345</v>
       </c>
-      <c r="H45" s="349"/>
-      <c r="I45" s="350"/>
-      <c r="J45" s="351"/>
-      <c r="K45" s="352"/>
-      <c r="L45" s="351"/>
-      <c r="M45" s="352"/>
-      <c r="N45" s="351"/>
-      <c r="O45" s="352"/>
-      <c r="P45" s="351"/>
-      <c r="Q45" s="352"/>
-      <c r="R45" s="351"/>
-      <c r="S45" s="352"/>
-      <c r="T45" s="351"/>
-      <c r="U45" s="353"/>
-      <c r="V45" s="354"/>
-      <c r="W45" s="355"/>
-      <c r="X45" s="356"/>
-      <c r="Y45" s="220"/>
-      <c r="Z45" s="220"/>
-      <c r="AA45" s="259"/>
-      <c r="AB45" s="256"/>
-      <c r="AC45" s="257"/>
-      <c r="AD45" s="258"/>
-      <c r="AE45" s="225"/>
-      <c r="AF45" s="302"/>
-      <c r="AG45" s="303"/>
-      <c r="AH45" s="303"/>
-      <c r="AI45" s="303"/>
-      <c r="AJ45" s="303"/>
-      <c r="AK45" s="303"/>
-      <c r="AL45" s="303"/>
-      <c r="AM45" s="304"/>
-    </row>
-    <row r="46" spans="1:39" ht="49.5" customHeight="1">
-      <c r="A46" s="205"/>
-      <c r="B46" s="247"/>
-      <c r="C46" s="357" t="s">
+      <c r="H51" s="255"/>
+      <c r="I51" s="256"/>
+      <c r="J51" s="257"/>
+      <c r="K51" s="258"/>
+      <c r="L51" s="257"/>
+      <c r="M51" s="258"/>
+      <c r="N51" s="257"/>
+      <c r="O51" s="258"/>
+      <c r="P51" s="257"/>
+      <c r="Q51" s="258"/>
+      <c r="R51" s="257"/>
+      <c r="S51" s="258"/>
+      <c r="T51" s="257"/>
+      <c r="U51" s="259"/>
+      <c r="V51" s="260"/>
+      <c r="W51" s="261"/>
+      <c r="X51" s="262"/>
+      <c r="Y51" s="164"/>
+      <c r="Z51" s="164"/>
+      <c r="AA51" s="188"/>
+      <c r="AB51" s="185"/>
+      <c r="AC51" s="186"/>
+      <c r="AD51" s="187"/>
+      <c r="AE51" s="169"/>
+      <c r="AF51" s="218"/>
+      <c r="AG51" s="219"/>
+      <c r="AH51" s="219"/>
+      <c r="AI51" s="219"/>
+      <c r="AJ51" s="219"/>
+      <c r="AK51" s="219"/>
+      <c r="AL51" s="219"/>
+      <c r="AM51" s="220"/>
+    </row>
+    <row r="52" spans="1:39" ht="49.5" customHeight="1">
+      <c r="A52" s="156"/>
+      <c r="B52" s="306"/>
+      <c r="C52" s="307" t="s">
         <v>319</v>
       </c>
-      <c r="D46" s="358" t="s">
+      <c r="D52" s="263" t="s">
         <v>337</v>
       </c>
-      <c r="E46" s="358" t="s">
+      <c r="E52" s="263" t="s">
         <v>338</v>
       </c>
-      <c r="F46" s="358" t="s">
+      <c r="F52" s="263" t="s">
         <v>336</v>
       </c>
-      <c r="G46" s="359" t="s">
+      <c r="G52" s="264" t="s">
         <v>310</v>
       </c>
-      <c r="H46" s="359"/>
-      <c r="I46" s="360"/>
-      <c r="J46" s="361"/>
-      <c r="K46" s="362"/>
-      <c r="L46" s="361"/>
-      <c r="M46" s="362"/>
-      <c r="N46" s="361"/>
-      <c r="O46" s="362"/>
-      <c r="P46" s="361"/>
-      <c r="Q46" s="362"/>
-      <c r="R46" s="361"/>
-      <c r="S46" s="362"/>
-      <c r="T46" s="361"/>
-      <c r="U46" s="362"/>
-      <c r="V46" s="361"/>
-      <c r="W46" s="363"/>
-      <c r="X46" s="364"/>
-      <c r="Y46" s="220"/>
-      <c r="Z46" s="220"/>
-      <c r="AA46" s="259">
+      <c r="H52" s="264"/>
+      <c r="I52" s="265"/>
+      <c r="J52" s="266"/>
+      <c r="K52" s="267"/>
+      <c r="L52" s="266"/>
+      <c r="M52" s="267"/>
+      <c r="N52" s="266"/>
+      <c r="O52" s="267"/>
+      <c r="P52" s="266"/>
+      <c r="Q52" s="267"/>
+      <c r="R52" s="266"/>
+      <c r="S52" s="267"/>
+      <c r="T52" s="266"/>
+      <c r="U52" s="267"/>
+      <c r="V52" s="266"/>
+      <c r="W52" s="268"/>
+      <c r="X52" s="269"/>
+      <c r="Y52" s="164"/>
+      <c r="Z52" s="164"/>
+      <c r="AA52" s="188">
         <v>0.05</v>
       </c>
-      <c r="AB46" s="256">
+      <c r="AB52" s="185">
         <v>1</v>
       </c>
-      <c r="AC46" s="257">
+      <c r="AC52" s="186">
         <v>0.5</v>
       </c>
-      <c r="AD46" s="258">
+      <c r="AD52" s="187">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE46" s="225"/>
-      <c r="AF46" s="302" t="s">
+      <c r="AE52" s="169"/>
+      <c r="AF52" s="218" t="s">
         <v>308</v>
       </c>
-      <c r="AG46" s="303"/>
-      <c r="AH46" s="303"/>
-      <c r="AI46" s="303"/>
-      <c r="AJ46" s="303"/>
-      <c r="AK46" s="303"/>
-      <c r="AL46" s="303"/>
-      <c r="AM46" s="304"/>
-    </row>
-    <row r="47" spans="1:39" ht="50.25" customHeight="1">
-      <c r="A47" s="205"/>
-      <c r="B47" s="247"/>
-      <c r="C47" s="357"/>
-      <c r="D47" s="358" t="s">
+      <c r="AG52" s="219"/>
+      <c r="AH52" s="219"/>
+      <c r="AI52" s="219"/>
+      <c r="AJ52" s="219"/>
+      <c r="AK52" s="219"/>
+      <c r="AL52" s="219"/>
+      <c r="AM52" s="220"/>
+    </row>
+    <row r="53" spans="1:39" ht="50.25" customHeight="1">
+      <c r="A53" s="156"/>
+      <c r="B53" s="306"/>
+      <c r="C53" s="307"/>
+      <c r="D53" s="263" t="s">
         <v>340</v>
       </c>
-      <c r="E47" s="358" t="s">
+      <c r="E53" s="263" t="s">
         <v>341</v>
       </c>
-      <c r="F47" s="365" t="s">
+      <c r="F53" s="270" t="s">
         <v>322</v>
       </c>
-      <c r="G47" s="359" t="s">
+      <c r="G53" s="264" t="s">
         <v>323</v>
       </c>
-      <c r="H47" s="359"/>
-      <c r="I47" s="366"/>
-      <c r="J47" s="361"/>
-      <c r="K47" s="362"/>
-      <c r="L47" s="361"/>
-      <c r="M47" s="362"/>
-      <c r="N47" s="361"/>
-      <c r="O47" s="362"/>
-      <c r="P47" s="361"/>
-      <c r="Q47" s="362"/>
-      <c r="R47" s="361"/>
-      <c r="S47" s="362"/>
-      <c r="T47" s="361"/>
-      <c r="U47" s="367"/>
-      <c r="V47" s="368"/>
-      <c r="W47" s="363"/>
-      <c r="X47" s="364"/>
-      <c r="Y47" s="220"/>
-      <c r="Z47" s="220"/>
-      <c r="AA47" s="259">
+      <c r="H53" s="264"/>
+      <c r="I53" s="271"/>
+      <c r="J53" s="266"/>
+      <c r="K53" s="267"/>
+      <c r="L53" s="266"/>
+      <c r="M53" s="267"/>
+      <c r="N53" s="266"/>
+      <c r="O53" s="267"/>
+      <c r="P53" s="266"/>
+      <c r="Q53" s="267"/>
+      <c r="R53" s="266"/>
+      <c r="S53" s="267"/>
+      <c r="T53" s="266"/>
+      <c r="U53" s="272"/>
+      <c r="V53" s="273"/>
+      <c r="W53" s="268"/>
+      <c r="X53" s="269"/>
+      <c r="Y53" s="164"/>
+      <c r="Z53" s="164"/>
+      <c r="AA53" s="188">
         <v>0.05</v>
       </c>
-      <c r="AB47" s="256">
+      <c r="AB53" s="185">
         <v>1</v>
       </c>
-      <c r="AC47" s="257">
+      <c r="AC53" s="186">
         <v>0.5</v>
       </c>
-      <c r="AD47" s="258">
+      <c r="AD53" s="187">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE47" s="225"/>
-      <c r="AF47" s="302" t="s">
+      <c r="AE53" s="169"/>
+      <c r="AF53" s="218" t="s">
         <v>308</v>
       </c>
-      <c r="AG47" s="303"/>
-      <c r="AH47" s="303"/>
-      <c r="AI47" s="303"/>
-      <c r="AJ47" s="303"/>
-      <c r="AK47" s="303"/>
-      <c r="AL47" s="303"/>
-      <c r="AM47" s="304"/>
-    </row>
-    <row r="48" spans="1:39" ht="35.25" customHeight="1">
-      <c r="A48" s="205"/>
-      <c r="B48" s="247"/>
-      <c r="C48" s="357"/>
-      <c r="D48" s="358" t="s">
+      <c r="AG53" s="219"/>
+      <c r="AH53" s="219"/>
+      <c r="AI53" s="219"/>
+      <c r="AJ53" s="219"/>
+      <c r="AK53" s="219"/>
+      <c r="AL53" s="219"/>
+      <c r="AM53" s="220"/>
+    </row>
+    <row r="54" spans="1:39" ht="35.25" customHeight="1">
+      <c r="A54" s="156"/>
+      <c r="B54" s="306"/>
+      <c r="C54" s="307"/>
+      <c r="D54" s="263" t="s">
         <v>339</v>
       </c>
-      <c r="E48" s="358" t="s">
+      <c r="E54" s="263" t="s">
         <v>342</v>
       </c>
-      <c r="F48" s="365" t="s">
+      <c r="F54" s="270" t="s">
         <v>322</v>
       </c>
-      <c r="G48" s="359" t="s">
+      <c r="G54" s="264" t="s">
         <v>310</v>
       </c>
-      <c r="H48" s="359"/>
-      <c r="I48" s="366"/>
-      <c r="J48" s="361"/>
-      <c r="K48" s="362"/>
-      <c r="L48" s="361"/>
-      <c r="M48" s="362"/>
-      <c r="N48" s="361"/>
-      <c r="O48" s="362"/>
-      <c r="P48" s="361"/>
-      <c r="Q48" s="362"/>
-      <c r="R48" s="361"/>
-      <c r="S48" s="362"/>
-      <c r="T48" s="361"/>
-      <c r="U48" s="367"/>
-      <c r="V48" s="368"/>
-      <c r="W48" s="363"/>
-      <c r="X48" s="364"/>
-      <c r="Y48" s="220"/>
-      <c r="Z48" s="220"/>
-      <c r="AA48" s="259">
+      <c r="H54" s="264"/>
+      <c r="I54" s="271"/>
+      <c r="J54" s="266"/>
+      <c r="K54" s="267"/>
+      <c r="L54" s="266"/>
+      <c r="M54" s="267"/>
+      <c r="N54" s="266"/>
+      <c r="O54" s="267"/>
+      <c r="P54" s="266"/>
+      <c r="Q54" s="267"/>
+      <c r="R54" s="266"/>
+      <c r="S54" s="267"/>
+      <c r="T54" s="266"/>
+      <c r="U54" s="272"/>
+      <c r="V54" s="273"/>
+      <c r="W54" s="268"/>
+      <c r="X54" s="269"/>
+      <c r="Y54" s="164"/>
+      <c r="Z54" s="164"/>
+      <c r="AA54" s="188">
         <v>0.05</v>
       </c>
-      <c r="AB48" s="256">
+      <c r="AB54" s="185">
         <v>1</v>
       </c>
-      <c r="AC48" s="257">
+      <c r="AC54" s="186">
         <v>0.5</v>
       </c>
-      <c r="AD48" s="258">
+      <c r="AD54" s="187">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE48" s="225"/>
-      <c r="AF48" s="302" t="s">
+      <c r="AE54" s="169"/>
+      <c r="AF54" s="218" t="s">
         <v>308</v>
       </c>
-      <c r="AG48" s="303"/>
-      <c r="AH48" s="303"/>
-      <c r="AI48" s="303"/>
-      <c r="AJ48" s="303"/>
-      <c r="AK48" s="303"/>
-      <c r="AL48" s="303"/>
-      <c r="AM48" s="304"/>
-    </row>
-    <row r="49" spans="1:39" ht="33">
-      <c r="A49" s="205"/>
-      <c r="B49" s="247"/>
-      <c r="C49" s="357"/>
-      <c r="D49" s="358" t="s">
+      <c r="AG54" s="219"/>
+      <c r="AH54" s="219"/>
+      <c r="AI54" s="219"/>
+      <c r="AJ54" s="219"/>
+      <c r="AK54" s="219"/>
+      <c r="AL54" s="219"/>
+      <c r="AM54" s="220"/>
+    </row>
+    <row r="55" spans="1:39" ht="33">
+      <c r="A55" s="156"/>
+      <c r="B55" s="306"/>
+      <c r="C55" s="307"/>
+      <c r="D55" s="263" t="s">
         <v>339</v>
       </c>
-      <c r="E49" s="358" t="s">
+      <c r="E55" s="263" t="s">
         <v>349</v>
       </c>
-      <c r="F49" s="365" t="s">
+      <c r="F55" s="270" t="s">
         <v>322</v>
       </c>
-      <c r="G49" s="359" t="s">
+      <c r="G55" s="264" t="s">
         <v>310</v>
       </c>
-      <c r="H49" s="359"/>
-      <c r="I49" s="366"/>
-      <c r="J49" s="361"/>
-      <c r="K49" s="362"/>
-      <c r="L49" s="361"/>
-      <c r="M49" s="362"/>
-      <c r="N49" s="361"/>
-      <c r="O49" s="362"/>
-      <c r="P49" s="361"/>
-      <c r="Q49" s="362"/>
-      <c r="R49" s="361"/>
-      <c r="S49" s="362"/>
-      <c r="T49" s="361"/>
-      <c r="U49" s="367"/>
-      <c r="V49" s="368"/>
-      <c r="W49" s="363"/>
-      <c r="X49" s="364"/>
-      <c r="Y49" s="220"/>
-      <c r="Z49" s="220"/>
-      <c r="AA49" s="259">
+      <c r="H55" s="264"/>
+      <c r="I55" s="271"/>
+      <c r="J55" s="266"/>
+      <c r="K55" s="267"/>
+      <c r="L55" s="266"/>
+      <c r="M55" s="267"/>
+      <c r="N55" s="266"/>
+      <c r="O55" s="267"/>
+      <c r="P55" s="266"/>
+      <c r="Q55" s="267"/>
+      <c r="R55" s="266"/>
+      <c r="S55" s="267"/>
+      <c r="T55" s="266"/>
+      <c r="U55" s="272"/>
+      <c r="V55" s="273"/>
+      <c r="W55" s="268"/>
+      <c r="X55" s="269"/>
+      <c r="Y55" s="164"/>
+      <c r="Z55" s="164"/>
+      <c r="AA55" s="188">
         <v>0.05</v>
       </c>
-      <c r="AB49" s="256">
+      <c r="AB55" s="185">
         <v>1</v>
       </c>
-      <c r="AC49" s="257">
+      <c r="AC55" s="186">
         <v>0.5</v>
       </c>
-      <c r="AD49" s="258">
+      <c r="AD55" s="187">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE49" s="225"/>
-      <c r="AF49" s="302"/>
-      <c r="AG49" s="303"/>
-      <c r="AH49" s="303"/>
-      <c r="AI49" s="303"/>
-      <c r="AJ49" s="303"/>
-      <c r="AK49" s="303"/>
-      <c r="AL49" s="303"/>
-      <c r="AM49" s="304"/>
-    </row>
-    <row r="50" spans="1:39" ht="33">
-      <c r="A50" s="205"/>
-      <c r="B50" s="247"/>
-      <c r="C50" s="357"/>
-      <c r="D50" s="358" t="s">
+      <c r="AE55" s="169"/>
+      <c r="AF55" s="218"/>
+      <c r="AG55" s="219"/>
+      <c r="AH55" s="219"/>
+      <c r="AI55" s="219"/>
+      <c r="AJ55" s="219"/>
+      <c r="AK55" s="219"/>
+      <c r="AL55" s="219"/>
+      <c r="AM55" s="220"/>
+    </row>
+    <row r="56" spans="1:39" ht="33">
+      <c r="A56" s="156"/>
+      <c r="B56" s="306"/>
+      <c r="C56" s="307"/>
+      <c r="D56" s="263" t="s">
         <v>352</v>
       </c>
-      <c r="E50" s="358" t="s">
+      <c r="E56" s="263" t="s">
         <v>353</v>
       </c>
-      <c r="F50" s="365" t="s">
+      <c r="F56" s="270" t="s">
         <v>322</v>
       </c>
-      <c r="G50" s="359" t="s">
+      <c r="G56" s="264" t="s">
         <v>310</v>
       </c>
-      <c r="H50" s="359"/>
-      <c r="I50" s="366"/>
-      <c r="J50" s="361"/>
-      <c r="K50" s="362"/>
-      <c r="L50" s="361"/>
-      <c r="M50" s="362"/>
-      <c r="N50" s="361"/>
-      <c r="O50" s="362"/>
-      <c r="P50" s="361"/>
-      <c r="Q50" s="362"/>
-      <c r="R50" s="361"/>
-      <c r="S50" s="362"/>
-      <c r="T50" s="361"/>
-      <c r="U50" s="367"/>
-      <c r="V50" s="368"/>
-      <c r="W50" s="363"/>
-      <c r="X50" s="364"/>
-      <c r="Y50" s="220"/>
-      <c r="Z50" s="220"/>
-      <c r="AA50" s="259">
+      <c r="H56" s="264"/>
+      <c r="I56" s="271"/>
+      <c r="J56" s="266"/>
+      <c r="K56" s="267"/>
+      <c r="L56" s="266"/>
+      <c r="M56" s="267"/>
+      <c r="N56" s="266"/>
+      <c r="O56" s="267"/>
+      <c r="P56" s="266"/>
+      <c r="Q56" s="267"/>
+      <c r="R56" s="266"/>
+      <c r="S56" s="267"/>
+      <c r="T56" s="266"/>
+      <c r="U56" s="272"/>
+      <c r="V56" s="273"/>
+      <c r="W56" s="268"/>
+      <c r="X56" s="269"/>
+      <c r="Y56" s="164"/>
+      <c r="Z56" s="164"/>
+      <c r="AA56" s="188">
         <v>0.05</v>
       </c>
-      <c r="AB50" s="256">
+      <c r="AB56" s="185">
         <v>1</v>
       </c>
-      <c r="AC50" s="257">
+      <c r="AC56" s="186">
         <v>0.5</v>
       </c>
-      <c r="AD50" s="258">
+      <c r="AD56" s="187">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE50" s="225"/>
-      <c r="AF50" s="248"/>
-      <c r="AG50" s="249"/>
-      <c r="AH50" s="249"/>
-      <c r="AI50" s="249"/>
-      <c r="AJ50" s="249"/>
-      <c r="AK50" s="249"/>
-      <c r="AL50" s="249"/>
-      <c r="AM50" s="250"/>
-    </row>
-    <row r="51" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A51" s="205"/>
-      <c r="B51" s="247"/>
-      <c r="C51" s="357"/>
-      <c r="D51" s="358"/>
-      <c r="E51" s="358"/>
-      <c r="F51" s="365" t="s">
+      <c r="AE56" s="169"/>
+      <c r="AF56" s="298"/>
+      <c r="AG56" s="299"/>
+      <c r="AH56" s="299"/>
+      <c r="AI56" s="299"/>
+      <c r="AJ56" s="299"/>
+      <c r="AK56" s="299"/>
+      <c r="AL56" s="299"/>
+      <c r="AM56" s="300"/>
+    </row>
+    <row r="57" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A57" s="156"/>
+      <c r="B57" s="306"/>
+      <c r="C57" s="307"/>
+      <c r="D57" s="263"/>
+      <c r="E57" s="263"/>
+      <c r="F57" s="270" t="s">
         <v>322</v>
       </c>
-      <c r="G51" s="359" t="s">
+      <c r="G57" s="264" t="s">
         <v>323</v>
       </c>
-      <c r="H51" s="369"/>
-      <c r="I51" s="366"/>
-      <c r="J51" s="361"/>
-      <c r="K51" s="362"/>
-      <c r="L51" s="361"/>
-      <c r="M51" s="362"/>
-      <c r="N51" s="361"/>
-      <c r="O51" s="362"/>
-      <c r="P51" s="361"/>
-      <c r="Q51" s="362"/>
-      <c r="R51" s="361"/>
-      <c r="S51" s="362"/>
-      <c r="T51" s="361"/>
-      <c r="U51" s="367"/>
-      <c r="V51" s="368"/>
-      <c r="W51" s="363"/>
-      <c r="X51" s="364"/>
-      <c r="Y51" s="220"/>
-      <c r="Z51" s="220"/>
-      <c r="AA51" s="259">
+      <c r="H57" s="274"/>
+      <c r="I57" s="271"/>
+      <c r="J57" s="266"/>
+      <c r="K57" s="267"/>
+      <c r="L57" s="266"/>
+      <c r="M57" s="267"/>
+      <c r="N57" s="266"/>
+      <c r="O57" s="267"/>
+      <c r="P57" s="266"/>
+      <c r="Q57" s="267"/>
+      <c r="R57" s="266"/>
+      <c r="S57" s="267"/>
+      <c r="T57" s="266"/>
+      <c r="U57" s="272"/>
+      <c r="V57" s="273"/>
+      <c r="W57" s="268"/>
+      <c r="X57" s="269"/>
+      <c r="Y57" s="164"/>
+      <c r="Z57" s="164"/>
+      <c r="AA57" s="188">
         <v>0.05</v>
       </c>
-      <c r="AB51" s="256">
+      <c r="AB57" s="185">
         <v>1</v>
       </c>
-      <c r="AC51" s="264">
+      <c r="AC57" s="191">
         <v>0.5</v>
       </c>
-      <c r="AD51" s="258">
+      <c r="AD57" s="187">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE51" s="225"/>
-      <c r="AF51" s="248"/>
-      <c r="AG51" s="249"/>
-      <c r="AH51" s="249"/>
-      <c r="AI51" s="249"/>
-      <c r="AJ51" s="249"/>
-      <c r="AK51" s="249"/>
-      <c r="AL51" s="249"/>
-      <c r="AM51" s="250"/>
-    </row>
-    <row r="52" spans="1:39" ht="50.25" thickBot="1">
-      <c r="A52" s="205"/>
-      <c r="B52" s="271"/>
-      <c r="C52" s="370"/>
-      <c r="D52" s="371" t="s">
+      <c r="AE57" s="169"/>
+      <c r="AF57" s="298"/>
+      <c r="AG57" s="299"/>
+      <c r="AH57" s="299"/>
+      <c r="AI57" s="299"/>
+      <c r="AJ57" s="299"/>
+      <c r="AK57" s="299"/>
+      <c r="AL57" s="299"/>
+      <c r="AM57" s="300"/>
+    </row>
+    <row r="58" spans="1:39" ht="50.25" thickBot="1">
+      <c r="A58" s="156"/>
+      <c r="B58" s="310"/>
+      <c r="C58" s="308"/>
+      <c r="D58" s="275" t="s">
         <v>346</v>
       </c>
-      <c r="E52" s="371" t="s">
+      <c r="E58" s="275" t="s">
         <v>347</v>
       </c>
-      <c r="F52" s="371" t="s">
+      <c r="F58" s="275" t="s">
         <v>322</v>
       </c>
-      <c r="G52" s="371" t="s">
+      <c r="G58" s="275" t="s">
         <v>348</v>
       </c>
-      <c r="H52" s="371"/>
-      <c r="I52" s="372"/>
-      <c r="J52" s="373"/>
-      <c r="K52" s="374"/>
-      <c r="L52" s="373"/>
-      <c r="M52" s="374"/>
-      <c r="N52" s="373"/>
-      <c r="O52" s="374"/>
-      <c r="P52" s="373"/>
-      <c r="Q52" s="374"/>
-      <c r="R52" s="373"/>
-      <c r="S52" s="374"/>
-      <c r="T52" s="373"/>
-      <c r="U52" s="375"/>
-      <c r="V52" s="376"/>
-      <c r="W52" s="377"/>
-      <c r="X52" s="378"/>
-      <c r="Y52" s="220"/>
-      <c r="Z52" s="220"/>
-      <c r="AA52" s="259">
+      <c r="H58" s="275"/>
+      <c r="I58" s="276"/>
+      <c r="J58" s="277"/>
+      <c r="K58" s="278"/>
+      <c r="L58" s="277"/>
+      <c r="M58" s="278"/>
+      <c r="N58" s="277"/>
+      <c r="O58" s="278"/>
+      <c r="P58" s="277"/>
+      <c r="Q58" s="278"/>
+      <c r="R58" s="277"/>
+      <c r="S58" s="278"/>
+      <c r="T58" s="277"/>
+      <c r="U58" s="279"/>
+      <c r="V58" s="280"/>
+      <c r="W58" s="281"/>
+      <c r="X58" s="282"/>
+      <c r="Y58" s="164"/>
+      <c r="Z58" s="164"/>
+      <c r="AA58" s="188">
         <v>0.2</v>
       </c>
-      <c r="AB52" s="256">
+      <c r="AB58" s="185">
         <v>1</v>
       </c>
-      <c r="AC52" s="264">
+      <c r="AC58" s="191">
         <v>0.3</v>
       </c>
-      <c r="AD52" s="258">
+      <c r="AD58" s="187">
         <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
-      <c r="AE52" s="225">
+      <c r="AE58" s="169">
         <v>0</v>
       </c>
-      <c r="AF52" s="248"/>
-      <c r="AG52" s="249"/>
-      <c r="AH52" s="249"/>
-      <c r="AI52" s="249"/>
-      <c r="AJ52" s="249"/>
-      <c r="AK52" s="249"/>
-      <c r="AL52" s="249"/>
-      <c r="AM52" s="250"/>
-    </row>
-    <row r="53" spans="1:39" ht="27.75" thickBot="1">
-      <c r="AD53" s="272">
+      <c r="AF58" s="298"/>
+      <c r="AG58" s="299"/>
+      <c r="AH58" s="299"/>
+      <c r="AI58" s="299"/>
+      <c r="AJ58" s="299"/>
+      <c r="AK58" s="299"/>
+      <c r="AL58" s="299"/>
+      <c r="AM58" s="300"/>
+    </row>
+    <row r="59" spans="1:39" ht="27.75" thickBot="1">
+      <c r="AD59" s="198">
         <v>1</v>
       </c>
-      <c r="AE53" s="273">
-        <f>SUM(AE7:AE52)/(COUNT(AE7:AE52))</f>
+      <c r="AE59" s="199">
+        <f>SUM(AE7:AE58)/(COUNT(AE7:AE58))</f>
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
-      <c r="B54" s="274" t="s">
+    <row r="60" spans="1:39">
+      <c r="B60" s="301" t="s">
         <v>312</v>
       </c>
-      <c r="C54" s="274"/>
-      <c r="D54" s="275" t="s">
+      <c r="C60" s="301"/>
+      <c r="D60" s="200" t="s">
         <v>313</v>
       </c>
-      <c r="AD54" s="181" t="s">
+      <c r="AD60" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="AF54" s="181" t="s">
+      <c r="AF60" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="AG54" s="181" t="s">
+      <c r="AG60" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="AH54" s="181" t="s">
+      <c r="AH60" s="147" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
-      <c r="B55" s="276"/>
-      <c r="C55" s="277"/>
-      <c r="D55" s="278" t="s">
+    <row r="61" spans="1:39">
+      <c r="B61" s="201"/>
+      <c r="C61" s="202"/>
+      <c r="D61" s="203" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
-      <c r="B56" s="276"/>
-      <c r="C56" s="279"/>
-      <c r="D56" s="275"/>
-    </row>
-    <row r="57" spans="1:39">
-      <c r="B57" s="276"/>
-      <c r="C57" s="277"/>
-      <c r="D57" s="277" t="s">
+    <row r="62" spans="1:39">
+      <c r="B62" s="201"/>
+      <c r="C62" s="204"/>
+      <c r="D62" s="200"/>
+    </row>
+    <row r="63" spans="1:39">
+      <c r="B63" s="201"/>
+      <c r="C63" s="202"/>
+      <c r="D63" s="202" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
-      <c r="B58" s="276"/>
-      <c r="C58" s="279"/>
-      <c r="D58" s="275"/>
-    </row>
-    <row r="59" spans="1:39">
-      <c r="B59" s="276"/>
-      <c r="C59" s="280"/>
-      <c r="D59" s="281" t="s">
+    <row r="64" spans="1:39">
+      <c r="B64" s="201"/>
+      <c r="C64" s="204"/>
+      <c r="D64" s="200"/>
+    </row>
+    <row r="65" spans="2:30">
+      <c r="B65" s="201"/>
+      <c r="C65" s="205"/>
+      <c r="D65" s="206" t="s">
         <v>316</v>
       </c>
-      <c r="E59" s="282"/>
-    </row>
-    <row r="60" spans="1:39">
-      <c r="B60" s="276"/>
-      <c r="C60" s="279"/>
-      <c r="D60" s="275"/>
-    </row>
-    <row r="61" spans="1:39">
-      <c r="B61" s="276"/>
-      <c r="C61" s="279"/>
-      <c r="D61" s="281" t="s">
+      <c r="E65" s="207"/>
+    </row>
+    <row r="66" spans="2:30">
+      <c r="B66" s="201"/>
+      <c r="C66" s="204"/>
+      <c r="D66" s="200"/>
+    </row>
+    <row r="67" spans="2:30">
+      <c r="B67" s="201"/>
+      <c r="C67" s="204"/>
+      <c r="D67" s="206" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="15">
-      <c r="B62" s="181"/>
-      <c r="C62" s="181"/>
-    </row>
-    <row r="65" spans="30:30" ht="15.75" customHeight="1" thickBot="1">
-      <c r="AD65" s="283">
-        <f>SUM(AD7:AD52)</f>
+    <row r="68" spans="2:30" ht="15">
+      <c r="B68" s="147"/>
+      <c r="C68" s="147"/>
+    </row>
+    <row r="71" spans="2:30" ht="15.75" customHeight="1" thickBot="1">
+      <c r="AD71" s="208">
+        <f>SUM(AD7:AD58)</f>
         <v>0.77000000000000046</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="55">
+    <mergeCell ref="AF56:AM56"/>
+    <mergeCell ref="AF26:AM26"/>
+    <mergeCell ref="AF29:AM29"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AM6"/>
+    <mergeCell ref="AF25:AM25"/>
     <mergeCell ref="W5:X5"/>
-    <mergeCell ref="C15:C30"/>
-    <mergeCell ref="B15:B30"/>
+    <mergeCell ref="C21:C36"/>
+    <mergeCell ref="B21:B36"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="AF50:AM50"/>
-    <mergeCell ref="AF51:AM51"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="AF39:AM39"/>
+    <mergeCell ref="AF57:AM57"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="U5:V5"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="C33:C44"/>
-    <mergeCell ref="B33:B44"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="AF52:AM52"/>
-    <mergeCell ref="AF42:AM42"/>
-    <mergeCell ref="AF35:AM35"/>
     <mergeCell ref="AF36:AM36"/>
-    <mergeCell ref="AF34:AM34"/>
-    <mergeCell ref="AF37:AM37"/>
-    <mergeCell ref="AF38:AM38"/>
-    <mergeCell ref="AF39:AM39"/>
-    <mergeCell ref="AF30:AM30"/>
-    <mergeCell ref="AF33:AM33"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AF8:AM8"/>
-    <mergeCell ref="AF14:AM14"/>
-    <mergeCell ref="AF15:AM15"/>
-    <mergeCell ref="AF16:AM16"/>
-    <mergeCell ref="AF17:AM17"/>
-    <mergeCell ref="AF18:AM18"/>
-    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AF23:AM23"/>
+    <mergeCell ref="AF24:AM24"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="C7:C14"/>
+    <mergeCell ref="AF14:AM14"/>
+    <mergeCell ref="AF21:AM21"/>
+    <mergeCell ref="AF22:AM22"/>
     <mergeCell ref="AF7:AM7"/>
-    <mergeCell ref="AF19:AM19"/>
-    <mergeCell ref="AF20:AM20"/>
-    <mergeCell ref="AF23:AM23"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AM6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="C39:C50"/>
+    <mergeCell ref="B39:B50"/>
+    <mergeCell ref="C52:C58"/>
+    <mergeCell ref="AF58:AM58"/>
+    <mergeCell ref="AF48:AM48"/>
+    <mergeCell ref="AF41:AM41"/>
+    <mergeCell ref="AF42:AM42"/>
+    <mergeCell ref="AF40:AM40"/>
+    <mergeCell ref="AF43:AM43"/>
+    <mergeCell ref="AF44:AM44"/>
+    <mergeCell ref="AF45:AM45"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AF8:AM8"/>
   </mergeCells>
-  <conditionalFormatting sqref="AB7:AB33">
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="lessThan">
+  <conditionalFormatting sqref="AB7:AB39">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H8 H14:H30 H32:H45 H47:H49 H51:H52">
-    <cfRule type="expression" dxfId="14" priority="15">
+  <conditionalFormatting sqref="H7:H8 H14 H38:H51 H53:H55 H57:H58 H21:H36">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>H7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H12">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>H9="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>H13="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB35">
+  <conditionalFormatting sqref="AB41">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB40">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB34">
+  <conditionalFormatting sqref="AB42:AB56">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB36:AB50">
+  <conditionalFormatting sqref="AB58">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB52">
+  <conditionalFormatting sqref="AB57">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB51">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
-      <formula>1</formula>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>H37="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H52">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>H31="Done"</formula>
+      <formula>H52="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
+  <conditionalFormatting sqref="H56">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>H46="Done"</formula>
+      <formula>H56="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
+  <conditionalFormatting sqref="D58">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>H50="Done"</formula>
+      <formula>D58="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="E58">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>D52="Done"</formula>
+      <formula>E58="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="F58">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>E52="Done"</formula>
+      <formula>F58="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
+  <conditionalFormatting sqref="G58">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>F52="Done"</formula>
+      <formula>G58="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
+  <conditionalFormatting sqref="H15:H20">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>G52="Done"</formula>
+      <formula>H15="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H58">
       <formula1>"Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11244,10 +11970,10 @@
   <dimension ref="B1:N166"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
+      <selection pane="bottomRight" activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11255,7 +11981,7 @@
     <col min="2" max="2" width="3.5703125" style="44" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.28515625" style="44" customWidth="1"/>
-    <col min="6" max="7" width="7.85546875" style="131" customWidth="1"/>
+    <col min="6" max="7" width="7.85546875" style="98" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="44" customWidth="1"/>
     <col min="9" max="10" width="7.85546875" style="44" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" style="44" bestFit="1" customWidth="1"/>
@@ -11268,47 +11994,47 @@
       <c r="G1" s="75"/>
     </row>
     <row r="2" spans="2:14" ht="15" customHeight="1">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="346" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="344" t="s">
         <v>219</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="348" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100" t="s">
+      <c r="E2" s="349"/>
+      <c r="F2" s="350" t="s">
         <v>222</v>
       </c>
-      <c r="G2" s="134"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="94" t="s">
+      <c r="G2" s="351"/>
+      <c r="H2" s="352"/>
+      <c r="I2" s="352"/>
+      <c r="J2" s="353"/>
+      <c r="K2" s="344" t="s">
         <v>223</v>
       </c>
-      <c r="L2" s="94" t="s">
+      <c r="L2" s="344" t="s">
         <v>224</v>
       </c>
-      <c r="M2" s="94" t="s">
+      <c r="M2" s="344" t="s">
         <v>221</v>
       </c>
       <c r="N2"/>
     </row>
     <row r="3" spans="2:14" ht="30.75" thickBot="1">
-      <c r="B3" s="97"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="347"/>
+      <c r="C3" s="345"/>
       <c r="D3" s="60" t="s">
         <v>266</v>
       </c>
       <c r="E3" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="F3" s="130" t="s">
+      <c r="F3" s="97" t="s">
         <v>277</v>
       </c>
-      <c r="G3" s="135" t="s">
+      <c r="G3" s="101" t="s">
         <v>194</v>
       </c>
       <c r="H3" s="62" t="s">
@@ -11320,9 +12046,9 @@
       <c r="J3" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
+      <c r="K3" s="345"/>
+      <c r="L3" s="345"/>
+      <c r="M3" s="345"/>
       <c r="N3"/>
     </row>
     <row r="4" spans="2:14" ht="15.75" thickTop="1">
@@ -11341,7 +12067,7 @@
       <c r="F4" s="72">
         <v>2</v>
       </c>
-      <c r="G4" s="136">
+      <c r="G4" s="102">
         <f>SUM($F$4:F4)</f>
         <v>2</v>
       </c>
@@ -11383,7 +12109,7 @@
       <c r="F5" s="73">
         <v>2</v>
       </c>
-      <c r="G5" s="137">
+      <c r="G5" s="103">
         <f>SUM($F$4:F5)</f>
         <v>4</v>
       </c>
@@ -11425,7 +12151,7 @@
       <c r="F6" s="74">
         <v>2</v>
       </c>
-      <c r="G6" s="138">
+      <c r="G6" s="104">
         <f>SUM($F$4:F6)</f>
         <v>6</v>
       </c>
@@ -11467,7 +12193,7 @@
       <c r="F7" s="73">
         <v>4</v>
       </c>
-      <c r="G7" s="137">
+      <c r="G7" s="103">
         <f>SUM($F$4:F7)</f>
         <v>10</v>
       </c>
@@ -11509,7 +12235,7 @@
       <c r="F8" s="74">
         <v>2</v>
       </c>
-      <c r="G8" s="138">
+      <c r="G8" s="104">
         <f>SUM($F$4:F8)</f>
         <v>12</v>
       </c>
@@ -11551,7 +12277,7 @@
       <c r="F9" s="73">
         <v>3</v>
       </c>
-      <c r="G9" s="137">
+      <c r="G9" s="103">
         <f>SUM($F$4:F9)</f>
         <v>15</v>
       </c>
@@ -11578,43 +12304,43 @@
       <c r="N9"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="121">
+      <c r="B10" s="88">
         <v>7</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="89" t="s">
         <v>232</v>
       </c>
-      <c r="D10" s="123">
+      <c r="D10" s="90">
         <v>1</v>
       </c>
-      <c r="E10" s="124">
+      <c r="E10" s="91">
         <v>1</v>
       </c>
-      <c r="F10" s="125">
+      <c r="F10" s="92">
         <v>3</v>
       </c>
-      <c r="G10" s="139">
+      <c r="G10" s="105">
         <f>SUM($F$4:F10)</f>
         <v>18</v>
       </c>
-      <c r="H10" s="126">
+      <c r="H10" s="93">
         <f>SUM($F$4:F10)</f>
         <v>18</v>
       </c>
-      <c r="I10" s="127">
+      <c r="I10" s="94">
         <v>3</v>
       </c>
-      <c r="J10" s="124">
+      <c r="J10" s="91">
         <f>SUM($I$4:I10)</f>
         <v>18</v>
       </c>
-      <c r="K10" s="128">
+      <c r="K10" s="95">
         <v>3</v>
       </c>
-      <c r="L10" s="128">
+      <c r="L10" s="95">
         <v>9</v>
       </c>
-      <c r="M10" s="129" t="s">
+      <c r="M10" s="96" t="s">
         <v>233</v>
       </c>
       <c r="N10"/>
@@ -11635,7 +12361,7 @@
       <c r="F11" s="73">
         <v>2</v>
       </c>
-      <c r="G11" s="141">
+      <c r="G11" s="107">
         <f>SUM($F$4:F11)</f>
         <v>20</v>
       </c>
@@ -11677,7 +12403,7 @@
       <c r="F12" s="74">
         <v>2</v>
       </c>
-      <c r="G12" s="138">
+      <c r="G12" s="104">
         <f>SUM($F$12:F12)</f>
         <v>2</v>
       </c>
@@ -11719,7 +12445,7 @@
       <c r="F13" s="73">
         <v>2</v>
       </c>
-      <c r="G13" s="137">
+      <c r="G13" s="103">
         <f>SUM($F$12:F13)</f>
         <v>4</v>
       </c>
@@ -11761,7 +12487,7 @@
       <c r="F14" s="74">
         <v>2</v>
       </c>
-      <c r="G14" s="138">
+      <c r="G14" s="104">
         <f>SUM($F$12:F14)</f>
         <v>6</v>
       </c>
@@ -11803,7 +12529,7 @@
       <c r="F15" s="73">
         <v>3</v>
       </c>
-      <c r="G15" s="137">
+      <c r="G15" s="103">
         <f>SUM($F$12:F15)</f>
         <v>9</v>
       </c>
@@ -11845,7 +12571,7 @@
       <c r="F16" s="74">
         <v>2</v>
       </c>
-      <c r="G16" s="138">
+      <c r="G16" s="104">
         <f>SUM($F$12:F16)</f>
         <v>11</v>
       </c>
@@ -11887,7 +12613,7 @@
       <c r="F17" s="73">
         <v>2</v>
       </c>
-      <c r="G17" s="137">
+      <c r="G17" s="103">
         <f>SUM($F$12:F17)</f>
         <v>13</v>
       </c>
@@ -11914,43 +12640,43 @@
       <c r="N17"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="121">
+      <c r="B18" s="88">
         <v>15</v>
       </c>
-      <c r="C18" s="122" t="s">
+      <c r="C18" s="89" t="s">
         <v>241</v>
       </c>
-      <c r="D18" s="123">
+      <c r="D18" s="90">
         <v>2</v>
       </c>
-      <c r="E18" s="124">
+      <c r="E18" s="91">
         <v>2</v>
       </c>
-      <c r="F18" s="125">
+      <c r="F18" s="92">
         <v>2</v>
       </c>
-      <c r="G18" s="138">
+      <c r="G18" s="104">
         <f>SUM($F$12:F18)</f>
         <v>15</v>
       </c>
-      <c r="H18" s="126">
+      <c r="H18" s="93">
         <f>SUM($F$4:F18)</f>
         <v>35</v>
       </c>
-      <c r="I18" s="127">
+      <c r="I18" s="94">
         <v>2</v>
       </c>
-      <c r="J18" s="124">
+      <c r="J18" s="91">
         <f>SUM($I$4:I18)</f>
         <v>35</v>
       </c>
-      <c r="K18" s="128">
+      <c r="K18" s="95">
         <v>4</v>
       </c>
-      <c r="L18" s="128">
+      <c r="L18" s="95">
         <v>8</v>
       </c>
-      <c r="M18" s="129" t="s">
+      <c r="M18" s="96" t="s">
         <v>226</v>
       </c>
       <c r="N18"/>
@@ -11971,7 +12697,7 @@
       <c r="F19" s="73">
         <v>1</v>
       </c>
-      <c r="G19" s="137">
+      <c r="G19" s="103">
         <f>SUM($F$12:F19)</f>
         <v>16</v>
       </c>
@@ -12013,7 +12739,7 @@
       <c r="F20" s="74">
         <v>2</v>
       </c>
-      <c r="G20" s="138">
+      <c r="G20" s="104">
         <f>SUM($F$12:F20)</f>
         <v>18</v>
       </c>
@@ -12055,7 +12781,7 @@
       <c r="F21" s="73">
         <v>2</v>
       </c>
-      <c r="G21" s="137">
+      <c r="G21" s="103">
         <f>SUM($F$12:F21)</f>
         <v>20</v>
       </c>
@@ -12097,7 +12823,7 @@
       <c r="F22" s="74">
         <v>3</v>
       </c>
-      <c r="G22" s="141">
+      <c r="G22" s="107">
         <f>SUM($F$12:F22)</f>
         <v>23</v>
       </c>
@@ -12139,7 +12865,7 @@
       <c r="F23" s="73">
         <v>2</v>
       </c>
-      <c r="G23" s="137">
+      <c r="G23" s="103">
         <f>SUM($F$23:F23)</f>
         <v>2</v>
       </c>
@@ -12181,7 +12907,7 @@
       <c r="F24" s="74">
         <v>2</v>
       </c>
-      <c r="G24" s="139">
+      <c r="G24" s="105">
         <f>SUM($F$23:F24)</f>
         <v>4</v>
       </c>
@@ -12223,7 +12949,7 @@
       <c r="F25" s="73">
         <v>2</v>
       </c>
-      <c r="G25" s="137">
+      <c r="G25" s="103">
         <f>SUM($F$23:F25)</f>
         <v>6</v>
       </c>
@@ -12265,7 +12991,7 @@
       <c r="F26" s="74">
         <v>2</v>
       </c>
-      <c r="G26" s="139">
+      <c r="G26" s="105">
         <f>SUM($F$23:F26)</f>
         <v>8</v>
       </c>
@@ -12307,7 +13033,7 @@
       <c r="F27" s="73">
         <v>2</v>
       </c>
-      <c r="G27" s="137">
+      <c r="G27" s="103">
         <f>SUM($F$23:F27)</f>
         <v>10</v>
       </c>
@@ -12349,7 +13075,7 @@
       <c r="F28" s="74">
         <v>1</v>
       </c>
-      <c r="G28" s="139">
+      <c r="G28" s="105">
         <f>SUM($F$23:F28)</f>
         <v>11</v>
       </c>
@@ -12391,7 +13117,7 @@
       <c r="F29" s="73">
         <v>2</v>
       </c>
-      <c r="G29" s="137">
+      <c r="G29" s="103">
         <f>SUM($F$23:F29)</f>
         <v>13</v>
       </c>
@@ -12433,7 +13159,7 @@
       <c r="F30" s="74">
         <v>2</v>
       </c>
-      <c r="G30" s="139">
+      <c r="G30" s="105">
         <f>SUM($F$23:F30)</f>
         <v>15</v>
       </c>
@@ -12475,7 +13201,7 @@
       <c r="F31" s="73">
         <v>2</v>
       </c>
-      <c r="G31" s="137">
+      <c r="G31" s="103">
         <f>SUM($F$23:F31)</f>
         <v>17</v>
       </c>
@@ -12517,7 +13243,7 @@
       <c r="F32" s="74">
         <v>2</v>
       </c>
-      <c r="G32" s="139">
+      <c r="G32" s="105">
         <f>SUM($F$23:F32)</f>
         <v>19</v>
       </c>
@@ -12559,7 +13285,7 @@
       <c r="F33" s="77">
         <v>2</v>
       </c>
-      <c r="G33" s="141">
+      <c r="G33" s="107">
         <f>SUM($F$23:F33)</f>
         <v>21</v>
       </c>
@@ -12601,7 +13327,7 @@
       <c r="F34" s="74">
         <v>2</v>
       </c>
-      <c r="G34" s="138">
+      <c r="G34" s="104">
         <f>SUM($F$34:F34)</f>
         <v>2</v>
       </c>
@@ -12637,7 +13363,7 @@
       <c r="F35" s="73">
         <v>2</v>
       </c>
-      <c r="G35" s="137">
+      <c r="G35" s="103">
         <f>SUM($F$34:F35)</f>
         <v>4</v>
       </c>
@@ -12673,7 +13399,7 @@
       <c r="F36" s="74">
         <v>2</v>
       </c>
-      <c r="G36" s="138">
+      <c r="G36" s="104">
         <f>SUM($F$34:F36)</f>
         <v>6</v>
       </c>
@@ -12709,7 +13435,7 @@
       <c r="F37" s="73">
         <v>2</v>
       </c>
-      <c r="G37" s="137">
+      <c r="G37" s="103">
         <f>SUM($F$34:F37)</f>
         <v>8</v>
       </c>
@@ -12745,7 +13471,7 @@
       <c r="F38" s="74">
         <v>2</v>
       </c>
-      <c r="G38" s="138">
+      <c r="G38" s="104">
         <f>SUM($F$34:F38)</f>
         <v>10</v>
       </c>
@@ -12781,7 +13507,7 @@
       <c r="F39" s="73">
         <v>3</v>
       </c>
-      <c r="G39" s="137">
+      <c r="G39" s="103">
         <f>SUM($F$34:F39)</f>
         <v>13</v>
       </c>
@@ -12802,39 +13528,39 @@
       <c r="N39"/>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="121">
+      <c r="B40" s="88">
         <v>37</v>
       </c>
-      <c r="C40" s="122" t="s">
+      <c r="C40" s="89" t="s">
         <v>262</v>
       </c>
-      <c r="D40" s="123">
+      <c r="D40" s="90">
         <v>4</v>
       </c>
-      <c r="E40" s="124">
+      <c r="E40" s="91">
         <v>4</v>
       </c>
-      <c r="F40" s="125">
+      <c r="F40" s="92">
         <v>3</v>
       </c>
-      <c r="G40" s="138">
+      <c r="G40" s="104">
         <f>SUM($F$34:F40)</f>
         <v>16</v>
       </c>
-      <c r="H40" s="126">
+      <c r="H40" s="93">
         <f>SUM($F$4:F40)</f>
         <v>80</v>
       </c>
-      <c r="I40" s="127">
+      <c r="I40" s="94">
         <v>3</v>
       </c>
-      <c r="J40" s="124">
+      <c r="J40" s="91">
         <f>SUM($I$4:I40)</f>
         <v>80</v>
       </c>
-      <c r="K40" s="128"/>
-      <c r="L40" s="128"/>
-      <c r="M40" s="129"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="96"/>
       <c r="N40"/>
     </row>
     <row r="41" spans="2:14">
@@ -12853,7 +13579,7 @@
       <c r="F41" s="73">
         <v>2</v>
       </c>
-      <c r="G41" s="137">
+      <c r="G41" s="103">
         <f>SUM($F$34:F41)</f>
         <v>18</v>
       </c>
@@ -12889,7 +13615,7 @@
       <c r="F42" s="74">
         <v>2</v>
       </c>
-      <c r="G42" s="138">
+      <c r="G42" s="104">
         <f>SUM($F$34:F42)</f>
         <v>20</v>
       </c>
@@ -12925,7 +13651,7 @@
       <c r="F43" s="83">
         <v>2</v>
       </c>
-      <c r="G43" s="141">
+      <c r="G43" s="107">
         <f>SUM($F$34:F43)</f>
         <v>22</v>
       </c>
@@ -12961,11 +13687,11 @@
       <c r="F44" s="74">
         <v>2</v>
       </c>
-      <c r="G44" s="138">
+      <c r="G44" s="104">
         <f>SUM($F$44:F44)</f>
         <v>2</v>
       </c>
-      <c r="H44" s="140">
+      <c r="H44" s="106">
         <f>SUM($F$4:F44)</f>
         <v>88</v>
       </c>
@@ -12976,7 +13702,7 @@
       <c r="M44" s="53"/>
       <c r="N44"/>
     </row>
-    <row r="45" spans="2:14" s="133" customFormat="1">
+    <row r="45" spans="2:14" s="100" customFormat="1">
       <c r="B45" s="65">
         <v>42</v>
       </c>
@@ -12992,7 +13718,7 @@
       <c r="F45" s="73">
         <v>3</v>
       </c>
-      <c r="G45" s="137">
+      <c r="G45" s="103">
         <f>SUM($F$44:F45)</f>
         <v>5</v>
       </c>
@@ -13006,7 +13732,7 @@
       <c r="L45" s="70"/>
       <c r="M45" s="71"/>
     </row>
-    <row r="46" spans="2:14" s="133" customFormat="1">
+    <row r="46" spans="2:14" s="100" customFormat="1">
       <c r="B46" s="50">
         <v>43</v>
       </c>
@@ -13022,11 +13748,11 @@
       <c r="F46" s="74">
         <v>2</v>
       </c>
-      <c r="G46" s="138">
+      <c r="G46" s="104">
         <f>SUM($F$44:F46)</f>
         <v>7</v>
       </c>
-      <c r="H46" s="140">
+      <c r="H46" s="106">
         <f>SUM($F$4:F46)</f>
         <v>93</v>
       </c>
@@ -13036,7 +13762,7 @@
       <c r="L46" s="52"/>
       <c r="M46" s="53"/>
     </row>
-    <row r="47" spans="2:14" s="133" customFormat="1">
+    <row r="47" spans="2:14" s="100" customFormat="1">
       <c r="B47" s="65">
         <v>44</v>
       </c>
@@ -13052,7 +13778,7 @@
       <c r="F47" s="73">
         <v>2</v>
       </c>
-      <c r="G47" s="137">
+      <c r="G47" s="103">
         <f>SUM($F$44:F47)</f>
         <v>9</v>
       </c>
@@ -13066,7 +13792,7 @@
       <c r="L47" s="70"/>
       <c r="M47" s="71"/>
     </row>
-    <row r="48" spans="2:14" s="133" customFormat="1">
+    <row r="48" spans="2:14" s="100" customFormat="1">
       <c r="B48" s="50">
         <v>45</v>
       </c>
@@ -13082,11 +13808,11 @@
       <c r="F48" s="74">
         <v>2</v>
       </c>
-      <c r="G48" s="138">
+      <c r="G48" s="104">
         <f>SUM($F$44:F48)</f>
         <v>11</v>
       </c>
-      <c r="H48" s="140">
+      <c r="H48" s="106">
         <f>SUM($F$4:F48)</f>
         <v>97</v>
       </c>
@@ -13096,7 +13822,7 @@
       <c r="L48" s="52"/>
       <c r="M48" s="53"/>
     </row>
-    <row r="49" spans="2:14" s="133" customFormat="1">
+    <row r="49" spans="2:14" s="100" customFormat="1">
       <c r="B49" s="65">
         <v>46</v>
       </c>
@@ -13112,7 +13838,7 @@
       <c r="F49" s="73">
         <v>2</v>
       </c>
-      <c r="G49" s="137">
+      <c r="G49" s="103">
         <f>SUM($F$44:F49)</f>
         <v>13</v>
       </c>
@@ -13126,7 +13852,7 @@
       <c r="L49" s="70"/>
       <c r="M49" s="71"/>
     </row>
-    <row r="50" spans="2:14" s="133" customFormat="1">
+    <row r="50" spans="2:14" s="100" customFormat="1">
       <c r="B50" s="50">
         <v>47</v>
       </c>
@@ -13142,11 +13868,11 @@
       <c r="F50" s="74">
         <v>2</v>
       </c>
-      <c r="G50" s="138">
+      <c r="G50" s="104">
         <f>SUM($F$44:F50)</f>
         <v>15</v>
       </c>
-      <c r="H50" s="140">
+      <c r="H50" s="106">
         <f>SUM($F$4:F50)</f>
         <v>101</v>
       </c>
@@ -13156,7 +13882,7 @@
       <c r="L50" s="52"/>
       <c r="M50" s="53"/>
     </row>
-    <row r="51" spans="2:14" s="133" customFormat="1">
+    <row r="51" spans="2:14" s="100" customFormat="1">
       <c r="B51" s="65">
         <v>48</v>
       </c>
@@ -13172,7 +13898,7 @@
       <c r="F51" s="73">
         <v>2</v>
       </c>
-      <c r="G51" s="137">
+      <c r="G51" s="103">
         <f>SUM($F$44:F51)</f>
         <v>17</v>
       </c>
@@ -13186,113 +13912,113 @@
       <c r="L51" s="70"/>
       <c r="M51" s="71"/>
     </row>
-    <row r="52" spans="2:14" s="133" customFormat="1">
+    <row r="52" spans="2:14" s="100" customFormat="1">
       <c r="B52" s="50">
         <v>49</v>
       </c>
       <c r="C52" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="D52" s="152">
+      <c r="D52" s="118">
         <v>5</v>
       </c>
       <c r="E52" s="57">
         <v>5</v>
       </c>
-      <c r="F52" s="138">
+      <c r="F52" s="104">
         <v>2</v>
       </c>
-      <c r="G52" s="138">
+      <c r="G52" s="104">
         <f>SUM($F$44:F52)</f>
         <v>19</v>
       </c>
-      <c r="H52" s="158">
+      <c r="H52" s="124">
         <f>SUM($F$4:F52)</f>
         <v>105</v>
       </c>
-      <c r="I52" s="138"/>
+      <c r="I52" s="104"/>
       <c r="J52" s="57"/>
       <c r="K52" s="52"/>
       <c r="L52" s="52"/>
       <c r="M52" s="53"/>
-      <c r="N52" s="132"/>
-    </row>
-    <row r="53" spans="2:14" s="133" customFormat="1">
-      <c r="B53" s="155">
+      <c r="N52" s="99"/>
+    </row>
+    <row r="53" spans="2:14" s="100" customFormat="1">
+      <c r="B53" s="121">
         <v>50</v>
       </c>
-      <c r="C53" s="156" t="s">
+      <c r="C53" s="122" t="s">
         <v>292</v>
       </c>
-      <c r="D53" s="150">
+      <c r="D53" s="116">
         <v>7</v>
       </c>
-      <c r="E53" s="157">
+      <c r="E53" s="123">
         <v>5</v>
       </c>
-      <c r="F53" s="143">
+      <c r="F53" s="109">
         <v>2</v>
       </c>
-      <c r="G53" s="141">
+      <c r="G53" s="107">
         <f>SUM($F$44:F53)</f>
         <v>21</v>
       </c>
-      <c r="H53" s="157">
+      <c r="H53" s="123">
         <f>SUM($F$4:F53)</f>
         <v>107</v>
       </c>
-      <c r="I53" s="144"/>
-      <c r="J53" s="142"/>
-      <c r="K53" s="161"/>
-      <c r="L53" s="163"/>
-      <c r="M53" s="145"/>
-      <c r="N53" s="132"/>
-    </row>
-    <row r="54" spans="2:14" s="133" customFormat="1">
-      <c r="B54" s="121">
+      <c r="I53" s="110"/>
+      <c r="J53" s="108"/>
+      <c r="K53" s="127"/>
+      <c r="L53" s="129"/>
+      <c r="M53" s="111"/>
+      <c r="N53" s="99"/>
+    </row>
+    <row r="54" spans="2:14" s="100" customFormat="1">
+      <c r="B54" s="88">
         <v>51</v>
       </c>
-      <c r="C54" s="122" t="s">
+      <c r="C54" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="D54" s="151">
+      <c r="D54" s="117">
         <v>6</v>
       </c>
-      <c r="E54" s="124">
+      <c r="E54" s="91">
         <v>6</v>
       </c>
-      <c r="F54" s="151">
+      <c r="F54" s="117">
         <v>2</v>
       </c>
-      <c r="G54" s="126">
+      <c r="G54" s="93">
         <f>SUM($F$54:F54)</f>
         <v>2</v>
       </c>
-      <c r="H54" s="124">
+      <c r="H54" s="91">
         <f>SUM($F$4:F54)</f>
         <v>109</v>
       </c>
-      <c r="I54" s="147"/>
-      <c r="J54" s="146"/>
-      <c r="K54" s="162"/>
-      <c r="L54" s="128"/>
-      <c r="M54" s="129"/>
-      <c r="N54" s="132"/>
-    </row>
-    <row r="55" spans="2:14" s="133" customFormat="1">
+      <c r="I54" s="113"/>
+      <c r="J54" s="112"/>
+      <c r="K54" s="128"/>
+      <c r="L54" s="95"/>
+      <c r="M54" s="96"/>
+      <c r="N54" s="99"/>
+    </row>
+    <row r="55" spans="2:14" s="100" customFormat="1">
       <c r="B55" s="65">
         <v>52</v>
       </c>
       <c r="C55" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D55" s="164">
+      <c r="D55" s="130">
         <v>6</v>
       </c>
       <c r="E55" s="68">
         <v>6</v>
       </c>
-      <c r="F55" s="164">
+      <c r="F55" s="130">
         <v>2</v>
       </c>
       <c r="G55" s="69">
@@ -13303,58 +14029,58 @@
         <f>SUM($F$4:F55)</f>
         <v>111</v>
       </c>
-      <c r="I55" s="165"/>
-      <c r="J55" s="166"/>
-      <c r="K55" s="167"/>
+      <c r="I55" s="131"/>
+      <c r="J55" s="132"/>
+      <c r="K55" s="133"/>
       <c r="L55" s="70"/>
       <c r="M55" s="71"/>
-      <c r="N55" s="132"/>
-    </row>
-    <row r="56" spans="2:14" s="133" customFormat="1">
-      <c r="B56" s="121">
+      <c r="N55" s="99"/>
+    </row>
+    <row r="56" spans="2:14" s="100" customFormat="1">
+      <c r="B56" s="88">
         <v>53</v>
       </c>
-      <c r="C56" s="122" t="s">
+      <c r="C56" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="D56" s="151">
+      <c r="D56" s="117">
         <v>6</v>
       </c>
-      <c r="E56" s="124">
+      <c r="E56" s="91">
         <v>6</v>
       </c>
-      <c r="F56" s="151">
+      <c r="F56" s="117">
         <v>2</v>
       </c>
-      <c r="G56" s="126">
+      <c r="G56" s="93">
         <f>SUM($F$54:F56)</f>
         <v>6</v>
       </c>
-      <c r="H56" s="124">
+      <c r="H56" s="91">
         <f>SUM($F$4:F56)</f>
         <v>113</v>
       </c>
-      <c r="I56" s="147"/>
-      <c r="J56" s="146"/>
-      <c r="K56" s="162"/>
-      <c r="L56" s="128"/>
-      <c r="M56" s="129"/>
-      <c r="N56" s="132"/>
-    </row>
-    <row r="57" spans="2:14" s="133" customFormat="1">
+      <c r="I56" s="113"/>
+      <c r="J56" s="112"/>
+      <c r="K56" s="128"/>
+      <c r="L56" s="95"/>
+      <c r="M56" s="96"/>
+      <c r="N56" s="99"/>
+    </row>
+    <row r="57" spans="2:14" s="100" customFormat="1">
       <c r="B57" s="65">
         <v>54</v>
       </c>
       <c r="C57" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="D57" s="164">
+      <c r="D57" s="130">
         <v>6</v>
       </c>
       <c r="E57" s="68">
         <v>6</v>
       </c>
-      <c r="F57" s="164">
+      <c r="F57" s="130">
         <v>2</v>
       </c>
       <c r="G57" s="69">
@@ -13365,58 +14091,58 @@
         <f>SUM($F$4:F57)</f>
         <v>115</v>
       </c>
-      <c r="I57" s="165"/>
-      <c r="J57" s="166"/>
-      <c r="K57" s="167"/>
+      <c r="I57" s="131"/>
+      <c r="J57" s="132"/>
+      <c r="K57" s="133"/>
       <c r="L57" s="70"/>
       <c r="M57" s="71"/>
-      <c r="N57" s="132"/>
-    </row>
-    <row r="58" spans="2:14" s="133" customFormat="1">
-      <c r="B58" s="121">
+      <c r="N57" s="99"/>
+    </row>
+    <row r="58" spans="2:14" s="100" customFormat="1">
+      <c r="B58" s="88">
         <v>55</v>
       </c>
-      <c r="C58" s="122" t="s">
+      <c r="C58" s="89" t="s">
         <v>283</v>
       </c>
-      <c r="D58" s="151">
+      <c r="D58" s="117">
         <v>6</v>
       </c>
-      <c r="E58" s="124">
+      <c r="E58" s="91">
         <v>6</v>
       </c>
-      <c r="F58" s="151">
+      <c r="F58" s="117">
         <v>2</v>
       </c>
-      <c r="G58" s="126">
+      <c r="G58" s="93">
         <f>SUM($F$54:F58)</f>
         <v>10</v>
       </c>
-      <c r="H58" s="124">
+      <c r="H58" s="91">
         <f>SUM($F$4:F58)</f>
         <v>117</v>
       </c>
-      <c r="I58" s="147"/>
-      <c r="J58" s="146"/>
-      <c r="K58" s="162"/>
-      <c r="L58" s="128"/>
-      <c r="M58" s="129"/>
-      <c r="N58" s="132"/>
-    </row>
-    <row r="59" spans="2:14" s="133" customFormat="1">
+      <c r="I58" s="113"/>
+      <c r="J58" s="112"/>
+      <c r="K58" s="128"/>
+      <c r="L58" s="95"/>
+      <c r="M58" s="96"/>
+      <c r="N58" s="99"/>
+    </row>
+    <row r="59" spans="2:14" s="100" customFormat="1">
       <c r="B59" s="65">
         <v>56</v>
       </c>
       <c r="C59" s="66" t="s">
         <v>284</v>
       </c>
-      <c r="D59" s="164">
+      <c r="D59" s="130">
         <v>6</v>
       </c>
       <c r="E59" s="68">
         <v>6</v>
       </c>
-      <c r="F59" s="164">
+      <c r="F59" s="130">
         <v>2</v>
       </c>
       <c r="G59" s="69">
@@ -13427,58 +14153,58 @@
         <f>SUM($F$4:F59)</f>
         <v>119</v>
       </c>
-      <c r="I59" s="165"/>
-      <c r="J59" s="166"/>
-      <c r="K59" s="167"/>
+      <c r="I59" s="131"/>
+      <c r="J59" s="132"/>
+      <c r="K59" s="133"/>
       <c r="L59" s="70"/>
       <c r="M59" s="71"/>
-      <c r="N59" s="132"/>
-    </row>
-    <row r="60" spans="2:14" s="133" customFormat="1">
-      <c r="B60" s="121">
+      <c r="N59" s="99"/>
+    </row>
+    <row r="60" spans="2:14" s="100" customFormat="1">
+      <c r="B60" s="88">
         <v>57</v>
       </c>
-      <c r="C60" s="122" t="s">
+      <c r="C60" s="89" t="s">
         <v>285</v>
       </c>
-      <c r="D60" s="151">
+      <c r="D60" s="117">
         <v>6</v>
       </c>
-      <c r="E60" s="124">
+      <c r="E60" s="91">
         <v>6</v>
       </c>
-      <c r="F60" s="151">
+      <c r="F60" s="117">
         <v>2</v>
       </c>
-      <c r="G60" s="126">
+      <c r="G60" s="93">
         <f>SUM($F$54:F60)</f>
         <v>14</v>
       </c>
-      <c r="H60" s="124">
+      <c r="H60" s="91">
         <f>SUM($F$4:F60)</f>
         <v>121</v>
       </c>
-      <c r="I60" s="147"/>
-      <c r="J60" s="146"/>
-      <c r="K60" s="162"/>
-      <c r="L60" s="128"/>
-      <c r="M60" s="129"/>
-      <c r="N60" s="132"/>
-    </row>
-    <row r="61" spans="2:14" s="133" customFormat="1">
+      <c r="I60" s="113"/>
+      <c r="J60" s="112"/>
+      <c r="K60" s="128"/>
+      <c r="L60" s="95"/>
+      <c r="M60" s="96"/>
+      <c r="N60" s="99"/>
+    </row>
+    <row r="61" spans="2:14" s="100" customFormat="1">
       <c r="B61" s="65">
         <v>58</v>
       </c>
       <c r="C61" s="66" t="s">
         <v>286</v>
       </c>
-      <c r="D61" s="164">
+      <c r="D61" s="130">
         <v>6</v>
       </c>
       <c r="E61" s="68">
         <v>6</v>
       </c>
-      <c r="F61" s="164">
+      <c r="F61" s="130">
         <v>2</v>
       </c>
       <c r="G61" s="69">
@@ -13489,40 +14215,40 @@
         <f>SUM($F$4:F61)</f>
         <v>123</v>
       </c>
-      <c r="I61" s="165"/>
-      <c r="J61" s="166"/>
-      <c r="K61" s="167"/>
+      <c r="I61" s="131"/>
+      <c r="J61" s="132"/>
+      <c r="K61" s="133"/>
       <c r="L61" s="70"/>
       <c r="M61" s="71"/>
-      <c r="N61" s="132"/>
+      <c r="N61" s="99"/>
     </row>
     <row r="62" spans="2:14">
-      <c r="B62" s="121">
+      <c r="B62" s="88">
         <v>59</v>
       </c>
-      <c r="C62" s="122" t="s">
+      <c r="C62" s="89" t="s">
         <v>287</v>
       </c>
-      <c r="D62" s="151">
+      <c r="D62" s="117">
         <v>6</v>
       </c>
       <c r="E62" s="57">
         <v>6</v>
       </c>
-      <c r="F62" s="138">
+      <c r="F62" s="104">
         <v>2</v>
       </c>
-      <c r="G62" s="126">
+      <c r="G62" s="93">
         <f>SUM($F$54:F62)</f>
         <v>18</v>
       </c>
-      <c r="H62" s="124">
+      <c r="H62" s="91">
         <f>SUM($F$4:F62)</f>
         <v>125</v>
       </c>
-      <c r="I62" s="149"/>
-      <c r="J62" s="148"/>
-      <c r="K62" s="160"/>
+      <c r="I62" s="115"/>
+      <c r="J62" s="114"/>
+      <c r="K62" s="126"/>
       <c r="L62" s="52"/>
       <c r="M62" s="53"/>
     </row>
@@ -13533,16 +14259,16 @@
       <c r="C63" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="D63" s="164">
+      <c r="D63" s="130">
         <v>8</v>
       </c>
       <c r="E63" s="68">
         <v>6</v>
       </c>
-      <c r="F63" s="137">
+      <c r="F63" s="103">
         <v>4</v>
       </c>
-      <c r="G63" s="153">
+      <c r="G63" s="119">
         <f>SUM($F$54:F63)</f>
         <v>22</v>
       </c>
@@ -13550,39 +14276,39 @@
         <f>SUM($F$4:F63)</f>
         <v>129</v>
       </c>
-      <c r="I63" s="165"/>
-      <c r="J63" s="166"/>
-      <c r="K63" s="167"/>
+      <c r="I63" s="131"/>
+      <c r="J63" s="132"/>
+      <c r="K63" s="133"/>
       <c r="L63" s="70"/>
       <c r="M63" s="71"/>
     </row>
     <row r="64" spans="2:14">
-      <c r="B64" s="121">
+      <c r="B64" s="88">
         <v>61</v>
       </c>
-      <c r="C64" s="122" t="s">
+      <c r="C64" s="89" t="s">
         <v>289</v>
       </c>
-      <c r="D64" s="152">
+      <c r="D64" s="118">
         <v>7</v>
       </c>
       <c r="E64" s="57">
         <v>7</v>
       </c>
-      <c r="F64" s="138">
+      <c r="F64" s="104">
         <v>2</v>
       </c>
-      <c r="G64" s="127">
+      <c r="G64" s="94">
         <f>SUM($F$64:F64)</f>
         <v>2</v>
       </c>
-      <c r="H64" s="124">
+      <c r="H64" s="91">
         <f>SUM($F$4:F64)</f>
         <v>131</v>
       </c>
-      <c r="I64" s="149"/>
-      <c r="J64" s="148"/>
-      <c r="K64" s="160"/>
+      <c r="I64" s="115"/>
+      <c r="J64" s="114"/>
+      <c r="K64" s="126"/>
       <c r="L64" s="52"/>
       <c r="M64" s="53"/>
       <c r="N64" s="45"/>
@@ -13594,13 +14320,13 @@
       <c r="C65" s="66" t="s">
         <v>290</v>
       </c>
-      <c r="D65" s="164">
+      <c r="D65" s="130">
         <v>7</v>
       </c>
       <c r="E65" s="68">
         <v>7</v>
       </c>
-      <c r="F65" s="137">
+      <c r="F65" s="103">
         <v>2</v>
       </c>
       <c r="G65" s="77">
@@ -13611,40 +14337,40 @@
         <f>SUM($F$4:F65)</f>
         <v>133</v>
       </c>
-      <c r="I65" s="165"/>
-      <c r="J65" s="166"/>
-      <c r="K65" s="167"/>
+      <c r="I65" s="131"/>
+      <c r="J65" s="132"/>
+      <c r="K65" s="133"/>
       <c r="L65" s="70"/>
       <c r="M65" s="71"/>
       <c r="N65" s="45"/>
     </row>
     <row r="66" spans="2:14">
-      <c r="B66" s="121">
+      <c r="B66" s="88">
         <v>63</v>
       </c>
-      <c r="C66" s="122" t="s">
+      <c r="C66" s="89" t="s">
         <v>291</v>
       </c>
-      <c r="D66" s="152">
+      <c r="D66" s="118">
         <v>7</v>
       </c>
       <c r="E66" s="57">
         <v>7</v>
       </c>
-      <c r="F66" s="138">
+      <c r="F66" s="104">
         <v>2</v>
       </c>
-      <c r="G66" s="127">
+      <c r="G66" s="94">
         <f>SUM($F$64:F66)</f>
         <v>6</v>
       </c>
-      <c r="H66" s="124">
+      <c r="H66" s="91">
         <f>SUM($F$4:F66)</f>
         <v>135</v>
       </c>
-      <c r="I66" s="149"/>
-      <c r="J66" s="148"/>
-      <c r="K66" s="160"/>
+      <c r="I66" s="115"/>
+      <c r="J66" s="114"/>
+      <c r="K66" s="126"/>
       <c r="L66" s="52"/>
       <c r="M66" s="53"/>
       <c r="N66" s="45"/>
@@ -13656,13 +14382,13 @@
       <c r="C67" s="66" t="s">
         <v>293</v>
       </c>
-      <c r="D67" s="164">
+      <c r="D67" s="130">
         <v>7</v>
       </c>
       <c r="E67" s="68">
         <v>7</v>
       </c>
-      <c r="F67" s="137">
+      <c r="F67" s="103">
         <v>2</v>
       </c>
       <c r="G67" s="77">
@@ -13673,40 +14399,40 @@
         <f>SUM($F$4:F67)</f>
         <v>137</v>
       </c>
-      <c r="I67" s="165"/>
-      <c r="J67" s="166"/>
-      <c r="K67" s="167"/>
+      <c r="I67" s="131"/>
+      <c r="J67" s="132"/>
+      <c r="K67" s="133"/>
       <c r="L67" s="70"/>
-      <c r="M67" s="177"/>
+      <c r="M67" s="143"/>
       <c r="N67" s="45"/>
     </row>
     <row r="68" spans="2:14">
-      <c r="B68" s="121">
+      <c r="B68" s="88">
         <v>65</v>
       </c>
-      <c r="C68" s="122" t="s">
+      <c r="C68" s="89" t="s">
         <v>294</v>
       </c>
-      <c r="D68" s="152">
+      <c r="D68" s="118">
         <v>7</v>
       </c>
       <c r="E68" s="57">
         <v>7</v>
       </c>
-      <c r="F68" s="138">
+      <c r="F68" s="104">
         <v>2</v>
       </c>
-      <c r="G68" s="127">
+      <c r="G68" s="94">
         <f>SUM($F$64:F68)</f>
         <v>10</v>
       </c>
-      <c r="H68" s="124">
+      <c r="H68" s="91">
         <f>SUM($F$4:F68)</f>
         <v>139</v>
       </c>
-      <c r="I68" s="149"/>
-      <c r="J68" s="148"/>
-      <c r="K68" s="160"/>
+      <c r="I68" s="115"/>
+      <c r="J68" s="114"/>
+      <c r="K68" s="126"/>
       <c r="L68" s="52"/>
       <c r="M68" s="53"/>
       <c r="N68" s="45"/>
@@ -13718,13 +14444,13 @@
       <c r="C69" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="D69" s="164">
+      <c r="D69" s="130">
         <v>7</v>
       </c>
       <c r="E69" s="68">
         <v>7</v>
       </c>
-      <c r="F69" s="137">
+      <c r="F69" s="103">
         <v>2</v>
       </c>
       <c r="G69" s="77">
@@ -13735,73 +14461,73 @@
         <f>SUM($F$4:F69)</f>
         <v>141</v>
       </c>
-      <c r="I69" s="165"/>
-      <c r="J69" s="166"/>
-      <c r="K69" s="167"/>
+      <c r="I69" s="131"/>
+      <c r="J69" s="132"/>
+      <c r="K69" s="133"/>
       <c r="L69" s="70"/>
       <c r="M69" s="71"/>
       <c r="N69" s="45"/>
     </row>
     <row r="70" spans="2:14">
-      <c r="B70" s="121">
+      <c r="B70" s="88">
         <v>67</v>
       </c>
-      <c r="C70" s="122" t="s">
+      <c r="C70" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="D70" s="152">
+      <c r="D70" s="118">
         <v>7</v>
       </c>
       <c r="E70" s="57">
         <v>7</v>
       </c>
-      <c r="F70" s="138">
+      <c r="F70" s="104">
         <v>2</v>
       </c>
-      <c r="G70" s="127">
+      <c r="G70" s="94">
         <f>SUM($F$64:F70)</f>
         <v>14</v>
       </c>
-      <c r="H70" s="124">
+      <c r="H70" s="91">
         <f>SUM($F$4:F70)</f>
         <v>143</v>
       </c>
-      <c r="I70" s="149"/>
-      <c r="J70" s="148"/>
-      <c r="K70" s="160"/>
+      <c r="I70" s="115"/>
+      <c r="J70" s="114"/>
+      <c r="K70" s="126"/>
       <c r="L70" s="52"/>
       <c r="M70" s="53"/>
       <c r="N70" s="45"/>
     </row>
     <row r="71" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B71" s="168">
+      <c r="B71" s="134">
         <v>68</v>
       </c>
-      <c r="C71" s="169" t="s">
+      <c r="C71" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="D71" s="170">
+      <c r="D71" s="136">
         <v>7</v>
       </c>
-      <c r="E71" s="159">
+      <c r="E71" s="125">
         <v>7</v>
       </c>
-      <c r="F71" s="171">
+      <c r="F71" s="137">
         <v>2</v>
       </c>
-      <c r="G71" s="154">
+      <c r="G71" s="120">
         <f>SUM($F$64:F71)</f>
         <v>16</v>
       </c>
-      <c r="H71" s="159">
+      <c r="H71" s="125">
         <f>SUM($F$4:F71)</f>
         <v>145</v>
       </c>
-      <c r="I71" s="172"/>
-      <c r="J71" s="173"/>
-      <c r="K71" s="174"/>
-      <c r="L71" s="175"/>
-      <c r="M71" s="176"/>
+      <c r="I71" s="138"/>
+      <c r="J71" s="139"/>
+      <c r="K71" s="140"/>
+      <c r="L71" s="141"/>
+      <c r="M71" s="142"/>
       <c r="N71" s="45"/>
     </row>
     <row r="72" spans="2:14">
@@ -14138,11 +14864,11 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="354" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
+      <c r="C2" s="355"/>
+      <c r="D2" s="356"/>
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="2:10">
@@ -14185,10 +14911,10 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="104"/>
+      <c r="C6" s="355"/>
       <c r="D6" s="26">
         <f>SUM(D4:D5)</f>
         <v>10000000</v>
@@ -14206,12 +14932,12 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="357" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="108"/>
+      <c r="C8" s="358"/>
+      <c r="D8" s="358"/>
+      <c r="E8" s="359"/>
       <c r="I8" s="6">
         <v>2</v>
       </c>
@@ -14330,11 +15056,11 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="357" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="109"/>
+      <c r="C17" s="358"/>
+      <c r="D17" s="360"/>
       <c r="E17" s="26">
         <f>SUM(E9:E16)</f>
         <v>19360000</v>
@@ -14386,14 +15112,14 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="361" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="E2" s="110" t="s">
+      <c r="C2" s="362"/>
+      <c r="E2" s="361" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="111"/>
+      <c r="F2" s="362"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="33" t="s">
@@ -14831,11 +15557,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="369" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="120"/>
+      <c r="B2" s="370"/>
+      <c r="C2" s="371"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5">
@@ -14871,21 +15597,21 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="365" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="115"/>
+      <c r="B6" s="366"/>
       <c r="C6" s="3">
         <f>SUM(C3:C5)</f>
         <v>7500000</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="369" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="120"/>
+      <c r="B7" s="370"/>
+      <c r="C7" s="371"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5">
@@ -14932,21 +15658,21 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="365" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="366"/>
       <c r="C12" s="3">
         <f>SUM(C8:C11)</f>
         <v>360000</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="369" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
+      <c r="B13" s="370"/>
+      <c r="C13" s="371"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5">
@@ -14993,21 +15719,21 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="365" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="115"/>
+      <c r="B18" s="366"/>
       <c r="C18" s="3">
         <f>SUM(C14:C17)</f>
         <v>570000</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="118" t="s">
+      <c r="A19" s="369" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="119"/>
-      <c r="C19" s="120"/>
+      <c r="B19" s="370"/>
+      <c r="C19" s="371"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5">
@@ -15054,21 +15780,21 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="114" t="s">
+      <c r="A24" s="365" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="115"/>
+      <c r="B24" s="366"/>
       <c r="C24" s="3">
         <f>SUM(C20:C23)</f>
         <v>465000</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="369" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="119"/>
-      <c r="C25" s="120"/>
+      <c r="B25" s="370"/>
+      <c r="C25" s="371"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="5">
@@ -15115,21 +15841,21 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="114" t="s">
+      <c r="A30" s="365" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="115"/>
+      <c r="B30" s="366"/>
       <c r="C30" s="3">
         <f>SUM(C26:C29)</f>
         <v>665000</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="118" t="s">
+      <c r="A31" s="369" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="119"/>
-      <c r="C31" s="120"/>
+      <c r="B31" s="370"/>
+      <c r="C31" s="371"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5">
@@ -15143,21 +15869,21 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="114" t="s">
+      <c r="A33" s="365" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="115"/>
+      <c r="B33" s="366"/>
       <c r="C33" s="3">
         <f>SUM(C32)</f>
         <v>1800000</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="118" t="s">
+      <c r="A34" s="369" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="119"/>
-      <c r="C34" s="120"/>
+      <c r="B34" s="370"/>
+      <c r="C34" s="371"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="5">
@@ -15193,20 +15919,20 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="116" t="s">
+      <c r="A38" s="367" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="117"/>
+      <c r="B38" s="368"/>
       <c r="C38" s="7">
         <f>SUM(C35:C37)</f>
         <v>400000</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="112" t="s">
+      <c r="A39" s="363" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="113"/>
+      <c r="B39" s="364"/>
       <c r="C39" s="4">
         <f>SUM(C38,C33,C30,C24,C18,C12,C6)</f>
         <v>11760000</v>
@@ -15238,7 +15964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C15:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -15409,7 +16135,7 @@
   <dimension ref="B3:N71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+      <selection activeCell="H27" sqref="A3:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15477,9 +16203,9 @@
         <v>500000</v>
       </c>
       <c r="G7" s="40"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="88"/>
+      <c r="L7" s="375"/>
+      <c r="M7" s="376"/>
+      <c r="N7" s="372"/>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="37" t="s">
@@ -15489,9 +16215,9 @@
         <v>400000</v>
       </c>
       <c r="G8" s="36"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="88"/>
+      <c r="L8" s="375"/>
+      <c r="M8" s="376"/>
+      <c r="N8" s="372"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="37" t="s">
@@ -15511,10 +16237,10 @@
         <v>1000000</v>
       </c>
       <c r="G10" s="36"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="90"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="92"/>
+      <c r="I10" s="373"/>
+      <c r="J10" s="374"/>
+      <c r="L10" s="375"/>
+      <c r="M10" s="376"/>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="37" t="s">
@@ -15524,10 +16250,10 @@
         <v>100000</v>
       </c>
       <c r="G11" s="36"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="90"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="92"/>
+      <c r="I11" s="373"/>
+      <c r="J11" s="374"/>
+      <c r="L11" s="375"/>
+      <c r="M11" s="376"/>
     </row>
     <row r="12" spans="2:14" ht="30" customHeight="1">
       <c r="B12" s="37" t="s">
@@ -15536,10 +16262,10 @@
       <c r="C12" s="36">
         <v>200000</v>
       </c>
-      <c r="I12" s="89"/>
-      <c r="J12" s="90"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="92"/>
+      <c r="I12" s="373"/>
+      <c r="J12" s="374"/>
+      <c r="L12" s="375"/>
+      <c r="M12" s="376"/>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="37" t="s">
@@ -15548,9 +16274,9 @@
       <c r="C13" s="36">
         <v>300000</v>
       </c>
-      <c r="L13" s="91"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="88"/>
+      <c r="L13" s="375"/>
+      <c r="M13" s="376"/>
+      <c r="N13" s="372"/>
     </row>
     <row r="14" spans="2:14" ht="30">
       <c r="B14" s="37" t="s">
@@ -15559,9 +16285,9 @@
       <c r="C14" s="36">
         <v>100000</v>
       </c>
-      <c r="L14" s="91"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="88"/>
+      <c r="L14" s="375"/>
+      <c r="M14" s="376"/>
+      <c r="N14" s="372"/>
     </row>
     <row r="15" spans="2:14">
       <c r="B15" s="37" t="s">
@@ -15570,9 +16296,9 @@
       <c r="C15" s="36">
         <v>200000</v>
       </c>
-      <c r="L15" s="91"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="88"/>
+      <c r="L15" s="375"/>
+      <c r="M15" s="376"/>
+      <c r="N15" s="372"/>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="37" t="s">
@@ -15581,9 +16307,9 @@
       <c r="C16" s="36">
         <v>200000</v>
       </c>
-      <c r="L16" s="91"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="88"/>
+      <c r="L16" s="375"/>
+      <c r="M16" s="376"/>
+      <c r="N16" s="372"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="37" t="s">
@@ -15603,10 +16329,10 @@
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="375" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="91"/>
+      <c r="C19" s="375"/>
       <c r="M19" s="36"/>
     </row>
     <row r="20" spans="2:13">
@@ -15762,30 +16488,30 @@
       <c r="I6" t="s">
         <v>217</v>
       </c>
-      <c r="M6" s="88">
+      <c r="M6" s="372">
         <v>21</v>
       </c>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88">
+      <c r="N6" s="372"/>
+      <c r="O6" s="372"/>
+      <c r="P6" s="372"/>
+      <c r="Q6" s="372">
         <v>22</v>
       </c>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88">
+      <c r="R6" s="372"/>
+      <c r="S6" s="372"/>
+      <c r="T6" s="372"/>
+      <c r="U6" s="372">
         <v>23</v>
       </c>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88">
+      <c r="V6" s="372"/>
+      <c r="W6" s="372"/>
+      <c r="X6" s="372"/>
+      <c r="Y6" s="372">
         <v>24</v>
       </c>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="88"/>
-      <c r="AB6" s="88"/>
+      <c r="Z6" s="372"/>
+      <c r="AA6" s="372"/>
+      <c r="AB6" s="372"/>
     </row>
     <row r="7" spans="2:28">
       <c r="B7" t="s">
@@ -15794,34 +16520,34 @@
       <c r="I7" t="s">
         <v>216</v>
       </c>
-      <c r="K7" s="88">
+      <c r="K7" s="372">
         <v>23</v>
       </c>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88">
+      <c r="L7" s="372"/>
+      <c r="M7" s="372">
         <v>24</v>
       </c>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88">
+      <c r="N7" s="372"/>
+      <c r="O7" s="372"/>
+      <c r="P7" s="372"/>
+      <c r="Q7" s="372">
         <v>25</v>
       </c>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88">
+      <c r="R7" s="372"/>
+      <c r="S7" s="372"/>
+      <c r="T7" s="372"/>
+      <c r="U7" s="372">
         <v>26</v>
       </c>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="88"/>
-      <c r="Y7" s="88">
+      <c r="V7" s="372"/>
+      <c r="W7" s="372"/>
+      <c r="X7" s="372"/>
+      <c r="Y7" s="372">
         <v>27</v>
       </c>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="88"/>
-      <c r="AB7" s="88"/>
+      <c r="Z7" s="372"/>
+      <c r="AA7" s="372"/>
+      <c r="AB7" s="372"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" t="s">
@@ -15886,7 +16612,7 @@
       <c r="B9" t="s">
         <v>165</v>
       </c>
-      <c r="I9" s="93">
+      <c r="I9" s="377">
         <v>144</v>
       </c>
       <c r="J9" t="s">
@@ -15936,7 +16662,7 @@
       </c>
     </row>
     <row r="10" spans="2:28">
-      <c r="I10" s="93"/>
+      <c r="I10" s="377"/>
       <c r="J10" t="s">
         <v>214</v>
       </c>
@@ -15991,13 +16717,13 @@
       </c>
     </row>
     <row r="11" spans="2:28">
-      <c r="I11" s="93"/>
+      <c r="I11" s="377"/>
       <c r="J11" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="12" spans="2:28">
-      <c r="I12" s="93"/>
+      <c r="I12" s="377"/>
       <c r="S12">
         <v>24</v>
       </c>
@@ -16017,7 +16743,7 @@
       <c r="B13" t="s">
         <v>166</v>
       </c>
-      <c r="I13" s="93"/>
+      <c r="I13" s="377"/>
       <c r="J13" t="s">
         <v>193</v>
       </c>
